--- a/Code/Results/Cases/Case_3_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_2/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9842856285403698</v>
+        <v>0.9842856285403694</v>
       </c>
       <c r="D2">
         <v>1.005694666238667</v>
@@ -442,13 +442,13 @@
         <v>1.006946732369906</v>
       </c>
       <c r="K2">
-        <v>1.017075231355866</v>
+        <v>1.017075231355865</v>
       </c>
       <c r="L2">
-        <v>0.9995773437007683</v>
+        <v>0.9995773437007685</v>
       </c>
       <c r="M2">
-        <v>0.9525116631900024</v>
+        <v>0.9525116631900021</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9921276023961446</v>
+        <v>0.9921276023961445</v>
       </c>
       <c r="D3">
         <v>1.0117433765308</v>
@@ -468,7 +468,7 @@
         <v>0.9952158443967841</v>
       </c>
       <c r="F3">
-        <v>0.9534748190602709</v>
+        <v>0.9534748190602702</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,7 +477,7 @@
         <v>1.040847205858668</v>
       </c>
       <c r="J3">
-        <v>1.012835202065933</v>
+        <v>1.012835202065932</v>
       </c>
       <c r="K3">
         <v>1.022228171719697</v>
@@ -486,7 +486,7 @@
         <v>1.005910307608828</v>
       </c>
       <c r="M3">
-        <v>0.9647397685802938</v>
+        <v>0.9647397685802932</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9970127539544228</v>
+        <v>0.997012753954423</v>
       </c>
       <c r="D4">
         <v>1.015512287660022</v>
       </c>
       <c r="E4">
-        <v>0.9997398270489846</v>
+        <v>0.999739827048985</v>
       </c>
       <c r="F4">
-        <v>0.9617130549960436</v>
+        <v>0.9617130549960439</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,7 +515,7 @@
         <v>1.042579623884746</v>
       </c>
       <c r="J4">
-        <v>1.016493183702029</v>
+        <v>1.01649318370203</v>
       </c>
       <c r="K4">
         <v>1.025427029778937</v>
@@ -524,7 +524,7 @@
         <v>1.009841393143544</v>
       </c>
       <c r="M4">
-        <v>0.9722966422912671</v>
+        <v>0.9722966422912674</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9990244162116672</v>
+        <v>0.9990244162116692</v>
       </c>
       <c r="D5">
-        <v>1.017064390452098</v>
+        <v>1.0170643904521</v>
       </c>
       <c r="E5">
-        <v>1.001601995611747</v>
+        <v>1.001601995611749</v>
       </c>
       <c r="F5">
-        <v>0.9650928037146213</v>
+        <v>0.9650928037146224</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04328868611796</v>
+        <v>1.043288686117961</v>
       </c>
       <c r="J5">
-        <v>1.01799708623058</v>
+        <v>1.017997086230581</v>
       </c>
       <c r="K5">
-        <v>1.026741586292093</v>
+        <v>1.026741586292095</v>
       </c>
       <c r="L5">
-        <v>1.011457008460263</v>
+        <v>1.011457008460264</v>
       </c>
       <c r="M5">
-        <v>0.9753959102458005</v>
+        <v>0.9753959102458016</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9993598035233894</v>
+        <v>0.9993598035233903</v>
       </c>
       <c r="D6">
-        <v>1.017323162034852</v>
+        <v>1.017323162034853</v>
       </c>
       <c r="E6">
-        <v>1.001912417825335</v>
+        <v>1.001912417825336</v>
       </c>
       <c r="F6">
-        <v>0.9656555932498422</v>
+        <v>0.9656555932498423</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>1.043406645953491</v>
       </c>
       <c r="J6">
-        <v>1.018247677381694</v>
+        <v>1.018247677381695</v>
       </c>
       <c r="K6">
         <v>1.02696059110388</v>
@@ -600,7 +600,7 @@
         <v>1.011726184733497</v>
       </c>
       <c r="M6">
-        <v>0.9759119358661879</v>
+        <v>0.9759119358661881</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9970397951614489</v>
+        <v>0.99703979516145</v>
       </c>
       <c r="D7">
-        <v>1.015533151118433</v>
+        <v>1.015533151118434</v>
       </c>
       <c r="E7">
-        <v>0.9997648615922851</v>
+        <v>0.9997648615922863</v>
       </c>
       <c r="F7">
-        <v>0.9617585338765973</v>
+        <v>0.9617585338765984</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042589172482449</v>
+        <v>1.04258917248245</v>
       </c>
       <c r="J7">
-        <v>1.01651340905478</v>
+        <v>1.016513409054781</v>
       </c>
       <c r="K7">
-        <v>1.025444711098108</v>
+        <v>1.025444711098109</v>
       </c>
       <c r="L7">
-        <v>1.009863122936481</v>
+        <v>1.009863122936483</v>
       </c>
       <c r="M7">
-        <v>0.9723383508457032</v>
+        <v>0.9723383508457042</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9869770912796494</v>
+        <v>0.9869770912796484</v>
       </c>
       <c r="D8">
-        <v>1.007770402768974</v>
+        <v>1.007770402768973</v>
       </c>
       <c r="E8">
-        <v>0.9904430028075566</v>
+        <v>0.9904430028075559</v>
       </c>
       <c r="F8">
-        <v>0.9447381973702855</v>
+        <v>0.9447381973702845</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039005593168974</v>
+        <v>1.039005593168973</v>
       </c>
       <c r="J8">
-        <v>1.008969925063452</v>
+        <v>1.008969925063451</v>
       </c>
       <c r="K8">
         <v>1.018846137781112</v>
       </c>
       <c r="L8">
-        <v>1.001754005056283</v>
+        <v>1.001754005056282</v>
       </c>
       <c r="M8">
-        <v>0.9567226770715704</v>
+        <v>0.9567226770715697</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9676267408127323</v>
+        <v>0.9676267408127326</v>
       </c>
       <c r="D9">
-        <v>0.9928558250794602</v>
+        <v>0.9928558250794607</v>
       </c>
       <c r="E9">
-        <v>0.9724763932768148</v>
+        <v>0.9724763932768153</v>
       </c>
       <c r="F9">
-        <v>0.9113605821978232</v>
+        <v>0.9113605821978241</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.031968217265755</v>
       </c>
       <c r="J9">
-        <v>0.994376858852121</v>
+        <v>0.9943768588521213</v>
       </c>
       <c r="K9">
-        <v>1.006065884832717</v>
+        <v>1.006065884832718</v>
       </c>
       <c r="L9">
-        <v>0.986032385354416</v>
+        <v>0.9860323853544164</v>
       </c>
       <c r="M9">
-        <v>0.9260765271370247</v>
+        <v>0.9260765271370256</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9533476678776003</v>
+        <v>0.9533476678776012</v>
       </c>
       <c r="D10">
-        <v>0.9818681778286644</v>
+        <v>0.981868177828665</v>
       </c>
       <c r="E10">
-        <v>0.9591721837321009</v>
+        <v>0.9591721837321016</v>
       </c>
       <c r="F10">
-        <v>0.8860350361950348</v>
+        <v>0.886035036195036</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.026676553639112</v>
       </c>
       <c r="J10">
-        <v>0.9835428240245376</v>
+        <v>0.9835428240245386</v>
       </c>
       <c r="K10">
-        <v>0.9965727111996087</v>
+        <v>0.9965727111996093</v>
       </c>
       <c r="L10">
-        <v>0.9743199148235044</v>
+        <v>0.9743199148235051</v>
       </c>
       <c r="M10">
-        <v>0.9028196449595649</v>
+        <v>0.9028196449595658</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9467512166108609</v>
+        <v>0.9467512166108603</v>
       </c>
       <c r="D11">
-        <v>0.9767989447739259</v>
+        <v>0.9767989447739254</v>
       </c>
       <c r="E11">
-        <v>0.9530089115673572</v>
+        <v>0.9530089115673568</v>
       </c>
       <c r="F11">
-        <v>0.8740888741628497</v>
+        <v>0.8740888741628489</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.024208764307174</v>
       </c>
       <c r="J11">
-        <v>0.9785201710146464</v>
+        <v>0.9785201710146456</v>
       </c>
       <c r="K11">
-        <v>0.9921720760602333</v>
+        <v>0.9921720760602328</v>
       </c>
       <c r="L11">
-        <v>0.9688749675722553</v>
+        <v>0.9688749675722546</v>
       </c>
       <c r="M11">
-        <v>0.8918523305172517</v>
+        <v>0.8918523305172511</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9442292183048387</v>
+        <v>0.9442292183048397</v>
       </c>
       <c r="D12">
-        <v>0.9748620729693791</v>
+        <v>0.9748620729693799</v>
       </c>
       <c r="E12">
-        <v>0.9506491905133514</v>
+        <v>0.9506491905133522</v>
       </c>
       <c r="F12">
-        <v>0.869474870444131</v>
+        <v>0.8694748704441319</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.023261778407522</v>
       </c>
       <c r="J12">
-        <v>0.9765969450986447</v>
+        <v>0.9765969450986457</v>
       </c>
       <c r="K12">
-        <v>0.9904872600219784</v>
+        <v>0.9904872600219793</v>
       </c>
       <c r="L12">
-        <v>0.9667871503477071</v>
+        <v>0.9667871503477079</v>
       </c>
       <c r="M12">
-        <v>0.887617318386872</v>
+        <v>0.8876173183868729</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9447736263902107</v>
+        <v>0.9447736263902111</v>
       </c>
       <c r="D13">
-        <v>0.9752801141613748</v>
+        <v>0.9752801141613754</v>
       </c>
       <c r="E13">
         <v>0.9511587342255639</v>
       </c>
       <c r="F13">
-        <v>0.8704731562894112</v>
+        <v>0.870473156289412</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023466355547689</v>
+        <v>1.02346635554769</v>
       </c>
       <c r="J13">
-        <v>0.9770122375975173</v>
+        <v>0.9770122375975175</v>
       </c>
       <c r="K13">
-        <v>0.9908510576808023</v>
+        <v>0.9908510576808027</v>
       </c>
       <c r="L13">
-        <v>0.9672381262468293</v>
+        <v>0.9672381262468294</v>
       </c>
       <c r="M13">
-        <v>0.8885335547951058</v>
+        <v>0.8885335547951065</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9465442765814118</v>
+        <v>0.9465442765814107</v>
       </c>
       <c r="D14">
-        <v>0.976639990479171</v>
+        <v>0.9766399904791699</v>
       </c>
       <c r="E14">
-        <v>0.952815359769122</v>
+        <v>0.9528153597691206</v>
       </c>
       <c r="F14">
-        <v>0.8737112856059632</v>
+        <v>0.8737112856059613</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024131130804543</v>
+        <v>1.024131130804542</v>
       </c>
       <c r="J14">
-        <v>0.9783624238586797</v>
+        <v>0.9783624238586784</v>
       </c>
       <c r="K14">
-        <v>0.9920338779562581</v>
+        <v>0.9920338779562569</v>
       </c>
       <c r="L14">
-        <v>0.9687037829282893</v>
+        <v>0.9687037829282882</v>
       </c>
       <c r="M14">
-        <v>0.8915057349849996</v>
+        <v>0.8915057349849979</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,19 +912,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C15">
         <v>0.9476253896734</v>
       </c>
       <c r="D15">
-        <v>0.977470463737541</v>
+        <v>0.9774704637375408</v>
       </c>
       <c r="E15">
-        <v>0.9538263887147601</v>
+        <v>0.95382638871476</v>
       </c>
       <c r="F15">
-        <v>0.875681961651292</v>
+        <v>0.8756819616512924</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.024536569081379</v>
       </c>
       <c r="J15">
-        <v>0.9791864189432004</v>
+        <v>0.9791864189432002</v>
       </c>
       <c r="K15">
-        <v>0.992755768764523</v>
+        <v>0.9927557687645229</v>
       </c>
       <c r="L15">
-        <v>0.9695978478810116</v>
+        <v>0.9695978478810114</v>
       </c>
       <c r="M15">
-        <v>0.8933146955711636</v>
+        <v>0.8933146955711639</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9537759698507265</v>
+        <v>0.953775969850726</v>
       </c>
       <c r="D16">
-        <v>0.9821974742765245</v>
+        <v>0.9821974742765243</v>
       </c>
       <c r="E16">
-        <v>0.9595719499192599</v>
+        <v>0.9595719499192598</v>
       </c>
       <c r="F16">
-        <v>0.8868048961825741</v>
+        <v>0.886804896182574</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.026836309757579</v>
       </c>
       <c r="J16">
-        <v>0.9838685572174796</v>
+        <v>0.9838685572174791</v>
       </c>
       <c r="K16">
-        <v>0.9968581264044144</v>
+        <v>0.996858126404414</v>
       </c>
       <c r="L16">
-        <v>0.9746726784399784</v>
+        <v>0.9746726784399783</v>
       </c>
       <c r="M16">
-        <v>0.9035265217118873</v>
+        <v>0.9035265217118872</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9575172536141028</v>
+        <v>0.9575172536141042</v>
       </c>
       <c r="D17">
-        <v>0.9850747003174291</v>
+        <v>0.9850747003174304</v>
       </c>
       <c r="E17">
-        <v>0.9630619909416432</v>
+        <v>0.9630619909416447</v>
       </c>
       <c r="F17">
-        <v>0.8935014102199157</v>
+        <v>0.8935014102199178</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028229217451661</v>
+        <v>1.028229217451662</v>
       </c>
       <c r="J17">
-        <v>0.9867118922851409</v>
+        <v>0.9867118922851423</v>
       </c>
       <c r="K17">
-        <v>0.9993495847853475</v>
+        <v>0.9993495847853487</v>
       </c>
       <c r="L17">
-        <v>0.9777502322886048</v>
+        <v>0.9777502322886064</v>
       </c>
       <c r="M17">
-        <v>0.9096755620262699</v>
+        <v>0.909675562026272</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9596603427135981</v>
+        <v>0.9596603427135978</v>
       </c>
       <c r="D18">
-        <v>0.9867234433844567</v>
+        <v>0.9867234433844563</v>
       </c>
       <c r="E18">
-        <v>0.9650596283834749</v>
+        <v>0.9650596283834748</v>
       </c>
       <c r="F18">
-        <v>0.8973151800036226</v>
+        <v>0.8973151800036223</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.029024952535023</v>
       </c>
       <c r="J18">
-        <v>0.9883389974036131</v>
+        <v>0.9883389974036128</v>
       </c>
       <c r="K18">
-        <v>1.00077535153145</v>
+        <v>1.000775351531449</v>
       </c>
       <c r="L18">
-        <v>0.9795100240424605</v>
+        <v>0.9795100240424601</v>
       </c>
       <c r="M18">
-        <v>0.9131777811277403</v>
+        <v>0.9131777811277397</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9603846979652417</v>
+        <v>0.9603846979652395</v>
       </c>
       <c r="D19">
-        <v>0.9872808081574767</v>
+        <v>0.9872808081574744</v>
       </c>
       <c r="E19">
-        <v>0.9657345796539065</v>
+        <v>0.9657345796539045</v>
       </c>
       <c r="F19">
-        <v>0.898600699482773</v>
+        <v>0.8986006994827701</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029293542056767</v>
+        <v>1.029293542056766</v>
       </c>
       <c r="J19">
-        <v>0.9888886839528251</v>
+        <v>0.9888886839528233</v>
       </c>
       <c r="K19">
-        <v>1.001257019353814</v>
+        <v>1.001257019353812</v>
       </c>
       <c r="L19">
-        <v>0.9801043235648436</v>
+        <v>0.9801043235648416</v>
       </c>
       <c r="M19">
-        <v>0.9143583151992026</v>
+        <v>0.9143583151991999</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.957119959761881</v>
+        <v>0.9571199597618801</v>
       </c>
       <c r="D20">
-        <v>0.984769097826383</v>
+        <v>0.9847690978263823</v>
       </c>
       <c r="E20">
         <v>0.9626915413606231</v>
       </c>
       <c r="F20">
-        <v>0.8927926592538453</v>
+        <v>0.8927926592538444</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.028081526137917</v>
       </c>
       <c r="J20">
-        <v>0.9864101235279734</v>
+        <v>0.9864101235279729</v>
       </c>
       <c r="K20">
-        <v>0.9990851578203153</v>
+        <v>0.9990851578203147</v>
       </c>
       <c r="L20">
-        <v>0.9774237494680846</v>
+        <v>0.9774237494680843</v>
       </c>
       <c r="M20">
-        <v>0.9090247267010172</v>
+        <v>0.9090247267010165</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9460249358763542</v>
+        <v>0.9460249358763544</v>
       </c>
       <c r="D21">
-        <v>0.9762410962373788</v>
+        <v>0.9762410962373792</v>
       </c>
       <c r="E21">
-        <v>0.9523295618517148</v>
+        <v>0.9523295618517149</v>
       </c>
       <c r="F21">
-        <v>0.8727628956456548</v>
+        <v>0.8727628956456555</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.023936244356868</v>
       </c>
       <c r="J21">
-        <v>0.9779664903946946</v>
+        <v>0.9779664903946949</v>
       </c>
       <c r="K21">
-        <v>0.9916870155323819</v>
+        <v>0.9916870155323824</v>
       </c>
       <c r="L21">
-        <v>0.968274073580376</v>
+        <v>0.9682740735803761</v>
       </c>
       <c r="M21">
-        <v>0.8906352069589554</v>
+        <v>0.8906352069589559</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9386269204896999</v>
+        <v>0.9386269204896994</v>
       </c>
       <c r="D22">
-        <v>0.9705621102186944</v>
+        <v>0.9705621102186943</v>
       </c>
       <c r="E22">
-        <v>0.9454000782830635</v>
+        <v>0.9454000782830631</v>
       </c>
       <c r="F22">
-        <v>0.859125236280069</v>
+        <v>0.8591252362800684</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.021151690605105</v>
       </c>
       <c r="J22">
-        <v>0.9723188948156596</v>
+        <v>0.9723188948156594</v>
       </c>
       <c r="K22">
-        <v>0.9867401977669454</v>
+        <v>0.9867401977669451</v>
       </c>
       <c r="L22">
-        <v>0.9621367322186201</v>
+        <v>0.9621367322186194</v>
       </c>
       <c r="M22">
-        <v>0.8781201937460461</v>
+        <v>0.8781201937460451</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9425926959613541</v>
+        <v>0.9425926959613545</v>
       </c>
       <c r="D23">
-        <v>0.97360561583425</v>
+        <v>0.9736056158342502</v>
       </c>
       <c r="E23">
-        <v>0.9491169086077743</v>
+        <v>0.9491169086077749</v>
       </c>
       <c r="F23">
-        <v>0.8664661973141645</v>
+        <v>0.8664661973141651</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.022646295543542</v>
       </c>
       <c r="J23">
-        <v>0.9753480940059496</v>
+        <v>0.9753480940059499</v>
       </c>
       <c r="K23">
-        <v>0.989393312173004</v>
+        <v>0.9893933121730041</v>
       </c>
       <c r="L23">
-        <v>0.9654305098127989</v>
+        <v>0.9654305098127993</v>
       </c>
       <c r="M23">
-        <v>0.8848561101284582</v>
+        <v>0.8848561101284587</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9572995999990866</v>
+        <v>0.9572995999990868</v>
       </c>
       <c r="D24">
-        <v>0.98490727706489</v>
+        <v>0.9849072770648906</v>
       </c>
       <c r="E24">
-        <v>0.9628590484274401</v>
+        <v>0.9628590484274404</v>
       </c>
       <c r="F24">
-        <v>0.8931131960891806</v>
+        <v>0.8931131960891808</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028148312890308</v>
+        <v>1.028148312890309</v>
       </c>
       <c r="J24">
-        <v>0.9865465761979576</v>
+        <v>0.986546576197958</v>
       </c>
       <c r="K24">
-        <v>0.999204725355992</v>
+        <v>0.9992047253559925</v>
       </c>
       <c r="L24">
-        <v>0.9775713813987301</v>
+        <v>0.9775713813987305</v>
       </c>
       <c r="M24">
-        <v>0.9093190701138838</v>
+        <v>0.9093190701138844</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9728476953754577</v>
+        <v>0.9728476953754582</v>
       </c>
       <c r="D25">
-        <v>0.9968776016105894</v>
+        <v>0.9968776016105898</v>
       </c>
       <c r="E25">
-        <v>0.9773302075785855</v>
+        <v>0.977330207578586</v>
       </c>
       <c r="F25">
-        <v>0.9204620665058846</v>
+        <v>0.9204620665058851</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.033883627913797</v>
       </c>
       <c r="J25">
-        <v>0.9983247155682702</v>
+        <v>0.9983247155682703</v>
       </c>
       <c r="K25">
         <v>1.009524582946733</v>
       </c>
       <c r="L25">
-        <v>0.9902909416068124</v>
+        <v>0.9902909416068131</v>
       </c>
       <c r="M25">
-        <v>0.9344348240596748</v>
+        <v>0.9344348240596754</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_2/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9842856285403694</v>
+        <v>0.9842856285403698</v>
       </c>
       <c r="D2">
         <v>1.005694666238667</v>
@@ -442,13 +442,13 @@
         <v>1.006946732369906</v>
       </c>
       <c r="K2">
-        <v>1.017075231355865</v>
+        <v>1.017075231355866</v>
       </c>
       <c r="L2">
-        <v>0.9995773437007685</v>
+        <v>0.9995773437007683</v>
       </c>
       <c r="M2">
-        <v>0.9525116631900021</v>
+        <v>0.9525116631900024</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9921276023961445</v>
+        <v>0.9921276023961446</v>
       </c>
       <c r="D3">
         <v>1.0117433765308</v>
@@ -468,7 +468,7 @@
         <v>0.9952158443967841</v>
       </c>
       <c r="F3">
-        <v>0.9534748190602702</v>
+        <v>0.9534748190602709</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,7 +477,7 @@
         <v>1.040847205858668</v>
       </c>
       <c r="J3">
-        <v>1.012835202065932</v>
+        <v>1.012835202065933</v>
       </c>
       <c r="K3">
         <v>1.022228171719697</v>
@@ -486,7 +486,7 @@
         <v>1.005910307608828</v>
       </c>
       <c r="M3">
-        <v>0.9647397685802932</v>
+        <v>0.9647397685802938</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.997012753954423</v>
+        <v>0.9970127539544228</v>
       </c>
       <c r="D4">
         <v>1.015512287660022</v>
       </c>
       <c r="E4">
-        <v>0.999739827048985</v>
+        <v>0.9997398270489846</v>
       </c>
       <c r="F4">
-        <v>0.9617130549960439</v>
+        <v>0.9617130549960436</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,7 +515,7 @@
         <v>1.042579623884746</v>
       </c>
       <c r="J4">
-        <v>1.01649318370203</v>
+        <v>1.016493183702029</v>
       </c>
       <c r="K4">
         <v>1.025427029778937</v>
@@ -524,7 +524,7 @@
         <v>1.009841393143544</v>
       </c>
       <c r="M4">
-        <v>0.9722966422912674</v>
+        <v>0.9722966422912671</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9990244162116692</v>
+        <v>0.9990244162116672</v>
       </c>
       <c r="D5">
-        <v>1.0170643904521</v>
+        <v>1.017064390452098</v>
       </c>
       <c r="E5">
-        <v>1.001601995611749</v>
+        <v>1.001601995611747</v>
       </c>
       <c r="F5">
-        <v>0.9650928037146224</v>
+        <v>0.9650928037146213</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043288686117961</v>
+        <v>1.04328868611796</v>
       </c>
       <c r="J5">
-        <v>1.017997086230581</v>
+        <v>1.01799708623058</v>
       </c>
       <c r="K5">
-        <v>1.026741586292095</v>
+        <v>1.026741586292093</v>
       </c>
       <c r="L5">
-        <v>1.011457008460264</v>
+        <v>1.011457008460263</v>
       </c>
       <c r="M5">
-        <v>0.9753959102458016</v>
+        <v>0.9753959102458005</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9993598035233903</v>
+        <v>0.9993598035233894</v>
       </c>
       <c r="D6">
-        <v>1.017323162034853</v>
+        <v>1.017323162034852</v>
       </c>
       <c r="E6">
-        <v>1.001912417825336</v>
+        <v>1.001912417825335</v>
       </c>
       <c r="F6">
-        <v>0.9656555932498423</v>
+        <v>0.9656555932498422</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>1.043406645953491</v>
       </c>
       <c r="J6">
-        <v>1.018247677381695</v>
+        <v>1.018247677381694</v>
       </c>
       <c r="K6">
         <v>1.02696059110388</v>
@@ -600,7 +600,7 @@
         <v>1.011726184733497</v>
       </c>
       <c r="M6">
-        <v>0.9759119358661881</v>
+        <v>0.9759119358661879</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.99703979516145</v>
+        <v>0.9970397951614489</v>
       </c>
       <c r="D7">
-        <v>1.015533151118434</v>
+        <v>1.015533151118433</v>
       </c>
       <c r="E7">
-        <v>0.9997648615922863</v>
+        <v>0.9997648615922851</v>
       </c>
       <c r="F7">
-        <v>0.9617585338765984</v>
+        <v>0.9617585338765973</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04258917248245</v>
+        <v>1.042589172482449</v>
       </c>
       <c r="J7">
-        <v>1.016513409054781</v>
+        <v>1.01651340905478</v>
       </c>
       <c r="K7">
-        <v>1.025444711098109</v>
+        <v>1.025444711098108</v>
       </c>
       <c r="L7">
-        <v>1.009863122936483</v>
+        <v>1.009863122936481</v>
       </c>
       <c r="M7">
-        <v>0.9723383508457042</v>
+        <v>0.9723383508457032</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9869770912796484</v>
+        <v>0.9869770912796494</v>
       </c>
       <c r="D8">
-        <v>1.007770402768973</v>
+        <v>1.007770402768974</v>
       </c>
       <c r="E8">
-        <v>0.9904430028075559</v>
+        <v>0.9904430028075566</v>
       </c>
       <c r="F8">
-        <v>0.9447381973702845</v>
+        <v>0.9447381973702855</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039005593168973</v>
+        <v>1.039005593168974</v>
       </c>
       <c r="J8">
-        <v>1.008969925063451</v>
+        <v>1.008969925063452</v>
       </c>
       <c r="K8">
         <v>1.018846137781112</v>
       </c>
       <c r="L8">
-        <v>1.001754005056282</v>
+        <v>1.001754005056283</v>
       </c>
       <c r="M8">
-        <v>0.9567226770715697</v>
+        <v>0.9567226770715704</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9676267408127326</v>
+        <v>0.9676267408127323</v>
       </c>
       <c r="D9">
-        <v>0.9928558250794607</v>
+        <v>0.9928558250794602</v>
       </c>
       <c r="E9">
-        <v>0.9724763932768153</v>
+        <v>0.9724763932768148</v>
       </c>
       <c r="F9">
-        <v>0.9113605821978241</v>
+        <v>0.9113605821978232</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.031968217265755</v>
       </c>
       <c r="J9">
-        <v>0.9943768588521213</v>
+        <v>0.994376858852121</v>
       </c>
       <c r="K9">
-        <v>1.006065884832718</v>
+        <v>1.006065884832717</v>
       </c>
       <c r="L9">
-        <v>0.9860323853544164</v>
+        <v>0.986032385354416</v>
       </c>
       <c r="M9">
-        <v>0.9260765271370256</v>
+        <v>0.9260765271370247</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9533476678776012</v>
+        <v>0.9533476678776003</v>
       </c>
       <c r="D10">
-        <v>0.981868177828665</v>
+        <v>0.9818681778286644</v>
       </c>
       <c r="E10">
-        <v>0.9591721837321016</v>
+        <v>0.9591721837321009</v>
       </c>
       <c r="F10">
-        <v>0.886035036195036</v>
+        <v>0.8860350361950348</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.026676553639112</v>
       </c>
       <c r="J10">
-        <v>0.9835428240245386</v>
+        <v>0.9835428240245376</v>
       </c>
       <c r="K10">
-        <v>0.9965727111996093</v>
+        <v>0.9965727111996087</v>
       </c>
       <c r="L10">
-        <v>0.9743199148235051</v>
+        <v>0.9743199148235044</v>
       </c>
       <c r="M10">
-        <v>0.9028196449595658</v>
+        <v>0.9028196449595649</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9467512166108603</v>
+        <v>0.9467512166108609</v>
       </c>
       <c r="D11">
-        <v>0.9767989447739254</v>
+        <v>0.9767989447739259</v>
       </c>
       <c r="E11">
-        <v>0.9530089115673568</v>
+        <v>0.9530089115673572</v>
       </c>
       <c r="F11">
-        <v>0.8740888741628489</v>
+        <v>0.8740888741628497</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.024208764307174</v>
       </c>
       <c r="J11">
-        <v>0.9785201710146456</v>
+        <v>0.9785201710146464</v>
       </c>
       <c r="K11">
-        <v>0.9921720760602328</v>
+        <v>0.9921720760602333</v>
       </c>
       <c r="L11">
-        <v>0.9688749675722546</v>
+        <v>0.9688749675722553</v>
       </c>
       <c r="M11">
-        <v>0.8918523305172511</v>
+        <v>0.8918523305172517</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9442292183048397</v>
+        <v>0.9442292183048387</v>
       </c>
       <c r="D12">
-        <v>0.9748620729693799</v>
+        <v>0.9748620729693791</v>
       </c>
       <c r="E12">
-        <v>0.9506491905133522</v>
+        <v>0.9506491905133514</v>
       </c>
       <c r="F12">
-        <v>0.8694748704441319</v>
+        <v>0.869474870444131</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.023261778407522</v>
       </c>
       <c r="J12">
-        <v>0.9765969450986457</v>
+        <v>0.9765969450986447</v>
       </c>
       <c r="K12">
-        <v>0.9904872600219793</v>
+        <v>0.9904872600219784</v>
       </c>
       <c r="L12">
-        <v>0.9667871503477079</v>
+        <v>0.9667871503477071</v>
       </c>
       <c r="M12">
-        <v>0.8876173183868729</v>
+        <v>0.887617318386872</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9447736263902111</v>
+        <v>0.9447736263902107</v>
       </c>
       <c r="D13">
-        <v>0.9752801141613754</v>
+        <v>0.9752801141613748</v>
       </c>
       <c r="E13">
         <v>0.9511587342255639</v>
       </c>
       <c r="F13">
-        <v>0.870473156289412</v>
+        <v>0.8704731562894112</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02346635554769</v>
+        <v>1.023466355547689</v>
       </c>
       <c r="J13">
-        <v>0.9770122375975175</v>
+        <v>0.9770122375975173</v>
       </c>
       <c r="K13">
-        <v>0.9908510576808027</v>
+        <v>0.9908510576808023</v>
       </c>
       <c r="L13">
-        <v>0.9672381262468294</v>
+        <v>0.9672381262468293</v>
       </c>
       <c r="M13">
-        <v>0.8885335547951065</v>
+        <v>0.8885335547951058</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9465442765814107</v>
+        <v>0.9465442765814118</v>
       </c>
       <c r="D14">
-        <v>0.9766399904791699</v>
+        <v>0.976639990479171</v>
       </c>
       <c r="E14">
-        <v>0.9528153597691206</v>
+        <v>0.952815359769122</v>
       </c>
       <c r="F14">
-        <v>0.8737112856059613</v>
+        <v>0.8737112856059632</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024131130804542</v>
+        <v>1.024131130804543</v>
       </c>
       <c r="J14">
-        <v>0.9783624238586784</v>
+        <v>0.9783624238586797</v>
       </c>
       <c r="K14">
-        <v>0.9920338779562569</v>
+        <v>0.9920338779562581</v>
       </c>
       <c r="L14">
-        <v>0.9687037829282882</v>
+        <v>0.9687037829282893</v>
       </c>
       <c r="M14">
-        <v>0.8915057349849979</v>
+        <v>0.8915057349849996</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,19 +912,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
         <v>0.9476253896734</v>
       </c>
       <c r="D15">
-        <v>0.9774704637375408</v>
+        <v>0.977470463737541</v>
       </c>
       <c r="E15">
-        <v>0.95382638871476</v>
+        <v>0.9538263887147601</v>
       </c>
       <c r="F15">
-        <v>0.8756819616512924</v>
+        <v>0.875681961651292</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.024536569081379</v>
       </c>
       <c r="J15">
-        <v>0.9791864189432002</v>
+        <v>0.9791864189432004</v>
       </c>
       <c r="K15">
-        <v>0.9927557687645229</v>
+        <v>0.992755768764523</v>
       </c>
       <c r="L15">
-        <v>0.9695978478810114</v>
+        <v>0.9695978478810116</v>
       </c>
       <c r="M15">
-        <v>0.8933146955711639</v>
+        <v>0.8933146955711636</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.953775969850726</v>
+        <v>0.9537759698507265</v>
       </c>
       <c r="D16">
-        <v>0.9821974742765243</v>
+        <v>0.9821974742765245</v>
       </c>
       <c r="E16">
-        <v>0.9595719499192598</v>
+        <v>0.9595719499192599</v>
       </c>
       <c r="F16">
-        <v>0.886804896182574</v>
+        <v>0.8868048961825741</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.026836309757579</v>
       </c>
       <c r="J16">
-        <v>0.9838685572174791</v>
+        <v>0.9838685572174796</v>
       </c>
       <c r="K16">
-        <v>0.996858126404414</v>
+        <v>0.9968581264044144</v>
       </c>
       <c r="L16">
-        <v>0.9746726784399783</v>
+        <v>0.9746726784399784</v>
       </c>
       <c r="M16">
-        <v>0.9035265217118872</v>
+        <v>0.9035265217118873</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9575172536141042</v>
+        <v>0.9575172536141028</v>
       </c>
       <c r="D17">
-        <v>0.9850747003174304</v>
+        <v>0.9850747003174291</v>
       </c>
       <c r="E17">
-        <v>0.9630619909416447</v>
+        <v>0.9630619909416432</v>
       </c>
       <c r="F17">
-        <v>0.8935014102199178</v>
+        <v>0.8935014102199157</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028229217451662</v>
+        <v>1.028229217451661</v>
       </c>
       <c r="J17">
-        <v>0.9867118922851423</v>
+        <v>0.9867118922851409</v>
       </c>
       <c r="K17">
-        <v>0.9993495847853487</v>
+        <v>0.9993495847853475</v>
       </c>
       <c r="L17">
-        <v>0.9777502322886064</v>
+        <v>0.9777502322886048</v>
       </c>
       <c r="M17">
-        <v>0.909675562026272</v>
+        <v>0.9096755620262699</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9596603427135978</v>
+        <v>0.9596603427135981</v>
       </c>
       <c r="D18">
-        <v>0.9867234433844563</v>
+        <v>0.9867234433844567</v>
       </c>
       <c r="E18">
-        <v>0.9650596283834748</v>
+        <v>0.9650596283834749</v>
       </c>
       <c r="F18">
-        <v>0.8973151800036223</v>
+        <v>0.8973151800036226</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.029024952535023</v>
       </c>
       <c r="J18">
-        <v>0.9883389974036128</v>
+        <v>0.9883389974036131</v>
       </c>
       <c r="K18">
-        <v>1.000775351531449</v>
+        <v>1.00077535153145</v>
       </c>
       <c r="L18">
-        <v>0.9795100240424601</v>
+        <v>0.9795100240424605</v>
       </c>
       <c r="M18">
-        <v>0.9131777811277397</v>
+        <v>0.9131777811277403</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9603846979652395</v>
+        <v>0.9603846979652417</v>
       </c>
       <c r="D19">
-        <v>0.9872808081574744</v>
+        <v>0.9872808081574767</v>
       </c>
       <c r="E19">
-        <v>0.9657345796539045</v>
+        <v>0.9657345796539065</v>
       </c>
       <c r="F19">
-        <v>0.8986006994827701</v>
+        <v>0.898600699482773</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029293542056766</v>
+        <v>1.029293542056767</v>
       </c>
       <c r="J19">
-        <v>0.9888886839528233</v>
+        <v>0.9888886839528251</v>
       </c>
       <c r="K19">
-        <v>1.001257019353812</v>
+        <v>1.001257019353814</v>
       </c>
       <c r="L19">
-        <v>0.9801043235648416</v>
+        <v>0.9801043235648436</v>
       </c>
       <c r="M19">
-        <v>0.9143583151991999</v>
+        <v>0.9143583151992026</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9571199597618801</v>
+        <v>0.957119959761881</v>
       </c>
       <c r="D20">
-        <v>0.9847690978263823</v>
+        <v>0.984769097826383</v>
       </c>
       <c r="E20">
         <v>0.9626915413606231</v>
       </c>
       <c r="F20">
-        <v>0.8927926592538444</v>
+        <v>0.8927926592538453</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.028081526137917</v>
       </c>
       <c r="J20">
-        <v>0.9864101235279729</v>
+        <v>0.9864101235279734</v>
       </c>
       <c r="K20">
-        <v>0.9990851578203147</v>
+        <v>0.9990851578203153</v>
       </c>
       <c r="L20">
-        <v>0.9774237494680843</v>
+        <v>0.9774237494680846</v>
       </c>
       <c r="M20">
-        <v>0.9090247267010165</v>
+        <v>0.9090247267010172</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9460249358763544</v>
+        <v>0.9460249358763542</v>
       </c>
       <c r="D21">
-        <v>0.9762410962373792</v>
+        <v>0.9762410962373788</v>
       </c>
       <c r="E21">
-        <v>0.9523295618517149</v>
+        <v>0.9523295618517148</v>
       </c>
       <c r="F21">
-        <v>0.8727628956456555</v>
+        <v>0.8727628956456548</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.023936244356868</v>
       </c>
       <c r="J21">
-        <v>0.9779664903946949</v>
+        <v>0.9779664903946946</v>
       </c>
       <c r="K21">
-        <v>0.9916870155323824</v>
+        <v>0.9916870155323819</v>
       </c>
       <c r="L21">
-        <v>0.9682740735803761</v>
+        <v>0.968274073580376</v>
       </c>
       <c r="M21">
-        <v>0.8906352069589559</v>
+        <v>0.8906352069589554</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9386269204896994</v>
+        <v>0.9386269204896999</v>
       </c>
       <c r="D22">
-        <v>0.9705621102186943</v>
+        <v>0.9705621102186944</v>
       </c>
       <c r="E22">
-        <v>0.9454000782830631</v>
+        <v>0.9454000782830635</v>
       </c>
       <c r="F22">
-        <v>0.8591252362800684</v>
+        <v>0.859125236280069</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.021151690605105</v>
       </c>
       <c r="J22">
-        <v>0.9723188948156594</v>
+        <v>0.9723188948156596</v>
       </c>
       <c r="K22">
-        <v>0.9867401977669451</v>
+        <v>0.9867401977669454</v>
       </c>
       <c r="L22">
-        <v>0.9621367322186194</v>
+        <v>0.9621367322186201</v>
       </c>
       <c r="M22">
-        <v>0.8781201937460451</v>
+        <v>0.8781201937460461</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9425926959613545</v>
+        <v>0.9425926959613541</v>
       </c>
       <c r="D23">
-        <v>0.9736056158342502</v>
+        <v>0.97360561583425</v>
       </c>
       <c r="E23">
-        <v>0.9491169086077749</v>
+        <v>0.9491169086077743</v>
       </c>
       <c r="F23">
-        <v>0.8664661973141651</v>
+        <v>0.8664661973141645</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.022646295543542</v>
       </c>
       <c r="J23">
-        <v>0.9753480940059499</v>
+        <v>0.9753480940059496</v>
       </c>
       <c r="K23">
-        <v>0.9893933121730041</v>
+        <v>0.989393312173004</v>
       </c>
       <c r="L23">
-        <v>0.9654305098127993</v>
+        <v>0.9654305098127989</v>
       </c>
       <c r="M23">
-        <v>0.8848561101284587</v>
+        <v>0.8848561101284582</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9572995999990868</v>
+        <v>0.9572995999990866</v>
       </c>
       <c r="D24">
-        <v>0.9849072770648906</v>
+        <v>0.98490727706489</v>
       </c>
       <c r="E24">
-        <v>0.9628590484274404</v>
+        <v>0.9628590484274401</v>
       </c>
       <c r="F24">
-        <v>0.8931131960891808</v>
+        <v>0.8931131960891806</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028148312890309</v>
+        <v>1.028148312890308</v>
       </c>
       <c r="J24">
-        <v>0.986546576197958</v>
+        <v>0.9865465761979576</v>
       </c>
       <c r="K24">
-        <v>0.9992047253559925</v>
+        <v>0.999204725355992</v>
       </c>
       <c r="L24">
-        <v>0.9775713813987305</v>
+        <v>0.9775713813987301</v>
       </c>
       <c r="M24">
-        <v>0.9093190701138844</v>
+        <v>0.9093190701138838</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9728476953754582</v>
+        <v>0.9728476953754577</v>
       </c>
       <c r="D25">
-        <v>0.9968776016105898</v>
+        <v>0.9968776016105894</v>
       </c>
       <c r="E25">
-        <v>0.977330207578586</v>
+        <v>0.9773302075785855</v>
       </c>
       <c r="F25">
-        <v>0.9204620665058851</v>
+        <v>0.9204620665058846</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.033883627913797</v>
       </c>
       <c r="J25">
-        <v>0.9983247155682703</v>
+        <v>0.9983247155682702</v>
       </c>
       <c r="K25">
         <v>1.009524582946733</v>
       </c>
       <c r="L25">
-        <v>0.9902909416068131</v>
+        <v>0.9902909416068124</v>
       </c>
       <c r="M25">
-        <v>0.9344348240596754</v>
+        <v>0.9344348240596748</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_2/res_bus/vm_pu.xlsx
@@ -418,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9842856285403698</v>
+        <v>0.9843001652706425</v>
       </c>
       <c r="D2">
-        <v>1.005694666238667</v>
+        <v>1.005706493890232</v>
       </c>
       <c r="E2">
-        <v>0.9879475049080334</v>
+        <v>0.9879617797980499</v>
       </c>
       <c r="F2">
-        <v>0.9401503736350387</v>
+        <v>0.9401663448298865</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038037491704995</v>
+        <v>1.038044114882387</v>
       </c>
       <c r="J2">
-        <v>1.006946732369906</v>
+        <v>1.006960814909166</v>
       </c>
       <c r="K2">
-        <v>1.017075231355866</v>
+        <v>1.017086896574712</v>
       </c>
       <c r="L2">
-        <v>0.9995773437007683</v>
+        <v>0.9995914135312591</v>
       </c>
       <c r="M2">
-        <v>0.9525116631900024</v>
+        <v>0.9525273740170747</v>
+      </c>
+      <c r="N2">
+        <v>1.006180740152642</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9921276023961446</v>
+        <v>0.9921373984596025</v>
       </c>
       <c r="D3">
-        <v>1.0117433765308</v>
+        <v>1.011751360383702</v>
       </c>
       <c r="E3">
-        <v>0.9952158443967841</v>
+        <v>0.9952257621863625</v>
       </c>
       <c r="F3">
-        <v>0.9534748190602709</v>
+        <v>0.9534857679325429</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040847205858668</v>
+        <v>1.040851682567303</v>
       </c>
       <c r="J3">
-        <v>1.012835202065933</v>
+        <v>1.012844725265024</v>
       </c>
       <c r="K3">
-        <v>1.022228171719697</v>
+        <v>1.022236056351869</v>
       </c>
       <c r="L3">
-        <v>1.005910307608828</v>
+        <v>1.005920096968721</v>
       </c>
       <c r="M3">
-        <v>0.9647397685802938</v>
+        <v>0.9647505595166388</v>
+      </c>
+      <c r="N3">
+        <v>1.010275760433656</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9970127539544228</v>
+        <v>0.9970196650662565</v>
       </c>
       <c r="D4">
-        <v>1.015512287660022</v>
+        <v>1.015517925960993</v>
       </c>
       <c r="E4">
-        <v>0.9997398270489846</v>
+        <v>0.9997470969912632</v>
       </c>
       <c r="F4">
-        <v>0.9617130549960436</v>
+        <v>0.9617210182834675</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042579623884746</v>
+        <v>1.042582788075668</v>
       </c>
       <c r="J4">
-        <v>1.016493183702029</v>
+        <v>1.016499916591736</v>
       </c>
       <c r="K4">
-        <v>1.025427029778937</v>
+        <v>1.025432602577508</v>
       </c>
       <c r="L4">
-        <v>1.009841393143544</v>
+        <v>1.009848575288109</v>
       </c>
       <c r="M4">
-        <v>0.9722966422912671</v>
+        <v>0.9723044996302306</v>
+      </c>
+      <c r="N4">
+        <v>1.012817803481121</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9990244162116672</v>
+        <v>0.9990301534697305</v>
       </c>
       <c r="D5">
-        <v>1.017064390452098</v>
+        <v>1.017069073002287</v>
       </c>
       <c r="E5">
-        <v>1.001601995611747</v>
+        <v>1.001608189013043</v>
       </c>
       <c r="F5">
-        <v>0.9650928037146213</v>
+        <v>0.9650995667415205</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04328868611796</v>
+        <v>1.043291314874576</v>
       </c>
       <c r="J5">
-        <v>1.01799708623058</v>
+        <v>1.01800268036205</v>
       </c>
       <c r="K5">
-        <v>1.026741586292093</v>
+        <v>1.026746216002353</v>
       </c>
       <c r="L5">
-        <v>1.011457008460263</v>
+        <v>1.011463129277955</v>
       </c>
       <c r="M5">
-        <v>0.9753959102458005</v>
+        <v>0.9754025863431786</v>
+      </c>
+      <c r="N5">
+        <v>1.013862443418898</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9993598035233894</v>
+        <v>0.9993653458483972</v>
       </c>
       <c r="D6">
-        <v>1.017323162034852</v>
+        <v>1.017327685794222</v>
       </c>
       <c r="E6">
-        <v>1.001912417825335</v>
+        <v>1.001918432501978</v>
       </c>
       <c r="F6">
-        <v>0.9656555932498422</v>
+        <v>0.9656621577523221</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043406645953491</v>
+        <v>1.043409185716198</v>
       </c>
       <c r="J6">
-        <v>1.018247677381694</v>
+        <v>1.018253082216877</v>
       </c>
       <c r="K6">
-        <v>1.02696059110388</v>
+        <v>1.02696506406613</v>
       </c>
       <c r="L6">
-        <v>1.011726184733497</v>
+        <v>1.011732129278709</v>
       </c>
       <c r="M6">
-        <v>0.9759119358661879</v>
+        <v>0.9759184164807385</v>
+      </c>
+      <c r="N6">
+        <v>1.014036480575127</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9970397951614489</v>
+        <v>0.997046690440719</v>
       </c>
       <c r="D7">
-        <v>1.015533151118433</v>
+        <v>1.015538776533808</v>
       </c>
       <c r="E7">
-        <v>0.9997648615922851</v>
+        <v>0.9997721170112333</v>
       </c>
       <c r="F7">
-        <v>0.9617585338765973</v>
+        <v>0.9617664809203051</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042589172482449</v>
+        <v>1.042592329456973</v>
       </c>
       <c r="J7">
-        <v>1.01651340905478</v>
+        <v>1.016520126598422</v>
       </c>
       <c r="K7">
-        <v>1.025444711098108</v>
+        <v>1.025450271185974</v>
       </c>
       <c r="L7">
-        <v>1.009863122936481</v>
+        <v>1.009870290768015</v>
       </c>
       <c r="M7">
-        <v>0.9723383508457032</v>
+        <v>0.9723461922055536</v>
+      </c>
+      <c r="N7">
+        <v>1.01283185429682</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9869770912796494</v>
+        <v>0.9869899849726699</v>
       </c>
       <c r="D8">
-        <v>1.007770402768974</v>
+        <v>1.007780899709449</v>
       </c>
       <c r="E8">
-        <v>0.9904430028075566</v>
+        <v>0.9904557667668668</v>
       </c>
       <c r="F8">
-        <v>0.9447381973702855</v>
+        <v>0.9447524109484747</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039005593168974</v>
+        <v>1.039011473848438</v>
       </c>
       <c r="J8">
-        <v>1.008969925063452</v>
+        <v>1.008982431030681</v>
       </c>
       <c r="K8">
-        <v>1.018846137781112</v>
+        <v>1.018856495274738</v>
       </c>
       <c r="L8">
-        <v>1.001754005056283</v>
+        <v>1.001766591888739</v>
       </c>
       <c r="M8">
-        <v>0.9567226770715704</v>
+        <v>0.9567366682572496</v>
+      </c>
+      <c r="N8">
+        <v>1.007588099358641</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9676267408127323</v>
+        <v>0.9676518672171569</v>
       </c>
       <c r="D9">
-        <v>0.9928558250794602</v>
+        <v>0.9928761913115663</v>
       </c>
       <c r="E9">
-        <v>0.9724763932768148</v>
+        <v>0.9725004274025639</v>
       </c>
       <c r="F9">
-        <v>0.9113605821978232</v>
+        <v>0.9113883550062609</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031968217265755</v>
+        <v>1.031979590703253</v>
       </c>
       <c r="J9">
-        <v>0.994376858852121</v>
+        <v>0.9944010119846775</v>
       </c>
       <c r="K9">
-        <v>1.006065884832717</v>
+        <v>1.00608591449801</v>
       </c>
       <c r="L9">
-        <v>0.986032385354416</v>
+        <v>0.986056000454165</v>
       </c>
       <c r="M9">
-        <v>0.9260765271370247</v>
+        <v>0.926103726169242</v>
+      </c>
+      <c r="N9">
+        <v>0.9974303169902906</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>0.9533476678776003</v>
+        <v>0.9533825546245046</v>
       </c>
       <c r="D10">
-        <v>0.9818681778286644</v>
+        <v>0.9818963556361789</v>
       </c>
       <c r="E10">
-        <v>0.9591721837321009</v>
+        <v>0.9592052479430681</v>
       </c>
       <c r="F10">
-        <v>0.8860350361950348</v>
+        <v>0.8860745148951726</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026676553639112</v>
+        <v>1.026692253873475</v>
       </c>
       <c r="J10">
-        <v>0.9835428240245376</v>
+        <v>0.9835761247802423</v>
       </c>
       <c r="K10">
-        <v>0.9965727111996087</v>
+        <v>0.9966003554077912</v>
       </c>
       <c r="L10">
-        <v>0.9743199148235044</v>
+        <v>0.9743523132871517</v>
       </c>
       <c r="M10">
-        <v>0.9028196449595649</v>
+        <v>0.9028581417238205</v>
+      </c>
+      <c r="N10">
+        <v>0.9898824214374259</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9467512166108609</v>
+        <v>0.9467908712029982</v>
       </c>
       <c r="D11">
-        <v>0.9767989447739259</v>
+        <v>0.9768309184722067</v>
       </c>
       <c r="E11">
-        <v>0.9530089115673572</v>
+        <v>0.9530464015560975</v>
       </c>
       <c r="F11">
-        <v>0.8740888741628497</v>
+        <v>0.8741344059067083</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024208764307174</v>
+        <v>1.024226561301121</v>
       </c>
       <c r="J11">
-        <v>0.9785201710146464</v>
+        <v>0.9785578959679945</v>
       </c>
       <c r="K11">
-        <v>0.9921720760602333</v>
+        <v>0.9922034085245707</v>
       </c>
       <c r="L11">
-        <v>0.9688749675722553</v>
+        <v>0.9689116551090592</v>
       </c>
       <c r="M11">
-        <v>0.8918523305172517</v>
+        <v>0.8918966330194154</v>
+      </c>
+      <c r="N11">
+        <v>0.9863824194158862</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9442292183048387</v>
+        <v>0.944270744952188</v>
       </c>
       <c r="D12">
-        <v>0.9748620729693791</v>
+        <v>0.9748955335782821</v>
       </c>
       <c r="E12">
-        <v>0.9506491905133514</v>
+        <v>0.950688421292609</v>
       </c>
       <c r="F12">
-        <v>0.869474870444131</v>
+        <v>0.8695228449642504</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023261778407522</v>
+        <v>1.023280395791504</v>
       </c>
       <c r="J12">
-        <v>0.9765969450986447</v>
+        <v>0.9766363995736099</v>
       </c>
       <c r="K12">
-        <v>0.9904872600219784</v>
+        <v>0.990520035253353</v>
       </c>
       <c r="L12">
-        <v>0.9667871503477071</v>
+        <v>0.9668255222291634</v>
       </c>
       <c r="M12">
-        <v>0.887617318386872</v>
+        <v>0.8876639571275509</v>
+      </c>
+      <c r="N12">
+        <v>0.985042197556776</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9447736263902107</v>
+        <v>0.9448147465089239</v>
       </c>
       <c r="D13">
-        <v>0.9752801141613748</v>
+        <v>0.9753132520449624</v>
       </c>
       <c r="E13">
-        <v>0.9511587342255639</v>
+        <v>0.9511975868262739</v>
       </c>
       <c r="F13">
-        <v>0.8704731562894112</v>
+        <v>0.8705205970601616</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023466355547689</v>
+        <v>1.023484794914457</v>
       </c>
       <c r="J13">
-        <v>0.9770122375975173</v>
+        <v>0.9770513168533048</v>
       </c>
       <c r="K13">
-        <v>0.9908510576808023</v>
+        <v>0.9908835198601577</v>
       </c>
       <c r="L13">
-        <v>0.9672381262468293</v>
+        <v>0.9672761323375713</v>
       </c>
       <c r="M13">
-        <v>0.8885335547951058</v>
+        <v>0.8885796833903076</v>
+      </c>
+      <c r="N13">
+        <v>0.9853315988341266</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9465442765814118</v>
+        <v>0.9465840837176747</v>
       </c>
       <c r="D14">
-        <v>0.976639990479171</v>
+        <v>0.9766720854117086</v>
       </c>
       <c r="E14">
-        <v>0.952815359769122</v>
+        <v>0.9528529915385852</v>
       </c>
       <c r="F14">
-        <v>0.8737112856059632</v>
+        <v>0.8737570149638412</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024131130804543</v>
+        <v>1.024148994707822</v>
       </c>
       <c r="J14">
-        <v>0.9783624238586797</v>
+        <v>0.9784002898998387</v>
       </c>
       <c r="K14">
-        <v>0.9920338779562581</v>
+        <v>0.9920653280965011</v>
       </c>
       <c r="L14">
-        <v>0.9687037829282893</v>
+        <v>0.9687406077039148</v>
       </c>
       <c r="M14">
-        <v>0.8915057349849996</v>
+        <v>0.8915502266247087</v>
+      </c>
+      <c r="N14">
+        <v>0.9862724916556281</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9476253896734</v>
+        <v>0.9476644019361853</v>
       </c>
       <c r="D15">
-        <v>0.977470463737541</v>
+        <v>0.9775019268015175</v>
       </c>
       <c r="E15">
-        <v>0.9538263887147601</v>
+        <v>0.9538632818243233</v>
       </c>
       <c r="F15">
-        <v>0.875681961651292</v>
+        <v>0.8757266640393077</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024536569081379</v>
+        <v>1.02455408421736</v>
       </c>
       <c r="J15">
-        <v>0.9791864189432004</v>
+        <v>0.9792235494971488</v>
       </c>
       <c r="K15">
-        <v>0.992755768764523</v>
+        <v>0.992786605501666</v>
       </c>
       <c r="L15">
-        <v>0.9695978478810116</v>
+        <v>0.9696339575506212</v>
       </c>
       <c r="M15">
-        <v>0.8933146955711636</v>
+        <v>0.8933582040172147</v>
+      </c>
+      <c r="N15">
+        <v>0.9868467004243827</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9537759698507265</v>
+        <v>0.9538105531158994</v>
       </c>
       <c r="D16">
-        <v>0.9821974742765245</v>
+        <v>0.9822254100292327</v>
       </c>
       <c r="E16">
-        <v>0.9595719499192599</v>
+        <v>0.959604732774656</v>
       </c>
       <c r="F16">
-        <v>0.8868048961825741</v>
+        <v>0.8868439974521397</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026836309757579</v>
+        <v>1.02685187616486</v>
       </c>
       <c r="J16">
-        <v>0.9838685572174796</v>
+        <v>0.9839015754042663</v>
       </c>
       <c r="K16">
-        <v>0.9968581264044144</v>
+        <v>0.9968855351674435</v>
       </c>
       <c r="L16">
-        <v>0.9746726784399784</v>
+        <v>0.9747048038994417</v>
       </c>
       <c r="M16">
-        <v>0.9035265217118873</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9035646556644358</v>
+      </c>
+      <c r="N16">
+        <v>0.9901093966985179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9575172536141028</v>
+        <v>0.9575492156462682</v>
       </c>
       <c r="D17">
-        <v>0.9850747003174291</v>
+        <v>0.9851005431823373</v>
       </c>
       <c r="E17">
-        <v>0.9630619909416432</v>
+        <v>0.9630923453102134</v>
       </c>
       <c r="F17">
-        <v>0.8935014102199157</v>
+        <v>0.8935372889408814</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028229217451661</v>
+        <v>1.028243626111329</v>
       </c>
       <c r="J17">
-        <v>0.9867118922851409</v>
+        <v>0.9867424649779964</v>
       </c>
       <c r="K17">
-        <v>0.9993495847853475</v>
+        <v>0.9993749564998747</v>
       </c>
       <c r="L17">
-        <v>0.9777502322886048</v>
+        <v>0.9777799996110681</v>
       </c>
       <c r="M17">
-        <v>0.9096755620262699</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9097105943457962</v>
+      </c>
+      <c r="N17">
+        <v>0.9920905895770116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9596603427135981</v>
+        <v>0.9596908264657832</v>
       </c>
       <c r="D18">
-        <v>0.9867234433844567</v>
+        <v>0.9867481041804914</v>
       </c>
       <c r="E18">
-        <v>0.9650596283834749</v>
+        <v>0.9650886144201143</v>
       </c>
       <c r="F18">
-        <v>0.8973151800036226</v>
+        <v>0.8973492701285826</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029024952535023</v>
+        <v>1.029038706782487</v>
       </c>
       <c r="J18">
-        <v>0.9883389974036131</v>
+        <v>0.9883681870183254</v>
       </c>
       <c r="K18">
-        <v>1.00077535153145</v>
+        <v>1.00079957165955</v>
       </c>
       <c r="L18">
-        <v>0.9795100240424605</v>
+        <v>0.9795384612811397</v>
       </c>
       <c r="M18">
-        <v>0.9131777811277403</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9132110889184533</v>
+      </c>
+      <c r="N18">
+        <v>0.9932242513763306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9603846979652417</v>
+        <v>0.9604146857549232</v>
       </c>
       <c r="D19">
-        <v>0.9872808081574767</v>
+        <v>0.9873050720847424</v>
       </c>
       <c r="E19">
-        <v>0.9657345796539065</v>
+        <v>0.9657631068092507</v>
       </c>
       <c r="F19">
-        <v>0.898600699482773</v>
+        <v>0.8986341940631339</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029293542056767</v>
+        <v>1.029307076506334</v>
       </c>
       <c r="J19">
-        <v>0.9888886839528251</v>
+        <v>0.988917408906566</v>
       </c>
       <c r="K19">
-        <v>1.001257019353814</v>
+        <v>1.001280852673446</v>
       </c>
       <c r="L19">
-        <v>0.9801043235648436</v>
+        <v>0.9801323145210843</v>
       </c>
       <c r="M19">
-        <v>0.9143583151992026</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9143910482906792</v>
+      </c>
+      <c r="N19">
+        <v>0.9936072216359203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.957119959761881</v>
+        <v>0.9571521976677861</v>
       </c>
       <c r="D20">
-        <v>0.984769097826383</v>
+        <v>0.9847951611461129</v>
       </c>
       <c r="E20">
-        <v>0.9626915413606231</v>
+        <v>0.962722151182157</v>
       </c>
       <c r="F20">
-        <v>0.8927926592538453</v>
+        <v>0.8928288740273677</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028081526137917</v>
+        <v>1.028096056803424</v>
       </c>
       <c r="J20">
-        <v>0.9864101235279734</v>
+        <v>0.986440954014245</v>
       </c>
       <c r="K20">
-        <v>0.9990851578203153</v>
+        <v>0.9991107442196318</v>
       </c>
       <c r="L20">
-        <v>0.9774237494680846</v>
+        <v>0.9774537649910667</v>
       </c>
       <c r="M20">
-        <v>0.9090247267010172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.909060082792033</v>
+      </c>
+      <c r="N20">
+        <v>0.9918803295146326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9460249358763542</v>
+        <v>0.9460651266733523</v>
       </c>
       <c r="D21">
-        <v>0.9762410962373788</v>
+        <v>0.9762734960259228</v>
       </c>
       <c r="E21">
-        <v>0.9523295618517148</v>
+        <v>0.9523675502641613</v>
       </c>
       <c r="F21">
-        <v>0.8727628956456548</v>
+        <v>0.8728091231480395</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023936244356868</v>
+        <v>1.02395427649523</v>
       </c>
       <c r="J21">
-        <v>0.9779664903946946</v>
+        <v>0.9780047111585197</v>
       </c>
       <c r="K21">
-        <v>0.9916870155323819</v>
+        <v>0.9917187615485384</v>
       </c>
       <c r="L21">
-        <v>0.968274073580376</v>
+        <v>0.9683112435303475</v>
       </c>
       <c r="M21">
-        <v>0.8906352069589554</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8906801752629969</v>
+      </c>
+      <c r="N21">
+        <v>0.9859965810391798</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9386269204896999</v>
+        <v>0.9386727118903394</v>
       </c>
       <c r="D22">
-        <v>0.9705621102186944</v>
+        <v>0.9705989509184626</v>
       </c>
       <c r="E22">
-        <v>0.9454000782830635</v>
+        <v>0.945443281905326</v>
       </c>
       <c r="F22">
-        <v>0.859125236280069</v>
+        <v>0.8591789240495963</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021151690605105</v>
+        <v>1.021172171059649</v>
       </c>
       <c r="J22">
-        <v>0.9723188948156596</v>
+        <v>0.9723622738805192</v>
       </c>
       <c r="K22">
-        <v>0.9867401977669454</v>
+        <v>0.9867762487901709</v>
       </c>
       <c r="L22">
-        <v>0.9621367322186201</v>
+        <v>0.9621789427145638</v>
       </c>
       <c r="M22">
-        <v>0.8781201937460461</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8781722818852428</v>
+      </c>
+      <c r="N22">
+        <v>0.9820610403096358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9425926959613541</v>
+        <v>0.9426354528815767</v>
       </c>
       <c r="D23">
-        <v>0.97360561583425</v>
+        <v>0.9736400525426594</v>
       </c>
       <c r="E23">
-        <v>0.9491169086077743</v>
+        <v>0.9491572844038753</v>
       </c>
       <c r="F23">
-        <v>0.8664661973141645</v>
+        <v>0.8665157984199889</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022646295543542</v>
+        <v>1.022665451204902</v>
       </c>
       <c r="J23">
-        <v>0.9753480940059496</v>
+        <v>0.9753886828066815</v>
       </c>
       <c r="K23">
-        <v>0.989393312173004</v>
+        <v>0.9894270339398161</v>
       </c>
       <c r="L23">
-        <v>0.9654305098127989</v>
+        <v>0.9654699887859371</v>
       </c>
       <c r="M23">
-        <v>0.8848561101284582</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8849043024106023</v>
+      </c>
+      <c r="N23">
+        <v>0.9841719242628758</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9572995999990866</v>
+        <v>0.9573317130944358</v>
       </c>
       <c r="D24">
-        <v>0.98490727706489</v>
+        <v>0.9849332406521114</v>
       </c>
       <c r="E24">
-        <v>0.9628590484274401</v>
+        <v>0.9628895426733157</v>
       </c>
       <c r="F24">
-        <v>0.8931131960891806</v>
+        <v>0.8931492587368731</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028148312890308</v>
+        <v>1.028162788362668</v>
       </c>
       <c r="J24">
-        <v>0.9865465761979576</v>
+        <v>0.9865772900657405</v>
       </c>
       <c r="K24">
-        <v>0.999204725355992</v>
+        <v>0.9992302146364227</v>
       </c>
       <c r="L24">
-        <v>0.9775713813987301</v>
+        <v>0.9776012846316461</v>
       </c>
       <c r="M24">
-        <v>0.9093190701138838</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9093542796480386</v>
+      </c>
+      <c r="N24">
+        <v>0.9919754043812739</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9728476953754577</v>
+        <v>0.9728694195436079</v>
       </c>
       <c r="D25">
-        <v>0.9968776016105894</v>
+        <v>0.9968952317827839</v>
       </c>
       <c r="E25">
-        <v>0.9773302075785855</v>
+        <v>0.9773511022390267</v>
       </c>
       <c r="F25">
-        <v>0.9204620665058846</v>
+        <v>0.9204859535534015</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033883627913797</v>
+        <v>1.033893481723789</v>
       </c>
       <c r="J25">
-        <v>0.9983247155682702</v>
+        <v>0.9983456501583942</v>
       </c>
       <c r="K25">
-        <v>1.009524582946733</v>
+        <v>1.009541937242513</v>
       </c>
       <c r="L25">
-        <v>0.9902909416068124</v>
+        <v>0.9903114922710832</v>
       </c>
       <c r="M25">
-        <v>0.9344348240596748</v>
+        <v>0.9344582516336101</v>
+      </c>
+      <c r="N25">
+        <v>1.000179622979587</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_2/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9843001652706425</v>
+        <v>1.037548903237225</v>
       </c>
       <c r="D2">
-        <v>1.005706493890232</v>
+        <v>1.054726135261721</v>
       </c>
       <c r="E2">
-        <v>0.9879617797980499</v>
+        <v>1.047570993377843</v>
       </c>
       <c r="F2">
-        <v>0.9401663448298865</v>
+        <v>1.060781971657988</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038044114882387</v>
+        <v>1.06634434156163</v>
       </c>
       <c r="J2">
-        <v>1.006960814909166</v>
+        <v>1.058661736574309</v>
       </c>
       <c r="K2">
-        <v>1.017086896574712</v>
+        <v>1.065472276250206</v>
       </c>
       <c r="L2">
-        <v>0.9995914135312591</v>
+        <v>1.058405105031437</v>
       </c>
       <c r="M2">
-        <v>0.9525273740170747</v>
+        <v>1.071454808592451</v>
       </c>
       <c r="N2">
-        <v>1.006180740152642</v>
+        <v>1.060165157670443</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9921373984596025</v>
+        <v>1.046516169288719</v>
       </c>
       <c r="D3">
-        <v>1.011751360383702</v>
+        <v>1.061898262993605</v>
       </c>
       <c r="E3">
-        <v>0.9952257621863625</v>
+        <v>1.05536680320678</v>
       </c>
       <c r="F3">
-        <v>0.9534857679325429</v>
+        <v>1.068516631466985</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040851682567303</v>
+        <v>1.069701323311726</v>
       </c>
       <c r="J3">
-        <v>1.012844725265024</v>
+        <v>1.065814358836913</v>
       </c>
       <c r="K3">
-        <v>1.022236056351869</v>
+        <v>1.071795972554134</v>
       </c>
       <c r="L3">
-        <v>1.005920096968721</v>
+        <v>1.065337074133999</v>
       </c>
       <c r="M3">
-        <v>0.9647505595166388</v>
+        <v>1.078341924602286</v>
       </c>
       <c r="N3">
-        <v>1.010275760433656</v>
+        <v>1.067327937477077</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9970196650662565</v>
+        <v>1.052120951667382</v>
       </c>
       <c r="D4">
-        <v>1.015517925960993</v>
+        <v>1.066383019305253</v>
       </c>
       <c r="E4">
-        <v>0.9997470969912632</v>
+        <v>1.060240987958855</v>
       </c>
       <c r="F4">
-        <v>0.9617210182834675</v>
+        <v>1.073355424827247</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042582788075668</v>
+        <v>1.071784430987442</v>
       </c>
       <c r="J4">
-        <v>1.016499916591736</v>
+        <v>1.070279246996234</v>
       </c>
       <c r="K4">
-        <v>1.025432602577508</v>
+        <v>1.075741211043789</v>
       </c>
       <c r="L4">
-        <v>1.009848575288109</v>
+        <v>1.069662911291518</v>
       </c>
       <c r="M4">
-        <v>0.9723044996302306</v>
+        <v>1.082642345390373</v>
       </c>
       <c r="N4">
-        <v>1.012817803481121</v>
+        <v>1.071799166289714</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9990301534697305</v>
+        <v>1.054432952912801</v>
       </c>
       <c r="D5">
-        <v>1.017069073002287</v>
+        <v>1.068233356065819</v>
       </c>
       <c r="E5">
-        <v>1.001608189013043</v>
+        <v>1.062251900097432</v>
       </c>
       <c r="F5">
-        <v>0.9650995667415205</v>
+        <v>1.075352390240632</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043291314874576</v>
+        <v>1.072640033652616</v>
       </c>
       <c r="J5">
-        <v>1.01800268036205</v>
+        <v>1.072119602411804</v>
       </c>
       <c r="K5">
-        <v>1.026746216002353</v>
+        <v>1.077366816378053</v>
       </c>
       <c r="L5">
-        <v>1.011463129277955</v>
+        <v>1.071445626675173</v>
       </c>
       <c r="M5">
-        <v>0.9754025863431786</v>
+        <v>1.084415183465617</v>
       </c>
       <c r="N5">
-        <v>1.013862443418898</v>
+        <v>1.073642135221066</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9993653458483972</v>
+        <v>1.054818636811357</v>
       </c>
       <c r="D6">
-        <v>1.017327685794222</v>
+        <v>1.068542043210364</v>
       </c>
       <c r="E6">
-        <v>1.001918432501978</v>
+        <v>1.06258737104248</v>
       </c>
       <c r="F6">
-        <v>0.9656621577523221</v>
+        <v>1.075685572264141</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043409185716198</v>
+        <v>1.072782544805131</v>
       </c>
       <c r="J6">
-        <v>1.018253082216877</v>
+        <v>1.072426520996165</v>
       </c>
       <c r="K6">
-        <v>1.02696506406613</v>
+        <v>1.077637887113736</v>
       </c>
       <c r="L6">
-        <v>1.011732129278709</v>
+        <v>1.071742913121544</v>
       </c>
       <c r="M6">
-        <v>0.9759184164807385</v>
+        <v>1.084710857321657</v>
       </c>
       <c r="N6">
-        <v>1.014036480575127</v>
+        <v>1.07394948966502</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.997046690440719</v>
+        <v>1.05215201478349</v>
       </c>
       <c r="D7">
-        <v>1.015538776533808</v>
+        <v>1.066407878445844</v>
       </c>
       <c r="E7">
-        <v>0.9997721170112333</v>
+        <v>1.060268004750765</v>
       </c>
       <c r="F7">
-        <v>0.9617664809203051</v>
+        <v>1.07338225168557</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042592329456973</v>
+        <v>1.07179594122362</v>
       </c>
       <c r="J7">
-        <v>1.016520126598422</v>
+        <v>1.070303979034267</v>
       </c>
       <c r="K7">
-        <v>1.025450271185974</v>
+        <v>1.075763059365084</v>
       </c>
       <c r="L7">
-        <v>1.009870290768015</v>
+        <v>1.069686870023526</v>
       </c>
       <c r="M7">
-        <v>0.9723461922055536</v>
+        <v>1.082666169036763</v>
       </c>
       <c r="N7">
-        <v>1.01283185429682</v>
+        <v>1.071823933450078</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9869899849726699</v>
+        <v>1.04062230122796</v>
       </c>
       <c r="D8">
-        <v>1.007780899709449</v>
+        <v>1.057183776114015</v>
       </c>
       <c r="E8">
-        <v>0.9904557667668668</v>
+        <v>1.050242492131597</v>
       </c>
       <c r="F8">
-        <v>0.9447524109484747</v>
+        <v>1.063431896264902</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039011473848438</v>
+        <v>1.067498050258105</v>
       </c>
       <c r="J8">
-        <v>1.008982431030681</v>
+        <v>1.0611143538284</v>
       </c>
       <c r="K8">
-        <v>1.018856495274738</v>
+        <v>1.067641106234135</v>
       </c>
       <c r="L8">
-        <v>1.001766591888739</v>
+        <v>1.060782332056136</v>
       </c>
       <c r="M8">
-        <v>0.9567366682572496</v>
+        <v>1.073816095106558</v>
       </c>
       <c r="N8">
-        <v>1.007588099358641</v>
+        <v>1.062621257922354</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9676518672171569</v>
+        <v>1.018635413223286</v>
       </c>
       <c r="D9">
-        <v>0.9928761913115663</v>
+        <v>1.039616532005418</v>
       </c>
       <c r="E9">
-        <v>0.9725004274025639</v>
+        <v>1.031142359420901</v>
       </c>
       <c r="F9">
-        <v>0.9113883550062609</v>
+        <v>1.0444996949733</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031979590703253</v>
+        <v>1.059181699742033</v>
       </c>
       <c r="J9">
-        <v>0.9944010119846775</v>
+        <v>1.04354684432454</v>
       </c>
       <c r="K9">
-        <v>1.00608591449801</v>
+        <v>1.052097970705621</v>
       </c>
       <c r="L9">
-        <v>0.986056000454165</v>
+        <v>1.043749601093431</v>
       </c>
       <c r="M9">
-        <v>0.926103726169242</v>
+        <v>1.056909816471106</v>
       </c>
       <c r="N9">
-        <v>0.9974303169902906</v>
+        <v>1.045028800539977</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9533825546245046</v>
+        <v>1.002600354193312</v>
       </c>
       <c r="D10">
-        <v>0.9818963556361789</v>
+        <v>1.026831237236575</v>
       </c>
       <c r="E10">
-        <v>0.9592052479430681</v>
+        <v>1.017233743968993</v>
       </c>
       <c r="F10">
-        <v>0.8860745148951726</v>
+        <v>1.030732660879967</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026692253873475</v>
+        <v>1.05303963208936</v>
       </c>
       <c r="J10">
-        <v>0.9835761247802423</v>
+        <v>1.030711180196044</v>
       </c>
       <c r="K10">
-        <v>0.9966003554077912</v>
+        <v>1.040732374530158</v>
       </c>
       <c r="L10">
-        <v>0.9743523132871517</v>
+        <v>1.031298656692682</v>
       </c>
       <c r="M10">
-        <v>0.9028581417238205</v>
+        <v>1.044568346160141</v>
       </c>
       <c r="N10">
-        <v>0.9898824214374259</v>
+        <v>1.032174908296147</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9467908712029982</v>
+        <v>0.9952604579789925</v>
       </c>
       <c r="D11">
-        <v>0.9768309184722067</v>
+        <v>1.020988108708837</v>
       </c>
       <c r="E11">
-        <v>0.9530464015560975</v>
+        <v>1.010874584464562</v>
       </c>
       <c r="F11">
-        <v>0.8741344059067083</v>
+        <v>1.024443441504772</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024226561301121</v>
+        <v>1.050211322839321</v>
       </c>
       <c r="J11">
-        <v>0.9785578959679945</v>
+        <v>1.024831745367875</v>
       </c>
       <c r="K11">
-        <v>0.9922034085245707</v>
+        <v>1.035524784726825</v>
       </c>
       <c r="L11">
-        <v>0.9689116551090592</v>
+        <v>1.025594295150175</v>
       </c>
       <c r="M11">
-        <v>0.8918966330194154</v>
+        <v>1.038918657305419</v>
       </c>
       <c r="N11">
-        <v>0.9863824194158862</v>
+        <v>1.026287123996141</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.944270744952188</v>
+        <v>0.992467301754435</v>
       </c>
       <c r="D12">
-        <v>0.9748955335782821</v>
+        <v>1.018766216052273</v>
       </c>
       <c r="E12">
-        <v>0.950688421292609</v>
+        <v>1.008455989101355</v>
       </c>
       <c r="F12">
-        <v>0.8695228449642504</v>
+        <v>1.022052289802641</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023280395791504</v>
+        <v>1.049132643208327</v>
       </c>
       <c r="J12">
-        <v>0.9766363995736099</v>
+        <v>1.022593916016862</v>
       </c>
       <c r="K12">
-        <v>0.990520035253353</v>
+        <v>1.033542505098244</v>
       </c>
       <c r="L12">
-        <v>0.9668255222291634</v>
+        <v>1.023422959229503</v>
       </c>
       <c r="M12">
-        <v>0.8876639571275509</v>
+        <v>1.036768856347984</v>
       </c>
       <c r="N12">
-        <v>0.985042197556776</v>
+        <v>1.024046116670768</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9448147465089239</v>
+        <v>0.9930695951250007</v>
       </c>
       <c r="D13">
-        <v>0.9753132520449624</v>
+        <v>1.019245246052986</v>
       </c>
       <c r="E13">
-        <v>0.9511975868262739</v>
+        <v>1.008977450259684</v>
       </c>
       <c r="F13">
-        <v>0.8705205970601616</v>
+        <v>1.02256779489048</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023484794914457</v>
+        <v>1.049365345702845</v>
       </c>
       <c r="J13">
-        <v>0.9770513168533048</v>
+        <v>1.023076480362518</v>
       </c>
       <c r="K13">
-        <v>0.9908835198601577</v>
+        <v>1.033969969326181</v>
       </c>
       <c r="L13">
-        <v>0.9672761323375713</v>
+        <v>1.023891190873192</v>
       </c>
       <c r="M13">
-        <v>0.8885796833903076</v>
+        <v>1.037232410707786</v>
       </c>
       <c r="N13">
-        <v>0.9853315988341266</v>
+        <v>1.024529366313145</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9465840837176747</v>
+        <v>0.9950309834818386</v>
       </c>
       <c r="D14">
-        <v>0.9766720854117086</v>
+        <v>1.020805531159017</v>
       </c>
       <c r="E14">
-        <v>0.9528529915385852</v>
+        <v>1.010675853615522</v>
       </c>
       <c r="F14">
-        <v>0.8737570149638412</v>
+        <v>1.024246948197387</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024148994707822</v>
+        <v>1.050122750154433</v>
       </c>
       <c r="J14">
-        <v>0.9784002898998387</v>
+        <v>1.024647902250809</v>
       </c>
       <c r="K14">
-        <v>0.9920653280965011</v>
+        <v>1.035361938653673</v>
       </c>
       <c r="L14">
-        <v>0.9687406077039148</v>
+        <v>1.025415917331761</v>
       </c>
       <c r="M14">
-        <v>0.8915502266247087</v>
+        <v>1.038742033674498</v>
       </c>
       <c r="N14">
-        <v>0.9862724916556281</v>
+        <v>1.026103019800762</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9476644019361853</v>
+        <v>0.9962303722868957</v>
       </c>
       <c r="D15">
-        <v>0.9775019268015175</v>
+        <v>1.021759874667689</v>
       </c>
       <c r="E15">
-        <v>0.9538632818243233</v>
+        <v>1.011714611470617</v>
       </c>
       <c r="F15">
-        <v>0.8757266640393077</v>
+        <v>1.025274045092936</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02455408421736</v>
+        <v>1.050585595186844</v>
       </c>
       <c r="J15">
-        <v>0.9792235494971488</v>
+        <v>1.025608773669776</v>
       </c>
       <c r="K15">
-        <v>0.992786605501666</v>
+        <v>1.036213060849991</v>
       </c>
       <c r="L15">
-        <v>0.9696339575506212</v>
+        <v>1.026348218306381</v>
       </c>
       <c r="M15">
-        <v>0.8933582040172147</v>
+        <v>1.039665195938194</v>
       </c>
       <c r="N15">
-        <v>0.9868467004243827</v>
+        <v>1.027065255767358</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9538105531158994</v>
+        <v>1.003078535235785</v>
       </c>
       <c r="D16">
-        <v>0.9822254100292327</v>
+        <v>1.027212119853275</v>
       </c>
       <c r="E16">
-        <v>0.959604732774656</v>
+        <v>1.017648202815935</v>
       </c>
       <c r="F16">
-        <v>0.8868439974521397</v>
+        <v>1.031142673575154</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02685187616486</v>
+        <v>1.05322355644913</v>
       </c>
       <c r="J16">
-        <v>0.9839015754042663</v>
+        <v>1.031094144774597</v>
       </c>
       <c r="K16">
-        <v>0.9968855351674435</v>
+        <v>1.041071551144658</v>
       </c>
       <c r="L16">
-        <v>0.9747048038994417</v>
+        <v>1.031670196343702</v>
       </c>
       <c r="M16">
-        <v>0.9035646556644358</v>
+        <v>1.04493642150958</v>
       </c>
       <c r="N16">
-        <v>0.9901093966985179</v>
+        <v>1.032558416728329</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9575492156462682</v>
+        <v>1.007263306375899</v>
       </c>
       <c r="D17">
-        <v>0.9851005431823373</v>
+        <v>1.030546454006334</v>
       </c>
       <c r="E17">
-        <v>0.9630923453102134</v>
+        <v>1.021276164896637</v>
       </c>
       <c r="F17">
-        <v>0.8935372889408814</v>
+        <v>1.03473230705051</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028243626111329</v>
+        <v>1.054831286392113</v>
       </c>
       <c r="J17">
-        <v>0.9867424649779964</v>
+        <v>1.034445199699604</v>
       </c>
       <c r="K17">
-        <v>0.9993749564998747</v>
+        <v>1.044039283644246</v>
       </c>
       <c r="L17">
-        <v>0.9777799996110681</v>
+        <v>1.034921153829584</v>
       </c>
       <c r="M17">
-        <v>0.9097105943457962</v>
+        <v>1.048157577659886</v>
       </c>
       <c r="N17">
-        <v>0.9920905895770116</v>
+        <v>1.035914230535701</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9596908264657832</v>
+        <v>1.009666491569098</v>
       </c>
       <c r="D18">
-        <v>0.9867481041804914</v>
+        <v>1.032462098764932</v>
       </c>
       <c r="E18">
-        <v>0.9650886144201143</v>
+        <v>1.023360262999491</v>
       </c>
       <c r="F18">
-        <v>0.8973492701285826</v>
+        <v>1.036794869054809</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029038706782487</v>
+        <v>1.05575297507231</v>
       </c>
       <c r="J18">
-        <v>0.9883681870183254</v>
+        <v>1.036369219666829</v>
       </c>
       <c r="K18">
-        <v>1.00079957165955</v>
+        <v>1.045743071018791</v>
       </c>
       <c r="L18">
-        <v>0.9795384612811397</v>
+        <v>1.036787593143504</v>
       </c>
       <c r="M18">
-        <v>0.9132110889184533</v>
+        <v>1.050007325514264</v>
       </c>
       <c r="N18">
-        <v>0.9932242513763306</v>
+        <v>1.037840982831967</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9604146857549232</v>
+        <v>1.010479716935412</v>
       </c>
       <c r="D19">
-        <v>0.9873050720847424</v>
+        <v>1.03311047746582</v>
       </c>
       <c r="E19">
-        <v>0.9657631068092507</v>
+        <v>1.024065618393552</v>
       </c>
       <c r="F19">
-        <v>0.8986341940631339</v>
+        <v>1.037493015725324</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029307076506334</v>
+        <v>1.056064597541384</v>
       </c>
       <c r="J19">
-        <v>0.988917408906566</v>
+        <v>1.037020227889683</v>
       </c>
       <c r="K19">
-        <v>1.001280852673446</v>
+        <v>1.046319535150211</v>
       </c>
       <c r="L19">
-        <v>0.9801323145210843</v>
+        <v>1.037419099135903</v>
       </c>
       <c r="M19">
-        <v>0.9143910482906792</v>
+        <v>1.050633253661756</v>
       </c>
       <c r="N19">
-        <v>0.9936072216359203</v>
+        <v>1.038492915561168</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9571521976677861</v>
+        <v>1.00681826989895</v>
       </c>
       <c r="D20">
-        <v>0.9847951611461129</v>
+        <v>1.030191769416837</v>
       </c>
       <c r="E20">
-        <v>0.962722151182157</v>
+        <v>1.020890271807159</v>
       </c>
       <c r="F20">
-        <v>0.8928288740273677</v>
+        <v>1.034350440291636</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028096056803424</v>
+        <v>1.054660473221962</v>
       </c>
       <c r="J20">
-        <v>0.986440954014245</v>
+        <v>1.03408886544569</v>
       </c>
       <c r="K20">
-        <v>0.9991107442196318</v>
+        <v>1.04372372481808</v>
       </c>
       <c r="L20">
-        <v>0.9774537649910667</v>
+        <v>1.034575474620223</v>
       </c>
       <c r="M20">
-        <v>0.909060082792033</v>
+        <v>1.047815023462767</v>
       </c>
       <c r="N20">
-        <v>0.9918803295146326</v>
+        <v>1.035557390246274</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9460651266733523</v>
+        <v>0.9944553114228449</v>
       </c>
       <c r="D21">
-        <v>0.9762734960259228</v>
+        <v>1.020347535299577</v>
       </c>
       <c r="E21">
-        <v>0.9523675502641613</v>
+        <v>1.010177329231528</v>
       </c>
       <c r="F21">
-        <v>0.8728091231480395</v>
+        <v>1.023754050537882</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02395427649523</v>
+        <v>1.049900514239691</v>
       </c>
       <c r="J21">
-        <v>0.9780047111585197</v>
+        <v>1.024186697000587</v>
       </c>
       <c r="K21">
-        <v>0.9917187615485384</v>
+        <v>1.034953405991279</v>
       </c>
       <c r="L21">
-        <v>0.9683112435303475</v>
+        <v>1.024968420633861</v>
       </c>
       <c r="M21">
-        <v>0.8906801752629969</v>
+        <v>1.038298949499329</v>
       </c>
       <c r="N21">
-        <v>0.9859965810391798</v>
+        <v>1.025641159586183</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9386727118903394</v>
+        <v>0.9862912459636951</v>
       </c>
       <c r="D22">
-        <v>0.9705989509184626</v>
+        <v>1.013856769553281</v>
       </c>
       <c r="E22">
-        <v>0.945443281905326</v>
+        <v>1.003110931050426</v>
       </c>
       <c r="F22">
-        <v>0.8591789240495963</v>
+        <v>1.016769515593579</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021172171059649</v>
+        <v>1.046743310078358</v>
       </c>
       <c r="J22">
-        <v>0.9723622738805192</v>
+        <v>1.017645148904324</v>
       </c>
       <c r="K22">
-        <v>0.9867762487901709</v>
+        <v>1.029158629972728</v>
       </c>
       <c r="L22">
-        <v>0.9621789427145638</v>
+        <v>1.018621010678116</v>
       </c>
       <c r="M22">
-        <v>0.8781722818852428</v>
+        <v>1.032015927712163</v>
       </c>
       <c r="N22">
-        <v>0.9820610403096358</v>
+        <v>1.019090321741298</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9426354528815767</v>
+        <v>0.9906589822906662</v>
       </c>
       <c r="D23">
-        <v>0.9736400525426594</v>
+        <v>1.01732825214536</v>
       </c>
       <c r="E23">
-        <v>0.9491572844038753</v>
+        <v>1.006890577517785</v>
       </c>
       <c r="F23">
-        <v>0.8665157984199889</v>
+        <v>1.02050488692122</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022665451204902</v>
+        <v>1.048433642908205</v>
       </c>
       <c r="J23">
-        <v>0.9753886828066815</v>
+        <v>1.021145018725653</v>
       </c>
       <c r="K23">
-        <v>0.9894270339398161</v>
+        <v>1.032259026286757</v>
       </c>
       <c r="L23">
-        <v>0.9654699887859371</v>
+        <v>1.022017077483676</v>
       </c>
       <c r="M23">
-        <v>0.8849043024106023</v>
+        <v>1.035377128290544</v>
       </c>
       <c r="N23">
-        <v>0.9841719242628758</v>
+        <v>1.022595161779214</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9573317130944358</v>
+        <v>1.00701947876585</v>
       </c>
       <c r="D24">
-        <v>0.9849332406521114</v>
+        <v>1.030352126006566</v>
       </c>
       <c r="E24">
-        <v>0.9628895426733157</v>
+        <v>1.021064738831084</v>
       </c>
       <c r="F24">
-        <v>0.8931492587368731</v>
+        <v>1.034523085467386</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028162788362668</v>
+        <v>1.054737705807631</v>
       </c>
       <c r="J24">
-        <v>0.9865772900657405</v>
+        <v>1.03424997168525</v>
       </c>
       <c r="K24">
-        <v>0.9992302146364227</v>
+        <v>1.04386639608654</v>
       </c>
       <c r="L24">
-        <v>0.9776012846316461</v>
+        <v>1.034731763831422</v>
       </c>
       <c r="M24">
-        <v>0.9093542796480386</v>
+        <v>1.047969898489551</v>
       </c>
       <c r="N24">
-        <v>0.9919754043812739</v>
+        <v>1.035718725275173</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9728694195436079</v>
+        <v>1.024541435358918</v>
       </c>
       <c r="D25">
-        <v>0.9968952317827839</v>
+        <v>1.044331731594555</v>
       </c>
       <c r="E25">
-        <v>0.9773511022390267</v>
+        <v>1.036270058727426</v>
       </c>
       <c r="F25">
-        <v>0.9204859535534015</v>
+        <v>1.049579233570228</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033893481723789</v>
+        <v>1.061429000942572</v>
       </c>
       <c r="J25">
-        <v>0.9983456501583942</v>
+        <v>1.048270197779983</v>
       </c>
       <c r="K25">
-        <v>1.009541937242513</v>
+        <v>1.056278736761808</v>
       </c>
       <c r="L25">
-        <v>0.9903114922710832</v>
+        <v>1.048330260926013</v>
       </c>
       <c r="M25">
-        <v>0.9344582516336101</v>
+        <v>1.06145373385209</v>
       </c>
       <c r="N25">
-        <v>1.000179622979587</v>
+        <v>1.049758861699103</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_2/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.037548903237225</v>
+        <v>0.9989807862296117</v>
       </c>
       <c r="D2">
-        <v>1.054726135261721</v>
+        <v>1.015935817357152</v>
       </c>
       <c r="E2">
-        <v>1.047570993377843</v>
+        <v>1.005603975098092</v>
       </c>
       <c r="F2">
-        <v>1.060781971657988</v>
+        <v>0.9637977978754585</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.06634434156163</v>
+        <v>1.038389397195388</v>
       </c>
       <c r="J2">
-        <v>1.058661736574309</v>
+        <v>1.021192024599904</v>
       </c>
       <c r="K2">
-        <v>1.065472276250206</v>
+        <v>1.027177516974494</v>
       </c>
       <c r="L2">
-        <v>1.058405105031437</v>
+        <v>1.016985785864154</v>
       </c>
       <c r="M2">
-        <v>1.071454808592451</v>
+        <v>0.9757856391472025</v>
       </c>
       <c r="N2">
-        <v>1.060165157670443</v>
+        <v>1.011032067669831</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.046516169288719</v>
+        <v>1.002640708351226</v>
       </c>
       <c r="D3">
-        <v>1.061898262993605</v>
+        <v>1.018667782123799</v>
       </c>
       <c r="E3">
-        <v>1.05536680320678</v>
+        <v>1.008461488101128</v>
       </c>
       <c r="F3">
-        <v>1.068516631466985</v>
+        <v>0.9750319329977749</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.069701323311726</v>
+        <v>1.039686825032978</v>
       </c>
       <c r="J3">
-        <v>1.065814358836913</v>
+        <v>1.02305964294658</v>
       </c>
       <c r="K3">
-        <v>1.071795972554134</v>
+        <v>1.029067249570089</v>
       </c>
       <c r="L3">
-        <v>1.065337074133999</v>
+        <v>1.018987235409941</v>
       </c>
       <c r="M3">
-        <v>1.078341924602286</v>
+        <v>0.9859945777107259</v>
       </c>
       <c r="N3">
-        <v>1.067327937477077</v>
+        <v>1.011657931968908</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.052120951667382</v>
+        <v>1.004960957794853</v>
       </c>
       <c r="D4">
-        <v>1.066383019305253</v>
+        <v>1.020399345588133</v>
       </c>
       <c r="E4">
-        <v>1.060240987958855</v>
+        <v>1.010278386128447</v>
       </c>
       <c r="F4">
-        <v>1.073355424827247</v>
+        <v>0.9819933587957422</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.071784430987442</v>
+        <v>1.040492733068295</v>
       </c>
       <c r="J4">
-        <v>1.070279246996234</v>
+        <v>1.02423860748583</v>
       </c>
       <c r="K4">
-        <v>1.075741211043789</v>
+        <v>1.030257648143178</v>
       </c>
       <c r="L4">
-        <v>1.069662911291518</v>
+        <v>1.020254322903808</v>
       </c>
       <c r="M4">
-        <v>1.082642345390373</v>
+        <v>0.9923140787283072</v>
       </c>
       <c r="N4">
-        <v>1.071799166289714</v>
+        <v>1.012052967041904</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.054432952912801</v>
+        <v>1.005925375187326</v>
       </c>
       <c r="D5">
-        <v>1.068233356065819</v>
+        <v>1.021119012655918</v>
       </c>
       <c r="E5">
-        <v>1.062251900097432</v>
+        <v>1.01103484749365</v>
       </c>
       <c r="F5">
-        <v>1.075352390240632</v>
+        <v>0.9848523604499925</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.072640033652616</v>
+        <v>1.040823878799121</v>
       </c>
       <c r="J5">
-        <v>1.072119602411804</v>
+        <v>1.024727475647091</v>
       </c>
       <c r="K5">
-        <v>1.077366816378053</v>
+        <v>1.030750677754984</v>
       </c>
       <c r="L5">
-        <v>1.071445626675173</v>
+        <v>1.020780584408504</v>
       </c>
       <c r="M5">
-        <v>1.084415183465617</v>
+        <v>0.9949078210016715</v>
       </c>
       <c r="N5">
-        <v>1.073642135221066</v>
+        <v>1.012216756511405</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.054818636811357</v>
+        <v>1.006086672028824</v>
       </c>
       <c r="D6">
-        <v>1.068542043210364</v>
+        <v>1.021239372709044</v>
       </c>
       <c r="E6">
-        <v>1.06258737104248</v>
+        <v>1.011161437798273</v>
       </c>
       <c r="F6">
-        <v>1.075685572264141</v>
+        <v>0.9853285989883582</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.072782544805131</v>
+        <v>1.040879041019255</v>
       </c>
       <c r="J6">
-        <v>1.072426520996165</v>
+        <v>1.024809169910528</v>
       </c>
       <c r="K6">
-        <v>1.077637887113736</v>
+        <v>1.030833034029539</v>
       </c>
       <c r="L6">
-        <v>1.071742913121544</v>
+        <v>1.02086857700413</v>
       </c>
       <c r="M6">
-        <v>1.084710857321657</v>
+        <v>0.9953397773783326</v>
       </c>
       <c r="N6">
-        <v>1.07394948966502</v>
+        <v>1.012244126220253</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.05215201478349</v>
+        <v>1.004973887079995</v>
       </c>
       <c r="D7">
-        <v>1.066407878445844</v>
+        <v>1.020408993877674</v>
       </c>
       <c r="E7">
-        <v>1.060268004750765</v>
+        <v>1.010288522525303</v>
       </c>
       <c r="F7">
-        <v>1.07338225168557</v>
+        <v>0.9820318189954692</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.07179594122362</v>
+        <v>1.040497187463555</v>
       </c>
       <c r="J7">
-        <v>1.070303979034267</v>
+        <v>1.024245165991652</v>
       </c>
       <c r="K7">
-        <v>1.075763059365084</v>
+        <v>1.030264264738425</v>
       </c>
       <c r="L7">
-        <v>1.069686870023526</v>
+        <v>1.020261379722551</v>
       </c>
       <c r="M7">
-        <v>1.082666169036763</v>
+        <v>0.9923489770661671</v>
       </c>
       <c r="N7">
-        <v>1.071823933450078</v>
+        <v>1.01205516445574</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.04062230122796</v>
+        <v>1.000227899870417</v>
       </c>
       <c r="D8">
-        <v>1.057183776114015</v>
+        <v>1.016866837419125</v>
       </c>
       <c r="E8">
-        <v>1.050242492131597</v>
+        <v>1.006576536657848</v>
       </c>
       <c r="F8">
-        <v>1.063431896264902</v>
+        <v>0.9676621117062811</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.067498050258105</v>
+        <v>1.038835079102446</v>
       </c>
       <c r="J8">
-        <v>1.0611143538284</v>
+        <v>1.021829493302181</v>
       </c>
       <c r="K8">
-        <v>1.067641106234135</v>
+        <v>1.02782308262474</v>
       </c>
       <c r="L8">
-        <v>1.060782332056136</v>
+        <v>1.017668155436928</v>
       </c>
       <c r="M8">
-        <v>1.073816095106558</v>
+        <v>0.979298700036518</v>
       </c>
       <c r="N8">
-        <v>1.062621257922354</v>
+        <v>1.011245701218195</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.018635413223286</v>
+        <v>0.991474094158145</v>
       </c>
       <c r="D9">
-        <v>1.039616532005418</v>
+        <v>1.010328124009466</v>
       </c>
       <c r="E9">
-        <v>1.031142359420901</v>
+        <v>0.9997733046969138</v>
       </c>
       <c r="F9">
-        <v>1.0444996949733</v>
+        <v>0.9396552223191613</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.059181699742033</v>
+        <v>1.035628268815118</v>
       </c>
       <c r="J9">
-        <v>1.04354684432454</v>
+        <v>1.017331558661544</v>
       </c>
       <c r="K9">
-        <v>1.052097970705621</v>
+        <v>1.023255827939081</v>
       </c>
       <c r="L9">
-        <v>1.043749601093431</v>
+        <v>1.012870060945257</v>
       </c>
       <c r="M9">
-        <v>1.056909816471106</v>
+        <v>0.9538096085114952</v>
       </c>
       <c r="N9">
-        <v>1.045028800539977</v>
+        <v>1.009738223436186</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.002600354193312</v>
+        <v>0.9853379385988268</v>
       </c>
       <c r="D10">
-        <v>1.026831237236575</v>
+        <v>1.005736660925691</v>
       </c>
       <c r="E10">
-        <v>1.017233743968993</v>
+        <v>0.9950348956128332</v>
       </c>
       <c r="F10">
-        <v>1.030732660879967</v>
+        <v>0.9186055044362089</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05303963208936</v>
+        <v>1.033268511066562</v>
       </c>
       <c r="J10">
-        <v>1.030711180196044</v>
+        <v>1.014145605195214</v>
       </c>
       <c r="K10">
-        <v>1.040732374530158</v>
+        <v>1.020003104959561</v>
       </c>
       <c r="L10">
-        <v>1.031298656692682</v>
+        <v>1.009494378978956</v>
       </c>
       <c r="M10">
-        <v>1.044568346160141</v>
+        <v>0.9346182255453523</v>
       </c>
       <c r="N10">
-        <v>1.032174908296147</v>
+        <v>1.008670493404</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9952604579789925</v>
+        <v>0.982599426424267</v>
       </c>
       <c r="D11">
-        <v>1.020988108708837</v>
+        <v>1.003684084331419</v>
       </c>
       <c r="E11">
-        <v>1.010874584464562</v>
+        <v>0.9929275611511691</v>
       </c>
       <c r="F11">
-        <v>1.024443441504772</v>
+        <v>0.9087517400937262</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050211322839321</v>
+        <v>1.032183699381223</v>
       </c>
       <c r="J11">
-        <v>1.024831745367875</v>
+        <v>1.012714444016664</v>
       </c>
       <c r="K11">
-        <v>1.035524784726825</v>
+        <v>1.018536857046515</v>
       </c>
       <c r="L11">
-        <v>1.025594295150175</v>
+        <v>1.007984097260532</v>
       </c>
       <c r="M11">
-        <v>1.038918657305419</v>
+        <v>0.9256272559150645</v>
       </c>
       <c r="N11">
-        <v>1.026287123996141</v>
+        <v>1.008190926460936</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.992467301754435</v>
+        <v>0.9815689041362938</v>
       </c>
       <c r="D12">
-        <v>1.018766216052273</v>
+        <v>1.002910976350409</v>
       </c>
       <c r="E12">
-        <v>1.008455989101355</v>
+        <v>0.9921356667207688</v>
       </c>
       <c r="F12">
-        <v>1.022052289802641</v>
+        <v>0.9049606517596607</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049132643208327</v>
+        <v>1.03177012674925</v>
       </c>
       <c r="J12">
-        <v>1.022593916016862</v>
+        <v>1.012174315832059</v>
       </c>
       <c r="K12">
-        <v>1.033542505098244</v>
+        <v>1.017982618341659</v>
       </c>
       <c r="L12">
-        <v>1.023422959229503</v>
+        <v>1.007415101992682</v>
       </c>
       <c r="M12">
-        <v>1.036768856347984</v>
+        <v>0.9221671568352675</v>
       </c>
       <c r="N12">
-        <v>1.024046116670768</v>
+        <v>1.008009951285497</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9930695951250007</v>
+        <v>0.9817905767617394</v>
       </c>
       <c r="D13">
-        <v>1.019245246052986</v>
+        <v>1.003077313083122</v>
       </c>
       <c r="E13">
-        <v>1.008977450259684</v>
+        <v>0.992305958692895</v>
       </c>
       <c r="F13">
-        <v>1.02256779489048</v>
+        <v>0.9057801593786512</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049365345702845</v>
+        <v>1.031859342122284</v>
       </c>
       <c r="J13">
-        <v>1.023076480362518</v>
+        <v>1.012290575612497</v>
       </c>
       <c r="K13">
-        <v>1.033969969326181</v>
+        <v>1.018101956526015</v>
       </c>
       <c r="L13">
-        <v>1.023891190873192</v>
+        <v>1.007537528979126</v>
       </c>
       <c r="M13">
-        <v>1.037232410707786</v>
+        <v>0.922915156545389</v>
       </c>
       <c r="N13">
-        <v>1.024529366313145</v>
+        <v>1.008048904420238</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9950309834818386</v>
+        <v>0.9825145217251874</v>
       </c>
       <c r="D14">
-        <v>1.020805531159017</v>
+        <v>1.003620403702277</v>
       </c>
       <c r="E14">
-        <v>1.010675853615522</v>
+        <v>0.9928622944439643</v>
       </c>
       <c r="F14">
-        <v>1.024246948197387</v>
+        <v>0.9084411739041101</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050122750154433</v>
+        <v>1.032149737837694</v>
       </c>
       <c r="J14">
-        <v>1.024647902250809</v>
+        <v>1.012669976003102</v>
       </c>
       <c r="K14">
-        <v>1.035361938653673</v>
+        <v>1.018491245659301</v>
       </c>
       <c r="L14">
-        <v>1.025415917331761</v>
+        <v>1.007937231990446</v>
       </c>
       <c r="M14">
-        <v>1.038742033674498</v>
+        <v>0.9253438229535714</v>
       </c>
       <c r="N14">
-        <v>1.026103019800762</v>
+        <v>1.008176026659489</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9962303722868957</v>
+        <v>0.9829587679590515</v>
       </c>
       <c r="D15">
-        <v>1.021759874667689</v>
+        <v>1.003953569240273</v>
       </c>
       <c r="E15">
-        <v>1.011714611470617</v>
+        <v>0.9932038342065835</v>
       </c>
       <c r="F15">
-        <v>1.025274045092936</v>
+        <v>0.9100626709375695</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050585595186844</v>
+        <v>1.032327212681289</v>
       </c>
       <c r="J15">
-        <v>1.025608773669776</v>
+        <v>1.012902580458569</v>
       </c>
       <c r="K15">
-        <v>1.036213060849991</v>
+        <v>1.018729794874679</v>
       </c>
       <c r="L15">
-        <v>1.026348218306381</v>
+        <v>1.008182417000387</v>
       </c>
       <c r="M15">
-        <v>1.039665195938194</v>
+        <v>0.9268236167729179</v>
       </c>
       <c r="N15">
-        <v>1.027065255767358</v>
+        <v>1.00825396562363</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003078535235785</v>
+        <v>0.9855178803593783</v>
       </c>
       <c r="D16">
-        <v>1.027212119853275</v>
+        <v>1.005871444884854</v>
       </c>
       <c r="E16">
-        <v>1.017648202815935</v>
+        <v>0.9951735180035745</v>
       </c>
       <c r="F16">
-        <v>1.031142673575154</v>
+        <v>0.9192423117176727</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05322355644913</v>
+        <v>1.033339086256701</v>
       </c>
       <c r="J16">
-        <v>1.031094144774597</v>
+        <v>1.01423943664347</v>
       </c>
       <c r="K16">
-        <v>1.041071551144658</v>
+        <v>1.020099123013016</v>
       </c>
       <c r="L16">
-        <v>1.031670196343702</v>
+        <v>1.009593530539966</v>
       </c>
       <c r="M16">
-        <v>1.04493642150958</v>
+        <v>0.9351991374336788</v>
       </c>
       <c r="N16">
-        <v>1.032558416728329</v>
+        <v>1.008701937207323</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.007263306375899</v>
+        <v>0.9871006245636438</v>
       </c>
       <c r="D17">
-        <v>1.030546454006334</v>
+        <v>1.007056579141385</v>
       </c>
       <c r="E17">
-        <v>1.021276164896637</v>
+        <v>0.9963936624259692</v>
       </c>
       <c r="F17">
-        <v>1.03473230705051</v>
+        <v>0.924790080914918</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054831286392113</v>
+        <v>1.033956202978497</v>
       </c>
       <c r="J17">
-        <v>1.034445199699604</v>
+        <v>1.015063693734916</v>
       </c>
       <c r="K17">
-        <v>1.044039283644246</v>
+        <v>1.020942001983245</v>
       </c>
       <c r="L17">
-        <v>1.034921153829584</v>
+        <v>1.010465220659089</v>
       </c>
       <c r="M17">
-        <v>1.048157577659886</v>
+        <v>0.9402591756175246</v>
       </c>
       <c r="N17">
-        <v>1.035914230535701</v>
+        <v>1.008978161813092</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.009666491569098</v>
+        <v>0.9880160288386226</v>
       </c>
       <c r="D18">
-        <v>1.032462098764932</v>
+        <v>1.007741708257516</v>
       </c>
       <c r="E18">
-        <v>1.023360262999491</v>
+        <v>0.9971000506386576</v>
       </c>
       <c r="F18">
-        <v>1.036794869054809</v>
+        <v>0.927956270445159</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05575297507231</v>
+        <v>1.034310167083015</v>
       </c>
       <c r="J18">
-        <v>1.036369219666829</v>
+        <v>1.01553954826191</v>
       </c>
       <c r="K18">
-        <v>1.045743071018791</v>
+        <v>1.021428134510077</v>
       </c>
       <c r="L18">
-        <v>1.036787593143504</v>
+        <v>1.010969029443484</v>
       </c>
       <c r="M18">
-        <v>1.050007325514264</v>
+        <v>0.943146346400882</v>
       </c>
       <c r="N18">
-        <v>1.037840982831967</v>
+        <v>1.009137635900636</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.010479716935412</v>
+        <v>0.9883268671377211</v>
       </c>
       <c r="D19">
-        <v>1.03311047746582</v>
+        <v>1.007974305328814</v>
       </c>
       <c r="E19">
-        <v>1.024065618393552</v>
+        <v>0.9973400329582425</v>
       </c>
       <c r="F19">
-        <v>1.037493015725324</v>
+        <v>0.9290245548348343</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056064597541384</v>
+        <v>1.034429874459763</v>
       </c>
       <c r="J19">
-        <v>1.037020227889683</v>
+        <v>1.015700988615386</v>
       </c>
       <c r="K19">
-        <v>1.046319535150211</v>
+        <v>1.021592984283778</v>
       </c>
       <c r="L19">
-        <v>1.037419099135903</v>
+        <v>1.011140048494208</v>
       </c>
       <c r="M19">
-        <v>1.050633253661756</v>
+        <v>0.9441203733692582</v>
       </c>
       <c r="N19">
-        <v>1.038492915561168</v>
+        <v>1.009191740584394</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.00681826989895</v>
+        <v>0.9869316232862628</v>
       </c>
       <c r="D20">
-        <v>1.030191769416837</v>
+        <v>1.006930067088573</v>
       </c>
       <c r="E20">
-        <v>1.020890271807159</v>
+        <v>0.9962633060091015</v>
       </c>
       <c r="F20">
-        <v>1.034350440291636</v>
+        <v>0.9242021977341154</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054660473221962</v>
+        <v>1.033890619199282</v>
       </c>
       <c r="J20">
-        <v>1.03408886544569</v>
+        <v>1.014975772788223</v>
       </c>
       <c r="K20">
-        <v>1.04372372481808</v>
+        <v>1.020852144427786</v>
       </c>
       <c r="L20">
-        <v>1.034575474620223</v>
+        <v>1.010372180452108</v>
       </c>
       <c r="M20">
-        <v>1.047815023462767</v>
+        <v>0.9397230446103909</v>
       </c>
       <c r="N20">
-        <v>1.035557390246274</v>
+        <v>1.008948697133012</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9944553114228449</v>
+        <v>0.9823017152302669</v>
       </c>
       <c r="D21">
-        <v>1.020347535299577</v>
+        <v>1.003460781387427</v>
       </c>
       <c r="E21">
-        <v>1.010177329231528</v>
+        <v>0.9926987268068023</v>
       </c>
       <c r="F21">
-        <v>1.023754050537882</v>
+        <v>0.9076613740409458</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049900514239691</v>
+        <v>1.032064527619001</v>
       </c>
       <c r="J21">
-        <v>1.024186697000587</v>
+        <v>1.012558494662025</v>
       </c>
       <c r="K21">
-        <v>1.034953405991279</v>
+        <v>1.018376883500289</v>
       </c>
       <c r="L21">
-        <v>1.024968420633861</v>
+        <v>1.007819757003844</v>
       </c>
       <c r="M21">
-        <v>1.038298949499329</v>
+        <v>0.9246321369412643</v>
       </c>
       <c r="N21">
-        <v>1.025641159586183</v>
+        <v>1.008138673126918</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9862912459636951</v>
+        <v>0.9793129626749965</v>
       </c>
       <c r="D22">
-        <v>1.013856769553281</v>
+        <v>1.001216971100029</v>
       </c>
       <c r="E22">
-        <v>1.003110931050426</v>
+        <v>0.9904041482578204</v>
       </c>
       <c r="F22">
-        <v>1.016769515593579</v>
+        <v>0.8964894790729101</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046743310078358</v>
+        <v>1.030854104185655</v>
       </c>
       <c r="J22">
-        <v>1.017645148904324</v>
+        <v>1.010988769943423</v>
       </c>
       <c r="K22">
-        <v>1.029158629972728</v>
+        <v>1.01676435804424</v>
       </c>
       <c r="L22">
-        <v>1.018621010678116</v>
+        <v>1.006168128133685</v>
       </c>
       <c r="M22">
-        <v>1.032015927712163</v>
+        <v>0.914433951755673</v>
       </c>
       <c r="N22">
-        <v>1.019090321741298</v>
+        <v>1.007612759689422</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9906589822906662</v>
+        <v>0.9809051423083013</v>
       </c>
       <c r="D23">
-        <v>1.01732825214536</v>
+        <v>1.002412786346888</v>
       </c>
       <c r="E23">
-        <v>1.006890577517785</v>
+        <v>0.9916259180961522</v>
       </c>
       <c r="F23">
-        <v>1.02050488692122</v>
+        <v>0.9024932930940824</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048433642908205</v>
+        <v>1.03150214649116</v>
       </c>
       <c r="J23">
-        <v>1.021145018725653</v>
+        <v>1.011825948177351</v>
       </c>
       <c r="K23">
-        <v>1.032259026286757</v>
+        <v>1.017624889381514</v>
       </c>
       <c r="L23">
-        <v>1.022017077483676</v>
+        <v>1.007048407176972</v>
       </c>
       <c r="M23">
-        <v>1.035377128290544</v>
+        <v>0.919914962844372</v>
       </c>
       <c r="N23">
-        <v>1.022595161779214</v>
+        <v>1.007893232681803</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.00701947876585</v>
+        <v>0.9870080116653449</v>
       </c>
       <c r="D24">
-        <v>1.030352126006566</v>
+        <v>1.006987251340191</v>
       </c>
       <c r="E24">
-        <v>1.021064738831084</v>
+        <v>0.9963222247889889</v>
       </c>
       <c r="F24">
-        <v>1.034523085467386</v>
+        <v>0.9244680508784471</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054737705807631</v>
+        <v>1.033920272111788</v>
       </c>
       <c r="J24">
-        <v>1.03424997168525</v>
+        <v>1.015015515629806</v>
       </c>
       <c r="K24">
-        <v>1.04386639608654</v>
+        <v>1.0208927641328</v>
       </c>
       <c r="L24">
-        <v>1.034731763831422</v>
+        <v>1.010414235583876</v>
       </c>
       <c r="M24">
-        <v>1.047969898489551</v>
+        <v>0.9399654964108262</v>
       </c>
       <c r="N24">
-        <v>1.035718725275173</v>
+        <v>1.008962016012827</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024541435358918</v>
+        <v>0.993787032452243</v>
       </c>
       <c r="D25">
-        <v>1.044331731594555</v>
+        <v>1.012056774935014</v>
       </c>
       <c r="E25">
-        <v>1.036270058727426</v>
+        <v>1.001565683569192</v>
       </c>
       <c r="F25">
-        <v>1.049579233570228</v>
+        <v>0.9472657890345908</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.061429000942572</v>
+        <v>1.036493454657553</v>
       </c>
       <c r="J25">
-        <v>1.048270197779983</v>
+        <v>1.018525312207458</v>
       </c>
       <c r="K25">
-        <v>1.056278736761808</v>
+        <v>1.024470764372147</v>
       </c>
       <c r="L25">
-        <v>1.048330260926013</v>
+        <v>1.01413974284171</v>
       </c>
       <c r="M25">
-        <v>1.06145373385209</v>
+        <v>0.9607418930415533</v>
       </c>
       <c r="N25">
-        <v>1.049758861699103</v>
+        <v>1.010138319219393</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_2/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9989807862296117</v>
+        <v>1.023464926401103</v>
       </c>
       <c r="D2">
-        <v>1.015935817357152</v>
+        <v>1.029410939858912</v>
       </c>
       <c r="E2">
-        <v>1.005603975098092</v>
+        <v>1.024081151752958</v>
       </c>
       <c r="F2">
-        <v>0.9637977978754585</v>
+        <v>1.036791413941509</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038389397195388</v>
+        <v>1.032957945433059</v>
       </c>
       <c r="J2">
-        <v>1.021192024599904</v>
+        <v>1.02864499537528</v>
       </c>
       <c r="K2">
-        <v>1.027177516974494</v>
+        <v>1.0322249298917</v>
       </c>
       <c r="L2">
-        <v>1.016985785864154</v>
+        <v>1.02691070080248</v>
       </c>
       <c r="M2">
-        <v>0.9757856391472025</v>
+        <v>1.03958414543502</v>
       </c>
       <c r="N2">
-        <v>1.011032067669831</v>
+        <v>1.013605090547963</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.002640708351226</v>
+        <v>1.024223545733136</v>
       </c>
       <c r="D3">
-        <v>1.018667782123799</v>
+        <v>1.02999149016094</v>
       </c>
       <c r="E3">
-        <v>1.008461488101128</v>
+        <v>1.02472010550108</v>
       </c>
       <c r="F3">
-        <v>0.9750319329977749</v>
+        <v>1.038922060843811</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039686825032978</v>
+        <v>1.033162750708813</v>
       </c>
       <c r="J3">
-        <v>1.02305964294658</v>
+        <v>1.02904309398478</v>
       </c>
       <c r="K3">
-        <v>1.029067249570089</v>
+        <v>1.03261423283312</v>
       </c>
       <c r="L3">
-        <v>1.018987235409941</v>
+        <v>1.027357127712651</v>
       </c>
       <c r="M3">
-        <v>0.9859945777107259</v>
+        <v>1.041520969180735</v>
       </c>
       <c r="N3">
-        <v>1.011657931968908</v>
+        <v>1.013737860397113</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.004960957794853</v>
+        <v>1.024714854512626</v>
       </c>
       <c r="D4">
-        <v>1.020399345588133</v>
+        <v>1.030367385749939</v>
       </c>
       <c r="E4">
-        <v>1.010278386128447</v>
+        <v>1.025134314628816</v>
       </c>
       <c r="F4">
-        <v>0.9819933587957422</v>
+        <v>1.04029575081282</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040492733068295</v>
+        <v>1.033293984101119</v>
       </c>
       <c r="J4">
-        <v>1.02423860748583</v>
+        <v>1.029300444973271</v>
       </c>
       <c r="K4">
-        <v>1.030257648143178</v>
+        <v>1.032865678706261</v>
       </c>
       <c r="L4">
-        <v>1.020254322903808</v>
+        <v>1.027646071699587</v>
       </c>
       <c r="M4">
-        <v>0.9923140787283072</v>
+        <v>1.042768900318437</v>
       </c>
       <c r="N4">
-        <v>1.012052967041904</v>
+        <v>1.013823661988932</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.005925375187326</v>
+        <v>1.024921503107513</v>
       </c>
       <c r="D5">
-        <v>1.021119012655918</v>
+        <v>1.030525469233882</v>
       </c>
       <c r="E5">
-        <v>1.01103484749365</v>
+        <v>1.025308629793566</v>
       </c>
       <c r="F5">
-        <v>0.9848523604499925</v>
+        <v>1.040872086696363</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040823878799121</v>
+        <v>1.033348846787163</v>
       </c>
       <c r="J5">
-        <v>1.024727475647091</v>
+        <v>1.029408576233781</v>
       </c>
       <c r="K5">
-        <v>1.030750677754984</v>
+        <v>1.032971276493691</v>
       </c>
       <c r="L5">
-        <v>1.020780584408504</v>
+        <v>1.027767561335126</v>
       </c>
       <c r="M5">
-        <v>0.9949078210016715</v>
+        <v>1.043292283191982</v>
       </c>
       <c r="N5">
-        <v>1.012216756511405</v>
+        <v>1.013859706640468</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.006086672028824</v>
+        <v>1.024956206293864</v>
       </c>
       <c r="D6">
-        <v>1.021239372709044</v>
+        <v>1.030552015468326</v>
       </c>
       <c r="E6">
-        <v>1.011161437798273</v>
+        <v>1.025337908696501</v>
       </c>
       <c r="F6">
-        <v>0.9853285989883582</v>
+        <v>1.040968788644349</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040879041019255</v>
+        <v>1.033358040445941</v>
       </c>
       <c r="J6">
-        <v>1.024809169910528</v>
+        <v>1.029426728472747</v>
       </c>
       <c r="K6">
-        <v>1.030833034029539</v>
+        <v>1.032989000368796</v>
       </c>
       <c r="L6">
-        <v>1.02086857700413</v>
+        <v>1.027787960993099</v>
       </c>
       <c r="M6">
-        <v>0.9953397773783326</v>
+        <v>1.043380089111712</v>
       </c>
       <c r="N6">
-        <v>1.012244126220253</v>
+        <v>1.013865757147089</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.004973887079995</v>
+        <v>1.0247176153601</v>
       </c>
       <c r="D7">
-        <v>1.020408993877674</v>
+        <v>1.030369497846168</v>
       </c>
       <c r="E7">
-        <v>1.010288522525303</v>
+        <v>1.02513664312424</v>
       </c>
       <c r="F7">
-        <v>0.9820318189954692</v>
+        <v>1.040303456376967</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040497187463555</v>
+        <v>1.033294718387587</v>
       </c>
       <c r="J7">
-        <v>1.024245165991652</v>
+        <v>1.029301890061125</v>
       </c>
       <c r="K7">
-        <v>1.030264264738425</v>
+        <v>1.032867090141724</v>
       </c>
       <c r="L7">
-        <v>1.020261379722551</v>
+        <v>1.027647694981727</v>
       </c>
       <c r="M7">
-        <v>0.9923489770661671</v>
+        <v>1.042775898654455</v>
       </c>
       <c r="N7">
-        <v>1.01205516445574</v>
+        <v>1.01382414372302</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000227899870417</v>
+        <v>1.023721215518605</v>
       </c>
       <c r="D8">
-        <v>1.016866837419125</v>
+        <v>1.029607089323332</v>
       </c>
       <c r="E8">
-        <v>1.006576536657848</v>
+        <v>1.02429693045878</v>
       </c>
       <c r="F8">
-        <v>0.9676621117062811</v>
+        <v>1.037512525017196</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038835079102446</v>
+        <v>1.033027427803917</v>
       </c>
       <c r="J8">
-        <v>1.021829493302181</v>
+        <v>1.0287795852839</v>
       </c>
       <c r="K8">
-        <v>1.02782308262474</v>
+        <v>1.032356591641543</v>
       </c>
       <c r="L8">
-        <v>1.017668155436928</v>
+        <v>1.027061556794217</v>
       </c>
       <c r="M8">
-        <v>0.979298700036518</v>
+        <v>1.040239822698363</v>
       </c>
       <c r="N8">
-        <v>1.011245701218195</v>
+        <v>1.013649983297792</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.991474094158145</v>
+        <v>1.021968773194031</v>
       </c>
       <c r="D9">
-        <v>1.010328124009466</v>
+        <v>1.028265499187254</v>
       </c>
       <c r="E9">
-        <v>0.9997733046969138</v>
+        <v>1.022823143048933</v>
       </c>
       <c r="F9">
-        <v>0.9396552223191613</v>
+        <v>1.0325550815297</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035628268815118</v>
+        <v>1.03254651457306</v>
       </c>
       <c r="J9">
-        <v>1.017331558661544</v>
+        <v>1.027857351767498</v>
       </c>
       <c r="K9">
-        <v>1.023255827939081</v>
+        <v>1.031453516069558</v>
       </c>
       <c r="L9">
-        <v>1.012870060945257</v>
+        <v>1.026029313213571</v>
       </c>
       <c r="M9">
-        <v>0.9538096085114952</v>
+        <v>1.035728938178789</v>
       </c>
       <c r="N9">
-        <v>1.009738223436186</v>
+        <v>1.013342259056363</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9853379385988268</v>
+        <v>1.020802773585121</v>
       </c>
       <c r="D10">
-        <v>1.005736660925691</v>
+        <v>1.027372397909433</v>
       </c>
       <c r="E10">
-        <v>0.9950348956128332</v>
+        <v>1.021844642702007</v>
       </c>
       <c r="F10">
-        <v>0.9186055044362089</v>
+        <v>1.029221728645622</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033268511066562</v>
+        <v>1.032219184766467</v>
       </c>
       <c r="J10">
-        <v>1.014145605195214</v>
+        <v>1.027241291507634</v>
       </c>
       <c r="K10">
-        <v>1.020003104959561</v>
+        <v>1.030849107775085</v>
       </c>
       <c r="L10">
-        <v>1.009494378978956</v>
+        <v>1.02534159096946</v>
       </c>
       <c r="M10">
-        <v>0.9346182255453523</v>
+        <v>1.032691721289522</v>
       </c>
       <c r="N10">
-        <v>1.008670493404</v>
+        <v>1.01313655849837</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.982599426424267</v>
+        <v>1.020298436759206</v>
       </c>
       <c r="D11">
-        <v>1.003684084331419</v>
+        <v>1.026985987975731</v>
       </c>
       <c r="E11">
-        <v>0.9929275611511691</v>
+        <v>1.021421908347578</v>
       </c>
       <c r="F11">
-        <v>0.9087517400937262</v>
+        <v>1.027771199001914</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032183699381223</v>
+        <v>1.032075840068023</v>
       </c>
       <c r="J11">
-        <v>1.012714444016664</v>
+        <v>1.026974239753384</v>
       </c>
       <c r="K11">
-        <v>1.018536857046515</v>
+        <v>1.030586832825034</v>
       </c>
       <c r="L11">
-        <v>1.007984097260532</v>
+        <v>1.025043910212445</v>
       </c>
       <c r="M11">
-        <v>0.9256272559150645</v>
+        <v>1.031369078579223</v>
       </c>
       <c r="N11">
-        <v>1.008190926460936</v>
+        <v>1.013047358603807</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9815689041362938</v>
+        <v>1.020111186731208</v>
       </c>
       <c r="D12">
-        <v>1.002910976350409</v>
+        <v>1.026842504944248</v>
       </c>
       <c r="E12">
-        <v>0.9921356667207688</v>
+        <v>1.02126503159476</v>
       </c>
       <c r="F12">
-        <v>0.9049606517596607</v>
+        <v>1.027231294917613</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03177012674925</v>
+        <v>1.032022352565179</v>
       </c>
       <c r="J12">
-        <v>1.012174315832059</v>
+        <v>1.026875000881505</v>
       </c>
       <c r="K12">
-        <v>1.017982618341659</v>
+        <v>1.030489327659391</v>
       </c>
       <c r="L12">
-        <v>1.007415101992682</v>
+        <v>1.02493335491835</v>
       </c>
       <c r="M12">
-        <v>0.9221671568352675</v>
+        <v>1.030876628541469</v>
       </c>
       <c r="N12">
-        <v>1.008009951285497</v>
+        <v>1.013014206322033</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9817905767617394</v>
+        <v>1.020151348725443</v>
       </c>
       <c r="D13">
-        <v>1.003077313083122</v>
+        <v>1.026873280416193</v>
       </c>
       <c r="E13">
-        <v>0.992305958692895</v>
+        <v>1.021298675586404</v>
       </c>
       <c r="F13">
-        <v>0.9057801593786512</v>
+        <v>1.027347157120056</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031859342122284</v>
+        <v>1.032033836827507</v>
       </c>
       <c r="J13">
-        <v>1.012290575612497</v>
+        <v>1.026896289943493</v>
       </c>
       <c r="K13">
-        <v>1.018101956526015</v>
+        <v>1.030510246677512</v>
       </c>
       <c r="L13">
-        <v>1.007537528979126</v>
+        <v>1.024957068646476</v>
       </c>
       <c r="M13">
-        <v>0.922915156545389</v>
+        <v>1.030982313859854</v>
       </c>
       <c r="N13">
-        <v>1.008048904420238</v>
+        <v>1.013021318478653</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9825145217251874</v>
+        <v>1.020282956913853</v>
       </c>
       <c r="D14">
-        <v>1.003620403702277</v>
+        <v>1.026974126666059</v>
       </c>
       <c r="E14">
-        <v>0.9928622944439643</v>
+        <v>1.021408937890378</v>
       </c>
       <c r="F14">
-        <v>0.9084411739041101</v>
+        <v>1.027726593274055</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032149737837694</v>
+        <v>1.032071423736516</v>
       </c>
       <c r="J14">
-        <v>1.012669976003102</v>
+        <v>1.026966037533256</v>
       </c>
       <c r="K14">
-        <v>1.018491245659301</v>
+        <v>1.030578774743597</v>
       </c>
       <c r="L14">
-        <v>1.007937231990446</v>
+        <v>1.025034771336375</v>
       </c>
       <c r="M14">
-        <v>0.9253438229535714</v>
+        <v>1.031328396399597</v>
       </c>
       <c r="N14">
-        <v>1.008176026659489</v>
+        <v>1.013044618622521</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9829587679590515</v>
+        <v>1.020364056097423</v>
       </c>
       <c r="D15">
-        <v>1.003953569240273</v>
+        <v>1.027036267585675</v>
       </c>
       <c r="E15">
-        <v>0.9932038342065835</v>
+        <v>1.021476893458024</v>
       </c>
       <c r="F15">
-        <v>0.9100626709375695</v>
+        <v>1.027960227862675</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032327212681289</v>
+        <v>1.032094550048536</v>
       </c>
       <c r="J15">
-        <v>1.012902580458569</v>
+        <v>1.027009005504271</v>
       </c>
       <c r="K15">
-        <v>1.018729794874679</v>
+        <v>1.030620985936498</v>
       </c>
       <c r="L15">
-        <v>1.008182417000387</v>
+        <v>1.025082648739738</v>
       </c>
       <c r="M15">
-        <v>0.9268236167729179</v>
+        <v>1.031541474327802</v>
       </c>
       <c r="N15">
-        <v>1.00825396562363</v>
+        <v>1.013058972032887</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9855178803593783</v>
+        <v>1.020836256379014</v>
       </c>
       <c r="D16">
-        <v>1.005871444884854</v>
+        <v>1.027398049207605</v>
       </c>
       <c r="E16">
-        <v>0.9951735180035745</v>
+        <v>1.021872718555943</v>
       </c>
       <c r="F16">
-        <v>0.9192423117176727</v>
+        <v>1.029317841468261</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033339086256701</v>
+        <v>1.032228664085687</v>
       </c>
       <c r="J16">
-        <v>1.01423943664347</v>
+        <v>1.02725900868057</v>
       </c>
       <c r="K16">
-        <v>1.020099123013016</v>
+        <v>1.030866502246523</v>
       </c>
       <c r="L16">
-        <v>1.009593530539966</v>
+        <v>1.025361349364167</v>
       </c>
       <c r="M16">
-        <v>0.9351991374336788</v>
+        <v>1.032779339687592</v>
       </c>
       <c r="N16">
-        <v>1.008701937207323</v>
+        <v>1.013142475666472</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9871006245636438</v>
+        <v>1.021132602535216</v>
       </c>
       <c r="D17">
-        <v>1.007056579141385</v>
+        <v>1.027625068249576</v>
       </c>
       <c r="E17">
-        <v>0.9963936624259692</v>
+        <v>1.022121267627404</v>
       </c>
       <c r="F17">
-        <v>0.924790080914918</v>
+        <v>1.030167492744716</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033956202978497</v>
+        <v>1.032312358733342</v>
       </c>
       <c r="J17">
-        <v>1.015063693734916</v>
+        <v>1.027415750576016</v>
       </c>
       <c r="K17">
-        <v>1.020942001983245</v>
+        <v>1.031020357561542</v>
       </c>
       <c r="L17">
-        <v>1.010465220659089</v>
+        <v>1.025536200004149</v>
       </c>
       <c r="M17">
-        <v>0.9402591756175246</v>
+        <v>1.033553786276729</v>
       </c>
       <c r="N17">
-        <v>1.008978161813092</v>
+        <v>1.013194820499157</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9880160288386226</v>
+        <v>1.021305509131796</v>
       </c>
       <c r="D18">
-        <v>1.007741708257516</v>
+        <v>1.027757514385733</v>
       </c>
       <c r="E18">
-        <v>0.9971000506386576</v>
+        <v>1.022266334924548</v>
       </c>
       <c r="F18">
-        <v>0.927956270445159</v>
+        <v>1.030662391033619</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034310167083015</v>
+        <v>1.032361021269465</v>
       </c>
       <c r="J18">
-        <v>1.01553954826191</v>
+        <v>1.027507147135765</v>
       </c>
       <c r="K18">
-        <v>1.021428134510077</v>
+        <v>1.031110044532197</v>
       </c>
       <c r="L18">
-        <v>1.010969029443484</v>
+        <v>1.025638197769829</v>
       </c>
       <c r="M18">
-        <v>0.943146346400882</v>
+        <v>1.034004785783265</v>
       </c>
       <c r="N18">
-        <v>1.009137635900636</v>
+        <v>1.013225339786986</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9883268671377211</v>
+        <v>1.021364474763595</v>
       </c>
       <c r="D19">
-        <v>1.007974305328814</v>
+        <v>1.027802680131156</v>
       </c>
       <c r="E19">
-        <v>0.9973400329582425</v>
+        <v>1.022315814839384</v>
       </c>
       <c r="F19">
-        <v>0.9290245548348343</v>
+        <v>1.030831022793813</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034429874459763</v>
+        <v>1.032377587658852</v>
       </c>
       <c r="J19">
-        <v>1.015700988615386</v>
+        <v>1.027538306189331</v>
       </c>
       <c r="K19">
-        <v>1.021592984283778</v>
+        <v>1.031140616275563</v>
       </c>
       <c r="L19">
-        <v>1.011140048494208</v>
+        <v>1.02567297811291</v>
       </c>
       <c r="M19">
-        <v>0.9441203733692582</v>
+        <v>1.034158443493007</v>
       </c>
       <c r="N19">
-        <v>1.009191740584394</v>
+        <v>1.013235743940819</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9869316232862628</v>
+        <v>1.021100801920958</v>
       </c>
       <c r="D20">
-        <v>1.006930067088573</v>
+        <v>1.02760070817259</v>
       </c>
       <c r="E20">
-        <v>0.9962633060091015</v>
+        <v>1.02209459105565</v>
       </c>
       <c r="F20">
-        <v>0.9242021977341154</v>
+        <v>1.030076404722919</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033890619199282</v>
+        <v>1.032303395144851</v>
       </c>
       <c r="J20">
-        <v>1.014975772788223</v>
+        <v>1.027398936583913</v>
       </c>
       <c r="K20">
-        <v>1.020852144427786</v>
+        <v>1.031003855952576</v>
       </c>
       <c r="L20">
-        <v>1.010372180452108</v>
+        <v>1.025517439112019</v>
       </c>
       <c r="M20">
-        <v>0.9397230446103909</v>
+        <v>1.033470770418039</v>
       </c>
       <c r="N20">
-        <v>1.008948697133012</v>
+        <v>1.013189205693265</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9823017152302669</v>
+        <v>1.020244199282537</v>
       </c>
       <c r="D21">
-        <v>1.003460781387427</v>
+        <v>1.02694442866318</v>
       </c>
       <c r="E21">
-        <v>0.9926987268068023</v>
+        <v>1.021376464362918</v>
       </c>
       <c r="F21">
-        <v>0.9076613740409458</v>
+        <v>1.027614889796046</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032064527619001</v>
+        <v>1.032060362043693</v>
       </c>
       <c r="J21">
-        <v>1.012558494662025</v>
+        <v>1.026945499818894</v>
       </c>
       <c r="K21">
-        <v>1.018376883500289</v>
+        <v>1.030558597271763</v>
       </c>
       <c r="L21">
-        <v>1.007819757003844</v>
+        <v>1.025011889369392</v>
       </c>
       <c r="M21">
-        <v>0.9246321369412643</v>
+        <v>1.031226516057921</v>
       </c>
       <c r="N21">
-        <v>1.008138673126918</v>
+        <v>1.013037757847645</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9793129626749965</v>
+        <v>1.019706100464496</v>
       </c>
       <c r="D22">
-        <v>1.001216971100029</v>
+        <v>1.026532070779291</v>
       </c>
       <c r="E22">
-        <v>0.9904041482578204</v>
+        <v>1.020925792516652</v>
       </c>
       <c r="F22">
-        <v>0.8964894790729101</v>
+        <v>1.026060781035137</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030854104185655</v>
+        <v>1.03190615152541</v>
       </c>
       <c r="J22">
-        <v>1.010988769943423</v>
+        <v>1.026660151847969</v>
       </c>
       <c r="K22">
-        <v>1.01676435804424</v>
+        <v>1.030278156088064</v>
       </c>
       <c r="L22">
-        <v>1.006168128133685</v>
+        <v>1.02469412638781</v>
       </c>
       <c r="M22">
-        <v>0.914433951755673</v>
+        <v>1.029808726253844</v>
       </c>
       <c r="N22">
-        <v>1.007612759689422</v>
+        <v>1.01294242397242</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9809051423083013</v>
+        <v>1.01999131098646</v>
       </c>
       <c r="D23">
-        <v>1.002412786346888</v>
+        <v>1.026750643664262</v>
       </c>
       <c r="E23">
-        <v>0.9916259180961522</v>
+        <v>1.021164621974677</v>
       </c>
       <c r="F23">
-        <v>0.9024932930940824</v>
+        <v>1.026885267751607</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03150214649116</v>
+        <v>1.031988035118495</v>
       </c>
       <c r="J23">
-        <v>1.011825948177351</v>
+        <v>1.026811444264448</v>
       </c>
       <c r="K23">
-        <v>1.017624889381514</v>
+        <v>1.030426869697029</v>
       </c>
       <c r="L23">
-        <v>1.007048407176972</v>
+        <v>1.024862569295241</v>
       </c>
       <c r="M23">
-        <v>0.919914962844372</v>
+        <v>1.030560973534706</v>
       </c>
       <c r="N23">
-        <v>1.007893232681803</v>
+        <v>1.012992972908403</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9870080116653449</v>
+        <v>1.02111517108672</v>
       </c>
       <c r="D24">
-        <v>1.006987251340191</v>
+        <v>1.027611715351182</v>
       </c>
       <c r="E24">
-        <v>0.9963222247889889</v>
+        <v>1.022106644763718</v>
       </c>
       <c r="F24">
-        <v>0.9244680508784471</v>
+        <v>1.030117565606555</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033920272111788</v>
+        <v>1.0323074458841</v>
       </c>
       <c r="J24">
-        <v>1.015015515629806</v>
+        <v>1.027406534191002</v>
       </c>
       <c r="K24">
-        <v>1.0208927641328</v>
+        <v>1.031011312487173</v>
       </c>
       <c r="L24">
-        <v>1.010414235583876</v>
+        <v>1.02552591631994</v>
       </c>
       <c r="M24">
-        <v>0.9399654964108262</v>
+        <v>1.033508283941189</v>
       </c>
       <c r="N24">
-        <v>1.008962016012827</v>
+        <v>1.013191742821282</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.993787032452243</v>
+        <v>1.02242142047527</v>
       </c>
       <c r="D25">
-        <v>1.012056774935014</v>
+        <v>1.028612107046173</v>
       </c>
       <c r="E25">
-        <v>1.001565683569192</v>
+        <v>1.023203447528346</v>
       </c>
       <c r="F25">
-        <v>0.9472657890345908</v>
+        <v>1.033841565710865</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036493454657553</v>
+        <v>1.032672022587533</v>
       </c>
       <c r="J25">
-        <v>1.018525312207458</v>
+        <v>1.028095990569142</v>
       </c>
       <c r="K25">
-        <v>1.024470764372147</v>
+        <v>1.031687398510026</v>
       </c>
       <c r="L25">
-        <v>1.01413974284171</v>
+        <v>1.026296097633164</v>
       </c>
       <c r="M25">
-        <v>0.9607418930415533</v>
+        <v>1.036900262543334</v>
       </c>
       <c r="N25">
-        <v>1.010138319219393</v>
+        <v>1.013421910829964</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_2/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.023464926401103</v>
+        <v>0.9989807862296118</v>
       </c>
       <c r="D2">
-        <v>1.029410939858912</v>
+        <v>1.015935817357152</v>
       </c>
       <c r="E2">
-        <v>1.024081151752958</v>
+        <v>1.005603975098091</v>
       </c>
       <c r="F2">
-        <v>1.036791413941509</v>
+        <v>0.9637977978754587</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032957945433059</v>
+        <v>1.038389397195388</v>
       </c>
       <c r="J2">
-        <v>1.02864499537528</v>
+        <v>1.021192024599904</v>
       </c>
       <c r="K2">
-        <v>1.0322249298917</v>
+        <v>1.027177516974494</v>
       </c>
       <c r="L2">
-        <v>1.02691070080248</v>
+        <v>1.016985785864154</v>
       </c>
       <c r="M2">
-        <v>1.03958414543502</v>
+        <v>0.9757856391472028</v>
       </c>
       <c r="N2">
-        <v>1.013605090547963</v>
+        <v>1.011032067669831</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024223545733136</v>
+        <v>1.002640708351226</v>
       </c>
       <c r="D3">
-        <v>1.02999149016094</v>
+        <v>1.018667782123799</v>
       </c>
       <c r="E3">
-        <v>1.02472010550108</v>
+        <v>1.008461488101127</v>
       </c>
       <c r="F3">
-        <v>1.038922060843811</v>
+        <v>0.9750319329977759</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033162750708813</v>
+        <v>1.039686825032978</v>
       </c>
       <c r="J3">
-        <v>1.02904309398478</v>
+        <v>1.023059642946579</v>
       </c>
       <c r="K3">
-        <v>1.03261423283312</v>
+        <v>1.029067249570089</v>
       </c>
       <c r="L3">
-        <v>1.027357127712651</v>
+        <v>1.01898723540994</v>
       </c>
       <c r="M3">
-        <v>1.041520969180735</v>
+        <v>0.9859945777107268</v>
       </c>
       <c r="N3">
-        <v>1.013737860397113</v>
+        <v>1.011657931968908</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024714854512626</v>
+        <v>1.004960957794853</v>
       </c>
       <c r="D4">
-        <v>1.030367385749939</v>
+        <v>1.020399345588134</v>
       </c>
       <c r="E4">
-        <v>1.025134314628816</v>
+        <v>1.010278386128447</v>
       </c>
       <c r="F4">
-        <v>1.04029575081282</v>
+        <v>0.9819933587957421</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033293984101119</v>
+        <v>1.040492733068295</v>
       </c>
       <c r="J4">
-        <v>1.029300444973271</v>
+        <v>1.02423860748583</v>
       </c>
       <c r="K4">
-        <v>1.032865678706261</v>
+        <v>1.030257648143178</v>
       </c>
       <c r="L4">
-        <v>1.027646071699587</v>
+        <v>1.020254322903808</v>
       </c>
       <c r="M4">
-        <v>1.042768900318437</v>
+        <v>0.9923140787283071</v>
       </c>
       <c r="N4">
-        <v>1.013823661988932</v>
+        <v>1.012052967041904</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024921503107513</v>
+        <v>1.005925375187327</v>
       </c>
       <c r="D5">
-        <v>1.030525469233882</v>
+        <v>1.021119012655919</v>
       </c>
       <c r="E5">
-        <v>1.025308629793566</v>
+        <v>1.01103484749365</v>
       </c>
       <c r="F5">
-        <v>1.040872086696363</v>
+        <v>0.9848523604499937</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033348846787163</v>
+        <v>1.040823878799122</v>
       </c>
       <c r="J5">
-        <v>1.029408576233781</v>
+        <v>1.024727475647091</v>
       </c>
       <c r="K5">
-        <v>1.032971276493691</v>
+        <v>1.030750677754984</v>
       </c>
       <c r="L5">
-        <v>1.027767561335126</v>
+        <v>1.020780584408504</v>
       </c>
       <c r="M5">
-        <v>1.043292283191982</v>
+        <v>0.9949078210016727</v>
       </c>
       <c r="N5">
-        <v>1.013859706640468</v>
+        <v>1.012216756511405</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024956206293864</v>
+        <v>1.006086672028824</v>
       </c>
       <c r="D6">
-        <v>1.030552015468326</v>
+        <v>1.021239372709044</v>
       </c>
       <c r="E6">
-        <v>1.025337908696501</v>
+        <v>1.011161437798273</v>
       </c>
       <c r="F6">
-        <v>1.040968788644349</v>
+        <v>0.9853285989883586</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033358040445941</v>
+        <v>1.040879041019255</v>
       </c>
       <c r="J6">
-        <v>1.029426728472747</v>
+        <v>1.024809169910528</v>
       </c>
       <c r="K6">
-        <v>1.032989000368796</v>
+        <v>1.030833034029539</v>
       </c>
       <c r="L6">
-        <v>1.027787960993099</v>
+        <v>1.020868577004131</v>
       </c>
       <c r="M6">
-        <v>1.043380089111712</v>
+        <v>0.9953397773783329</v>
       </c>
       <c r="N6">
-        <v>1.013865757147089</v>
+        <v>1.012244126220253</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.0247176153601</v>
+        <v>1.004973887079995</v>
       </c>
       <c r="D7">
-        <v>1.030369497846168</v>
+        <v>1.020408993877674</v>
       </c>
       <c r="E7">
-        <v>1.02513664312424</v>
+        <v>1.010288522525303</v>
       </c>
       <c r="F7">
-        <v>1.040303456376967</v>
+        <v>0.9820318189954713</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033294718387587</v>
+        <v>1.040497187463555</v>
       </c>
       <c r="J7">
-        <v>1.029301890061125</v>
+        <v>1.024245165991653</v>
       </c>
       <c r="K7">
-        <v>1.032867090141724</v>
+        <v>1.030264264738425</v>
       </c>
       <c r="L7">
-        <v>1.027647694981727</v>
+        <v>1.020261379722551</v>
       </c>
       <c r="M7">
-        <v>1.042775898654455</v>
+        <v>0.9923489770661691</v>
       </c>
       <c r="N7">
-        <v>1.01382414372302</v>
+        <v>1.012055164455741</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023721215518605</v>
+        <v>1.000227899870417</v>
       </c>
       <c r="D8">
-        <v>1.029607089323332</v>
+        <v>1.016866837419126</v>
       </c>
       <c r="E8">
-        <v>1.02429693045878</v>
+        <v>1.006576536657848</v>
       </c>
       <c r="F8">
-        <v>1.037512525017196</v>
+        <v>0.9676621117062816</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033027427803917</v>
+        <v>1.038835079102446</v>
       </c>
       <c r="J8">
-        <v>1.0287795852839</v>
+        <v>1.021829493302181</v>
       </c>
       <c r="K8">
-        <v>1.032356591641543</v>
+        <v>1.027823082624741</v>
       </c>
       <c r="L8">
-        <v>1.027061556794217</v>
+        <v>1.017668155436928</v>
       </c>
       <c r="M8">
-        <v>1.040239822698363</v>
+        <v>0.9792987000365185</v>
       </c>
       <c r="N8">
-        <v>1.013649983297792</v>
+        <v>1.011245701218195</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>1.021968773194031</v>
+        <v>0.9914740941581447</v>
       </c>
       <c r="D9">
-        <v>1.028265499187254</v>
+        <v>1.010328124009466</v>
       </c>
       <c r="E9">
-        <v>1.022823143048933</v>
+        <v>0.9997733046969134</v>
       </c>
       <c r="F9">
-        <v>1.0325550815297</v>
+        <v>0.9396552223191613</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03254651457306</v>
+        <v>1.035628268815117</v>
       </c>
       <c r="J9">
-        <v>1.027857351767498</v>
+        <v>1.017331558661543</v>
       </c>
       <c r="K9">
-        <v>1.031453516069558</v>
+        <v>1.023255827939081</v>
       </c>
       <c r="L9">
-        <v>1.026029313213571</v>
+        <v>1.012870060945256</v>
       </c>
       <c r="M9">
-        <v>1.035728938178789</v>
+        <v>0.9538096085114952</v>
       </c>
       <c r="N9">
-        <v>1.013342259056363</v>
+        <v>1.009738223436185</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020802773585121</v>
+        <v>0.9853379385988261</v>
       </c>
       <c r="D10">
-        <v>1.027372397909433</v>
+        <v>1.00573666092569</v>
       </c>
       <c r="E10">
-        <v>1.021844642702007</v>
+        <v>0.9950348956128326</v>
       </c>
       <c r="F10">
-        <v>1.029221728645622</v>
+        <v>0.9186055044362084</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032219184766467</v>
+        <v>1.033268511066561</v>
       </c>
       <c r="J10">
-        <v>1.027241291507634</v>
+        <v>1.014145605195213</v>
       </c>
       <c r="K10">
-        <v>1.030849107775085</v>
+        <v>1.020003104959561</v>
       </c>
       <c r="L10">
-        <v>1.02534159096946</v>
+        <v>1.009494378978956</v>
       </c>
       <c r="M10">
-        <v>1.032691721289522</v>
+        <v>0.9346182255453516</v>
       </c>
       <c r="N10">
-        <v>1.01313655849837</v>
+        <v>1.008670493404</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020298436759206</v>
+        <v>0.982599426424267</v>
       </c>
       <c r="D11">
-        <v>1.026985987975731</v>
+        <v>1.003684084331419</v>
       </c>
       <c r="E11">
-        <v>1.021421908347578</v>
+        <v>0.992927561151169</v>
       </c>
       <c r="F11">
-        <v>1.027771199001914</v>
+        <v>0.9087517400937255</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032075840068023</v>
+        <v>1.032183699381223</v>
       </c>
       <c r="J11">
-        <v>1.026974239753384</v>
+        <v>1.012714444016664</v>
       </c>
       <c r="K11">
-        <v>1.030586832825034</v>
+        <v>1.018536857046515</v>
       </c>
       <c r="L11">
-        <v>1.025043910212445</v>
+        <v>1.007984097260532</v>
       </c>
       <c r="M11">
-        <v>1.031369078579223</v>
+        <v>0.9256272559150642</v>
       </c>
       <c r="N11">
-        <v>1.013047358603807</v>
+        <v>1.008190926460936</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020111186731208</v>
+        <v>0.9815689041362935</v>
       </c>
       <c r="D12">
-        <v>1.026842504944248</v>
+        <v>1.002910976350409</v>
       </c>
       <c r="E12">
-        <v>1.02126503159476</v>
+        <v>0.9921356667207686</v>
       </c>
       <c r="F12">
-        <v>1.027231294917613</v>
+        <v>0.904960651759661</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032022352565179</v>
+        <v>1.03177012674925</v>
       </c>
       <c r="J12">
-        <v>1.026875000881505</v>
+        <v>1.012174315832058</v>
       </c>
       <c r="K12">
-        <v>1.030489327659391</v>
+        <v>1.017982618341658</v>
       </c>
       <c r="L12">
-        <v>1.02493335491835</v>
+        <v>1.007415101992682</v>
       </c>
       <c r="M12">
-        <v>1.030876628541469</v>
+        <v>0.9221671568352677</v>
       </c>
       <c r="N12">
-        <v>1.013014206322033</v>
+        <v>1.008009951285497</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020151348725443</v>
+        <v>0.9817905767617395</v>
       </c>
       <c r="D13">
-        <v>1.026873280416193</v>
+        <v>1.003077313083122</v>
       </c>
       <c r="E13">
-        <v>1.021298675586404</v>
+        <v>0.9923059586928952</v>
       </c>
       <c r="F13">
-        <v>1.027347157120056</v>
+        <v>0.905780159378651</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032033836827507</v>
+        <v>1.031859342122284</v>
       </c>
       <c r="J13">
-        <v>1.026896289943493</v>
+        <v>1.012290575612497</v>
       </c>
       <c r="K13">
-        <v>1.030510246677512</v>
+        <v>1.018101956526016</v>
       </c>
       <c r="L13">
-        <v>1.024957068646476</v>
+        <v>1.007537528979127</v>
       </c>
       <c r="M13">
-        <v>1.030982313859854</v>
+        <v>0.9229151565453887</v>
       </c>
       <c r="N13">
-        <v>1.013021318478653</v>
+        <v>1.008048904420238</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020282956913853</v>
+        <v>0.9825145217251868</v>
       </c>
       <c r="D14">
-        <v>1.026974126666059</v>
+        <v>1.003620403702277</v>
       </c>
       <c r="E14">
-        <v>1.021408937890378</v>
+        <v>0.9928622944439639</v>
       </c>
       <c r="F14">
-        <v>1.027726593274055</v>
+        <v>0.9084411739041097</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032071423736516</v>
+        <v>1.032149737837694</v>
       </c>
       <c r="J14">
-        <v>1.026966037533256</v>
+        <v>1.012669976003102</v>
       </c>
       <c r="K14">
-        <v>1.030578774743597</v>
+        <v>1.018491245659301</v>
       </c>
       <c r="L14">
-        <v>1.025034771336375</v>
+        <v>1.007937231990446</v>
       </c>
       <c r="M14">
-        <v>1.031328396399597</v>
+        <v>0.9253438229535711</v>
       </c>
       <c r="N14">
-        <v>1.013044618622521</v>
+        <v>1.008176026659489</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020364056097423</v>
+        <v>0.9829587679590512</v>
       </c>
       <c r="D15">
-        <v>1.027036267585675</v>
+        <v>1.003953569240273</v>
       </c>
       <c r="E15">
-        <v>1.021476893458024</v>
+        <v>0.9932038342065833</v>
       </c>
       <c r="F15">
-        <v>1.027960227862675</v>
+        <v>0.9100626709375704</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032094550048536</v>
+        <v>1.032327212681289</v>
       </c>
       <c r="J15">
-        <v>1.027009005504271</v>
+        <v>1.012902580458569</v>
       </c>
       <c r="K15">
-        <v>1.030620985936498</v>
+        <v>1.018729794874679</v>
       </c>
       <c r="L15">
-        <v>1.025082648739738</v>
+        <v>1.008182417000387</v>
       </c>
       <c r="M15">
-        <v>1.031541474327802</v>
+        <v>0.9268236167729189</v>
       </c>
       <c r="N15">
-        <v>1.013058972032887</v>
+        <v>1.00825396562363</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.020836256379014</v>
+        <v>0.9855178803593782</v>
       </c>
       <c r="D16">
-        <v>1.027398049207605</v>
+        <v>1.005871444884854</v>
       </c>
       <c r="E16">
-        <v>1.021872718555943</v>
+        <v>0.9951735180035747</v>
       </c>
       <c r="F16">
-        <v>1.029317841468261</v>
+        <v>0.9192423117176735</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032228664085687</v>
+        <v>1.033339086256701</v>
       </c>
       <c r="J16">
-        <v>1.02725900868057</v>
+        <v>1.01423943664347</v>
       </c>
       <c r="K16">
-        <v>1.030866502246523</v>
+        <v>1.020099123013016</v>
       </c>
       <c r="L16">
-        <v>1.025361349364167</v>
+        <v>1.009593530539966</v>
       </c>
       <c r="M16">
-        <v>1.032779339687592</v>
+        <v>0.9351991374336798</v>
       </c>
       <c r="N16">
-        <v>1.013142475666472</v>
+        <v>1.008701937207323</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021132602535216</v>
+        <v>0.987100624563644</v>
       </c>
       <c r="D17">
-        <v>1.027625068249576</v>
+        <v>1.007056579141386</v>
       </c>
       <c r="E17">
-        <v>1.022121267627404</v>
+        <v>0.9963936624259694</v>
       </c>
       <c r="F17">
-        <v>1.030167492744716</v>
+        <v>0.9247900809149184</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032312358733342</v>
+        <v>1.033956202978498</v>
       </c>
       <c r="J17">
-        <v>1.027415750576016</v>
+        <v>1.015063693734916</v>
       </c>
       <c r="K17">
-        <v>1.031020357561542</v>
+        <v>1.020942001983245</v>
       </c>
       <c r="L17">
-        <v>1.025536200004149</v>
+        <v>1.010465220659089</v>
       </c>
       <c r="M17">
-        <v>1.033553786276729</v>
+        <v>0.9402591756175251</v>
       </c>
       <c r="N17">
-        <v>1.013194820499157</v>
+        <v>1.008978161813092</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.021305509131796</v>
+        <v>0.9880160288386221</v>
       </c>
       <c r="D18">
-        <v>1.027757514385733</v>
+        <v>1.007741708257516</v>
       </c>
       <c r="E18">
-        <v>1.022266334924548</v>
+        <v>0.997100050638657</v>
       </c>
       <c r="F18">
-        <v>1.030662391033619</v>
+        <v>0.9279562704451588</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032361021269465</v>
+        <v>1.034310167083014</v>
       </c>
       <c r="J18">
-        <v>1.027507147135765</v>
+        <v>1.01553954826191</v>
       </c>
       <c r="K18">
-        <v>1.031110044532197</v>
+        <v>1.021428134510076</v>
       </c>
       <c r="L18">
-        <v>1.025638197769829</v>
+        <v>1.010969029443483</v>
       </c>
       <c r="M18">
-        <v>1.034004785783265</v>
+        <v>0.9431463464008819</v>
       </c>
       <c r="N18">
-        <v>1.013225339786986</v>
+        <v>1.009137635900636</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021364474763595</v>
+        <v>0.9883268671377208</v>
       </c>
       <c r="D19">
-        <v>1.027802680131156</v>
+        <v>1.007974305328814</v>
       </c>
       <c r="E19">
-        <v>1.022315814839384</v>
+        <v>0.9973400329582425</v>
       </c>
       <c r="F19">
-        <v>1.030831022793813</v>
+        <v>0.9290245548348353</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032377587658852</v>
+        <v>1.034429874459763</v>
       </c>
       <c r="J19">
-        <v>1.027538306189331</v>
+        <v>1.015700988615386</v>
       </c>
       <c r="K19">
-        <v>1.031140616275563</v>
+        <v>1.021592984283778</v>
       </c>
       <c r="L19">
-        <v>1.02567297811291</v>
+        <v>1.011140048494208</v>
       </c>
       <c r="M19">
-        <v>1.034158443493007</v>
+        <v>0.944120373369259</v>
       </c>
       <c r="N19">
-        <v>1.013235743940819</v>
+        <v>1.009191740584394</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021100801920958</v>
+        <v>0.9869316232862625</v>
       </c>
       <c r="D20">
-        <v>1.02760070817259</v>
+        <v>1.006930067088572</v>
       </c>
       <c r="E20">
-        <v>1.02209459105565</v>
+        <v>0.9962633060091006</v>
       </c>
       <c r="F20">
-        <v>1.030076404722919</v>
+        <v>0.9242021977341159</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032303395144851</v>
+        <v>1.033890619199282</v>
       </c>
       <c r="J20">
-        <v>1.027398936583913</v>
+        <v>1.014975772788222</v>
       </c>
       <c r="K20">
-        <v>1.031003855952576</v>
+        <v>1.020852144427786</v>
       </c>
       <c r="L20">
-        <v>1.025517439112019</v>
+        <v>1.010372180452107</v>
       </c>
       <c r="M20">
-        <v>1.033470770418039</v>
+        <v>0.9397230446103912</v>
       </c>
       <c r="N20">
-        <v>1.013189205693265</v>
+        <v>1.008948697133011</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020244199282537</v>
+        <v>0.9823017152302665</v>
       </c>
       <c r="D21">
-        <v>1.02694442866318</v>
+        <v>1.003460781387427</v>
       </c>
       <c r="E21">
-        <v>1.021376464362918</v>
+        <v>0.9926987268068018</v>
       </c>
       <c r="F21">
-        <v>1.027614889796046</v>
+        <v>0.9076613740409453</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032060362043693</v>
+        <v>1.032064527619001</v>
       </c>
       <c r="J21">
-        <v>1.026945499818894</v>
+        <v>1.012558494662024</v>
       </c>
       <c r="K21">
-        <v>1.030558597271763</v>
+        <v>1.018376883500288</v>
       </c>
       <c r="L21">
-        <v>1.025011889369392</v>
+        <v>1.007819757003844</v>
       </c>
       <c r="M21">
-        <v>1.031226516057921</v>
+        <v>0.9246321369412636</v>
       </c>
       <c r="N21">
-        <v>1.013037757847645</v>
+        <v>1.008138673126917</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.019706100464496</v>
+        <v>0.9793129626749956</v>
       </c>
       <c r="D22">
-        <v>1.026532070779291</v>
+        <v>1.001216971100028</v>
       </c>
       <c r="E22">
-        <v>1.020925792516652</v>
+        <v>0.9904041482578195</v>
       </c>
       <c r="F22">
-        <v>1.026060781035137</v>
+        <v>0.8964894790729099</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03190615152541</v>
+        <v>1.030854104185654</v>
       </c>
       <c r="J22">
-        <v>1.026660151847969</v>
+        <v>1.010988769943423</v>
       </c>
       <c r="K22">
-        <v>1.030278156088064</v>
+        <v>1.016764358044239</v>
       </c>
       <c r="L22">
-        <v>1.02469412638781</v>
+        <v>1.006168128133684</v>
       </c>
       <c r="M22">
-        <v>1.029808726253844</v>
+        <v>0.9144339517556727</v>
       </c>
       <c r="N22">
-        <v>1.01294242397242</v>
+        <v>1.007612759689421</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.01999131098646</v>
+        <v>0.9809051423083008</v>
       </c>
       <c r="D23">
-        <v>1.026750643664262</v>
+        <v>1.002412786346888</v>
       </c>
       <c r="E23">
-        <v>1.021164621974677</v>
+        <v>0.9916259180961519</v>
       </c>
       <c r="F23">
-        <v>1.026885267751607</v>
+        <v>0.9024932930940813</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031988035118495</v>
+        <v>1.03150214649116</v>
       </c>
       <c r="J23">
-        <v>1.026811444264448</v>
+        <v>1.011825948177351</v>
       </c>
       <c r="K23">
-        <v>1.030426869697029</v>
+        <v>1.017624889381514</v>
       </c>
       <c r="L23">
-        <v>1.024862569295241</v>
+        <v>1.007048407176971</v>
       </c>
       <c r="M23">
-        <v>1.030560973534706</v>
+        <v>0.919914962844371</v>
       </c>
       <c r="N23">
-        <v>1.012992972908403</v>
+        <v>1.007893232681803</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02111517108672</v>
+        <v>0.9870080116653449</v>
       </c>
       <c r="D24">
-        <v>1.027611715351182</v>
+        <v>1.006987251340191</v>
       </c>
       <c r="E24">
-        <v>1.022106644763718</v>
+        <v>0.996322224788989</v>
       </c>
       <c r="F24">
-        <v>1.030117565606555</v>
+        <v>0.9244680508784479</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0323074458841</v>
+        <v>1.033920272111789</v>
       </c>
       <c r="J24">
-        <v>1.027406534191002</v>
+        <v>1.015015515629806</v>
       </c>
       <c r="K24">
-        <v>1.031011312487173</v>
+        <v>1.0208927641328</v>
       </c>
       <c r="L24">
-        <v>1.02552591631994</v>
+        <v>1.010414235583876</v>
       </c>
       <c r="M24">
-        <v>1.033508283941189</v>
+        <v>0.9399654964108272</v>
       </c>
       <c r="N24">
-        <v>1.013191742821282</v>
+        <v>1.008962016012827</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02242142047527</v>
+        <v>0.9937870324522424</v>
       </c>
       <c r="D25">
-        <v>1.028612107046173</v>
+        <v>1.012056774935014</v>
       </c>
       <c r="E25">
-        <v>1.023203447528346</v>
+        <v>1.001565683569192</v>
       </c>
       <c r="F25">
-        <v>1.033841565710865</v>
+        <v>0.9472657890345914</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032672022587533</v>
+        <v>1.036493454657553</v>
       </c>
       <c r="J25">
-        <v>1.028095990569142</v>
+        <v>1.018525312207457</v>
       </c>
       <c r="K25">
-        <v>1.031687398510026</v>
+        <v>1.024470764372146</v>
       </c>
       <c r="L25">
-        <v>1.026296097633164</v>
+        <v>1.014139742841709</v>
       </c>
       <c r="M25">
-        <v>1.036900262543334</v>
+        <v>0.9607418930415539</v>
       </c>
       <c r="N25">
-        <v>1.013421910829964</v>
+        <v>1.010138319219393</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_2/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,49 +412,73 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9989807862296118</v>
+        <v>1.017111717944559</v>
       </c>
       <c r="D2">
-        <v>1.015935817357152</v>
+        <v>1.037781087158173</v>
       </c>
       <c r="E2">
-        <v>1.005603975098091</v>
+        <v>1.031895288982335</v>
       </c>
       <c r="F2">
-        <v>0.9637977978754587</v>
+        <v>1.044605739501558</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038389397195388</v>
+        <v>1.057328612170341</v>
       </c>
       <c r="J2">
-        <v>1.021192024599904</v>
+        <v>1.038792394547459</v>
       </c>
       <c r="K2">
-        <v>1.027177516974494</v>
+        <v>1.048738016421513</v>
       </c>
       <c r="L2">
-        <v>1.016985785864154</v>
+        <v>1.042927460035857</v>
       </c>
       <c r="M2">
-        <v>0.9757856391472028</v>
+        <v>1.055476748334927</v>
       </c>
       <c r="N2">
-        <v>1.011032067669831</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.016373250612844</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.05247841791836</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.045532255418252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002640708351226</v>
+        <v>1.021486595377186</v>
       </c>
       <c r="D3">
-        <v>1.018667782123799</v>
+        <v>1.040721773315419</v>
       </c>
       <c r="E3">
-        <v>1.008461488101127</v>
+        <v>1.035273087148653</v>
       </c>
       <c r="F3">
-        <v>0.9750319329977759</v>
+        <v>1.047653014138295</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039686825032978</v>
+        <v>1.058390888940118</v>
       </c>
       <c r="J3">
-        <v>1.023059642946579</v>
+        <v>1.041408172400791</v>
       </c>
       <c r="K3">
-        <v>1.029067249570089</v>
+        <v>1.050858832664681</v>
       </c>
       <c r="L3">
-        <v>1.01898723540994</v>
+        <v>1.045473690234412</v>
       </c>
       <c r="M3">
-        <v>0.9859945777107268</v>
+        <v>1.057710418456749</v>
       </c>
       <c r="N3">
-        <v>1.011657931968908</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.017284879189196</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.054246187236798</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.047029191166861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004960957794853</v>
+        <v>1.02426411081858</v>
       </c>
       <c r="D4">
-        <v>1.020399345588134</v>
+        <v>1.042591251371926</v>
       </c>
       <c r="E4">
-        <v>1.010278386128447</v>
+        <v>1.037423398613218</v>
       </c>
       <c r="F4">
-        <v>0.9819933587957421</v>
+        <v>1.049593333486105</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040492733068295</v>
+        <v>1.059052788860418</v>
       </c>
       <c r="J4">
-        <v>1.02423860748583</v>
+        <v>1.043066864222301</v>
       </c>
       <c r="K4">
-        <v>1.030257648143178</v>
+        <v>1.052201439367171</v>
       </c>
       <c r="L4">
-        <v>1.020254322903808</v>
+        <v>1.047090199933189</v>
       </c>
       <c r="M4">
-        <v>0.9923140787283071</v>
+        <v>1.059127904180079</v>
       </c>
       <c r="N4">
-        <v>1.012052967041904</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.017862751506251</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.055368010447684</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.047979397987989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005925375187327</v>
+        <v>1.025423718057961</v>
       </c>
       <c r="D5">
-        <v>1.021119012655919</v>
+        <v>1.043374022685532</v>
       </c>
       <c r="E5">
-        <v>1.01103484749365</v>
+        <v>1.038323158657107</v>
       </c>
       <c r="F5">
-        <v>0.9848523604499937</v>
+        <v>1.050405176794923</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040823878799122</v>
+        <v>1.059327454203448</v>
       </c>
       <c r="J5">
-        <v>1.024727475647091</v>
+        <v>1.04376047293841</v>
       </c>
       <c r="K5">
-        <v>1.030750677754984</v>
+        <v>1.052763494706189</v>
       </c>
       <c r="L5">
-        <v>1.020780584408504</v>
+        <v>1.047766481342429</v>
       </c>
       <c r="M5">
-        <v>0.9949078210016727</v>
+        <v>1.059720738343282</v>
       </c>
       <c r="N5">
-        <v>1.012216756511405</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.018105275898713</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.055837189373018</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.048383901206981</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006086672028824</v>
+        <v>1.025622916137101</v>
       </c>
       <c r="D6">
-        <v>1.021239372709044</v>
+        <v>1.043510604206126</v>
       </c>
       <c r="E6">
-        <v>1.011161437798273</v>
+        <v>1.038478593356479</v>
       </c>
       <c r="F6">
-        <v>0.9853285989883586</v>
+        <v>1.050545260766776</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040879041019255</v>
+        <v>1.059376135334608</v>
       </c>
       <c r="J6">
-        <v>1.024809169910528</v>
+        <v>1.043881563585599</v>
       </c>
       <c r="K6">
-        <v>1.030833034029539</v>
+        <v>1.052863005686688</v>
       </c>
       <c r="L6">
-        <v>1.020868577004131</v>
+        <v>1.047884397322293</v>
       </c>
       <c r="M6">
-        <v>0.9953397773783329</v>
+        <v>1.059824053642099</v>
       </c>
       <c r="N6">
-        <v>1.012244126220253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01814874482431</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.055918954808182</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.048462908783506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004973887079995</v>
+        <v>1.024293685679149</v>
       </c>
       <c r="D7">
-        <v>1.020408993877674</v>
+        <v>1.042616781111847</v>
       </c>
       <c r="E7">
-        <v>1.010288522525303</v>
+        <v>1.037448492840731</v>
       </c>
       <c r="F7">
-        <v>0.9820318189954713</v>
+        <v>1.049615492664537</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040497187463555</v>
+        <v>1.059064301200123</v>
       </c>
       <c r="J7">
-        <v>1.024245165991653</v>
+        <v>1.043089858753283</v>
       </c>
       <c r="K7">
-        <v>1.030264264738425</v>
+        <v>1.052223852967472</v>
       </c>
       <c r="L7">
-        <v>1.020261379722551</v>
+        <v>1.047112160580776</v>
       </c>
       <c r="M7">
-        <v>0.9923489770661691</v>
+        <v>1.059147012936904</v>
       </c>
       <c r="N7">
-        <v>1.012055164455741</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.017873881103869</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.055383133443663</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.048015137272903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,81 +751,105 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000227899870417</v>
+        <v>1.018619193399622</v>
       </c>
       <c r="D8">
-        <v>1.016866837419126</v>
+        <v>1.038800653134183</v>
       </c>
       <c r="E8">
-        <v>1.006576536657848</v>
+        <v>1.033060759449021</v>
       </c>
       <c r="F8">
-        <v>0.9676621117062816</v>
+        <v>1.045656333433113</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038835079102446</v>
+        <v>1.057702664599276</v>
       </c>
       <c r="J8">
-        <v>1.021829493302181</v>
+        <v>1.039700741646099</v>
       </c>
       <c r="K8">
-        <v>1.027823082624741</v>
+        <v>1.04947949398663</v>
       </c>
       <c r="L8">
-        <v>1.017668155436928</v>
+        <v>1.043810776264318</v>
       </c>
       <c r="M8">
-        <v>0.9792987000365185</v>
+        <v>1.056251434494169</v>
       </c>
       <c r="N8">
-        <v>1.011245701218195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.016693933402891</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.053091519852133</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.046079216806997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9914740941581447</v>
+        <v>1.008168624985785</v>
       </c>
       <c r="D9">
-        <v>1.010328124009466</v>
+        <v>1.031786222057003</v>
       </c>
       <c r="E9">
-        <v>0.9997733046969134</v>
+        <v>1.025024800256791</v>
       </c>
       <c r="F9">
-        <v>0.9396552223191613</v>
+        <v>1.038410244723633</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035628268815117</v>
+        <v>1.055090774825967</v>
       </c>
       <c r="J9">
-        <v>1.017331558661543</v>
+        <v>1.033436189353969</v>
       </c>
       <c r="K9">
-        <v>1.023255827939081</v>
+        <v>1.044383812994427</v>
       </c>
       <c r="L9">
-        <v>1.012870060945256</v>
+        <v>1.03772450793489</v>
       </c>
       <c r="M9">
-        <v>0.9538096085114952</v>
+        <v>1.050909432114389</v>
       </c>
       <c r="N9">
-        <v>1.009738223436185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.014506206876917</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.048863743426226</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.042473137866061</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9853379385988261</v>
+        <v>1.000960506340653</v>
       </c>
       <c r="D10">
-        <v>1.00573666092569</v>
+        <v>1.026984496633603</v>
       </c>
       <c r="E10">
-        <v>0.9950348956128326</v>
+        <v>1.019545353479639</v>
       </c>
       <c r="F10">
-        <v>0.9186055044362084</v>
+        <v>1.033505400670376</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033268511066561</v>
+        <v>1.053246830384826</v>
       </c>
       <c r="J10">
-        <v>1.014145605195213</v>
+        <v>1.029136067429168</v>
       </c>
       <c r="K10">
-        <v>1.020003104959561</v>
+        <v>1.040883050676209</v>
       </c>
       <c r="L10">
-        <v>1.009494378978956</v>
+        <v>1.033570455610688</v>
       </c>
       <c r="M10">
-        <v>0.9346182255453516</v>
+        <v>1.047294955978722</v>
       </c>
       <c r="N10">
-        <v>1.008670493404</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013019354214096</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.046054124920407</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.040014602399366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.982599426424267</v>
+        <v>0.9983538670015091</v>
       </c>
       <c r="D11">
-        <v>1.003684084331419</v>
+        <v>1.025383756092336</v>
       </c>
       <c r="E11">
-        <v>0.992927561151169</v>
+        <v>1.017788210847332</v>
       </c>
       <c r="F11">
-        <v>0.9087517400937255</v>
+        <v>1.032194462540974</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032183699381223</v>
+        <v>1.05271488064955</v>
       </c>
       <c r="J11">
-        <v>1.012714444016664</v>
+        <v>1.027795287739577</v>
       </c>
       <c r="K11">
-        <v>1.018536857046515</v>
+        <v>1.039842339441681</v>
       </c>
       <c r="L11">
-        <v>1.007984097260532</v>
+        <v>1.032382287366803</v>
       </c>
       <c r="M11">
-        <v>0.9256272559150642</v>
+        <v>1.046533747772529</v>
       </c>
       <c r="N11">
-        <v>1.008190926460936</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012679611212179</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.045884231519434</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.039311429226791</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9815689041362935</v>
+        <v>0.9975757718128463</v>
       </c>
       <c r="D12">
-        <v>1.002910976350409</v>
+        <v>1.024956184733805</v>
       </c>
       <c r="E12">
-        <v>0.9921356667207686</v>
+        <v>1.017356557933812</v>
       </c>
       <c r="F12">
-        <v>0.904960651759661</v>
+        <v>1.032001551851976</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03177012674925</v>
+        <v>1.052612821504884</v>
       </c>
       <c r="J12">
-        <v>1.012174315832058</v>
+        <v>1.027483084872796</v>
       </c>
       <c r="K12">
-        <v>1.017982618341658</v>
+        <v>1.039620388794143</v>
       </c>
       <c r="L12">
-        <v>1.007415101992682</v>
+        <v>1.032158620695041</v>
       </c>
       <c r="M12">
-        <v>0.9221671568352677</v>
+        <v>1.046540303317127</v>
       </c>
       <c r="N12">
-        <v>1.008009951285497</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012667291966335</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.046213308195331</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.039154504628045</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9817905767617395</v>
+        <v>0.9981768898688722</v>
       </c>
       <c r="D13">
-        <v>1.003077313083122</v>
+        <v>1.025426639470707</v>
       </c>
       <c r="E13">
-        <v>0.9923059586928952</v>
+        <v>1.017938021883728</v>
       </c>
       <c r="F13">
-        <v>0.905780159378651</v>
+        <v>1.032682943582757</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031859342122284</v>
+        <v>1.052852906163692</v>
       </c>
       <c r="J13">
-        <v>1.012290575612497</v>
+        <v>1.027965703812702</v>
       </c>
       <c r="K13">
-        <v>1.018101956526016</v>
+        <v>1.040039941473535</v>
       </c>
       <c r="L13">
-        <v>1.007537528979127</v>
+        <v>1.032686533832525</v>
       </c>
       <c r="M13">
-        <v>0.9229151565453887</v>
+        <v>1.047167654420811</v>
       </c>
       <c r="N13">
-        <v>1.008048904420238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012918437833525</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.046984113368595</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.039448660770819</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9825145217251868</v>
+        <v>0.9992219122167504</v>
       </c>
       <c r="D14">
-        <v>1.003620403702277</v>
+        <v>1.026163022905473</v>
       </c>
       <c r="E14">
-        <v>0.9928622944439639</v>
+        <v>1.018802897273855</v>
       </c>
       <c r="F14">
-        <v>0.9084411739041097</v>
+        <v>1.033555453221368</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032149737837694</v>
+        <v>1.053175694935436</v>
       </c>
       <c r="J14">
-        <v>1.012669976003102</v>
+        <v>1.028662796791255</v>
       </c>
       <c r="K14">
-        <v>1.018491245659301</v>
+        <v>1.040624197325027</v>
       </c>
       <c r="L14">
-        <v>1.007937231990446</v>
+        <v>1.033395237154543</v>
       </c>
       <c r="M14">
-        <v>0.9253438229535711</v>
+        <v>1.04788731972101</v>
       </c>
       <c r="N14">
-        <v>1.008176026659489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013213180227212</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.047725262419238</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.039863160379238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9829587679590512</v>
+        <v>0.9997845422074352</v>
       </c>
       <c r="D15">
-        <v>1.003953569240273</v>
+        <v>1.026547352946474</v>
       </c>
       <c r="E15">
-        <v>0.9932038342065833</v>
+        <v>1.019244620456248</v>
       </c>
       <c r="F15">
-        <v>0.9100626709375704</v>
+        <v>1.033972763500015</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032327212681289</v>
+        <v>1.053334230035259</v>
       </c>
       <c r="J15">
-        <v>1.012902580458569</v>
+        <v>1.029015144061762</v>
       </c>
       <c r="K15">
-        <v>1.018729794874679</v>
+        <v>1.040916162014733</v>
       </c>
       <c r="L15">
-        <v>1.008182417000387</v>
+        <v>1.033742549217889</v>
       </c>
       <c r="M15">
-        <v>0.9268236167729189</v>
+        <v>1.048212701534698</v>
       </c>
       <c r="N15">
-        <v>1.00825396562363</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.013347003615977</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.048019770762663</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.04007542081475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9855178803593782</v>
+        <v>1.002732640595249</v>
       </c>
       <c r="D16">
-        <v>1.005871444884854</v>
+        <v>1.02850415237778</v>
       </c>
       <c r="E16">
-        <v>0.9951735180035747</v>
+        <v>1.021464367297918</v>
       </c>
       <c r="F16">
-        <v>0.9192423117176735</v>
+        <v>1.035951287352334</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033339086256701</v>
+        <v>1.054094152555435</v>
       </c>
       <c r="J16">
-        <v>1.01423943664347</v>
+        <v>1.030761817893809</v>
       </c>
       <c r="K16">
-        <v>1.020099123013016</v>
+        <v>1.04234192116764</v>
       </c>
       <c r="L16">
-        <v>1.009593530539966</v>
+        <v>1.035421024376173</v>
       </c>
       <c r="M16">
-        <v>0.9351991374336798</v>
+        <v>1.049665550534562</v>
       </c>
       <c r="N16">
-        <v>1.008701937207323</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013934794478364</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.049129622079311</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.041086612782824</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.987100624563644</v>
+        <v>1.004447702750219</v>
       </c>
       <c r="D17">
-        <v>1.007056579141386</v>
+        <v>1.029620148839603</v>
       </c>
       <c r="E17">
-        <v>0.9963936624259694</v>
+        <v>1.022715345472776</v>
       </c>
       <c r="F17">
-        <v>0.9247900809149184</v>
+        <v>1.037008374418556</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033956202978498</v>
+        <v>1.05450442663387</v>
       </c>
       <c r="J17">
-        <v>1.015063693734916</v>
+        <v>1.031736028775357</v>
       </c>
       <c r="K17">
-        <v>1.020942001983245</v>
+        <v>1.043128024251418</v>
       </c>
       <c r="L17">
-        <v>1.010465220659089</v>
+        <v>1.036336479391411</v>
       </c>
       <c r="M17">
-        <v>0.9402591756175251</v>
+        <v>1.050397203083835</v>
       </c>
       <c r="N17">
-        <v>1.008978161813092</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014231317642008</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.049579753960041</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.041644976158984</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9880160288386221</v>
+        <v>1.005244229662658</v>
       </c>
       <c r="D18">
-        <v>1.007741708257516</v>
+        <v>1.030091670256499</v>
       </c>
       <c r="E18">
-        <v>0.997100050638657</v>
+        <v>1.023219161874214</v>
       </c>
       <c r="F18">
-        <v>0.9279562704451588</v>
+        <v>1.037328400244133</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034310167083014</v>
+        <v>1.054639867877357</v>
       </c>
       <c r="J18">
-        <v>1.01553954826191</v>
+        <v>1.032110569879295</v>
       </c>
       <c r="K18">
-        <v>1.021428134510076</v>
+        <v>1.043410439746744</v>
       </c>
       <c r="L18">
-        <v>1.010969029443483</v>
+        <v>1.036648787258081</v>
       </c>
       <c r="M18">
-        <v>0.9431463464008819</v>
+        <v>1.050532470406524</v>
       </c>
       <c r="N18">
-        <v>1.009137635900636</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014290584675268</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.049450788620521</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.041833097644409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9883268671377208</v>
+        <v>1.005217432949883</v>
       </c>
       <c r="D19">
-        <v>1.007974305328814</v>
+        <v>1.029989854456311</v>
       </c>
       <c r="E19">
-        <v>0.9973400329582425</v>
+        <v>1.023051398230042</v>
       </c>
       <c r="F19">
-        <v>0.9290245548348353</v>
+        <v>1.036984243670964</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034429874459763</v>
+        <v>1.0545340252772</v>
       </c>
       <c r="J19">
-        <v>1.015700988615386</v>
+        <v>1.031951287002244</v>
       </c>
       <c r="K19">
-        <v>1.021592984283778</v>
+        <v>1.043248373202827</v>
       </c>
       <c r="L19">
-        <v>1.011140048494208</v>
+        <v>1.036421277877581</v>
       </c>
       <c r="M19">
-        <v>0.944120373369259</v>
+        <v>1.050132432775988</v>
       </c>
       <c r="N19">
-        <v>1.009191740584394</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014147027444535</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.048811767662424</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.041724861660984</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9869316232862625</v>
+        <v>1.002869111670158</v>
       </c>
       <c r="D20">
-        <v>1.006930067088572</v>
+        <v>1.028268590927262</v>
       </c>
       <c r="E20">
-        <v>0.9962633060091006</v>
+        <v>1.021001174753173</v>
       </c>
       <c r="F20">
-        <v>0.9242021977341159</v>
+        <v>1.034808063351516</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033890619199282</v>
+        <v>1.053750620423794</v>
       </c>
       <c r="J20">
-        <v>1.014975772788222</v>
+        <v>1.0302898801393</v>
       </c>
       <c r="K20">
-        <v>1.020852144427786</v>
+        <v>1.041831939511777</v>
       </c>
       <c r="L20">
-        <v>1.010372180452107</v>
+        <v>1.034684529191184</v>
       </c>
       <c r="M20">
-        <v>0.9397230446103912</v>
+        <v>1.048265275270061</v>
       </c>
       <c r="N20">
-        <v>1.008948697133011</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.013428344488721</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.046811569845112</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.040727300961802</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9823017152302665</v>
+        <v>0.997329711765008</v>
       </c>
       <c r="D21">
-        <v>1.003460781387427</v>
+        <v>1.024558017003619</v>
       </c>
       <c r="E21">
-        <v>0.9926987268068018</v>
+        <v>1.016761010176307</v>
       </c>
       <c r="F21">
-        <v>0.9076613740409453</v>
+        <v>1.030962907686264</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032064527619001</v>
+        <v>1.052282096551238</v>
       </c>
       <c r="J21">
-        <v>1.012558494662024</v>
+        <v>1.026939502440725</v>
       </c>
       <c r="K21">
-        <v>1.018376883500288</v>
+        <v>1.039088602868193</v>
       </c>
       <c r="L21">
-        <v>1.007819757003844</v>
+        <v>1.031431648828575</v>
       </c>
       <c r="M21">
-        <v>0.9246321369412636</v>
+        <v>1.045380499496881</v>
       </c>
       <c r="N21">
-        <v>1.008138673126917</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.01224610458909</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.04448800102058</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.038790901742294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9793129626749956</v>
+        <v>0.9937912679213841</v>
       </c>
       <c r="D22">
-        <v>1.001216971100028</v>
+        <v>1.022195892558434</v>
       </c>
       <c r="E22">
-        <v>0.9904041482578195</v>
+        <v>1.01407196672243</v>
       </c>
       <c r="F22">
-        <v>0.8964894790729099</v>
+        <v>1.028543010669896</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030854104185654</v>
+        <v>1.051337159411927</v>
       </c>
       <c r="J22">
-        <v>1.010988769943423</v>
+        <v>1.02480640808988</v>
       </c>
       <c r="K22">
-        <v>1.016764358044239</v>
+        <v>1.037340105798516</v>
       </c>
       <c r="L22">
-        <v>1.006168128133684</v>
+        <v>1.029369716296069</v>
       </c>
       <c r="M22">
-        <v>0.9144339517556727</v>
+        <v>1.043569466843368</v>
       </c>
       <c r="N22">
-        <v>1.007612759689421</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011496423077733</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.043054696567416</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.037541220079859</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9809051423083008</v>
+        <v>0.9956609459927308</v>
       </c>
       <c r="D23">
-        <v>1.002412786346888</v>
+        <v>1.023438770213256</v>
       </c>
       <c r="E23">
-        <v>0.9916259180961519</v>
+        <v>1.015489594253736</v>
       </c>
       <c r="F23">
-        <v>0.9024932930940813</v>
+        <v>1.029819514679432</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03150214649116</v>
+        <v>1.051834054111274</v>
       </c>
       <c r="J23">
-        <v>1.011825948177351</v>
+        <v>1.02592873708034</v>
       </c>
       <c r="K23">
-        <v>1.017624889381514</v>
+        <v>1.038257371798506</v>
       </c>
       <c r="L23">
-        <v>1.007048407176971</v>
+        <v>1.030454465823935</v>
       </c>
       <c r="M23">
-        <v>0.919914962844371</v>
+        <v>1.044522828611864</v>
       </c>
       <c r="N23">
-        <v>1.007893232681803</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011887365252845</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.043809215433421</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.038180170690948</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9870080116653449</v>
+        <v>1.002881570710042</v>
       </c>
       <c r="D24">
-        <v>1.006987251340191</v>
+        <v>1.028256770749916</v>
       </c>
       <c r="E24">
-        <v>0.996322224788989</v>
+        <v>1.020986062346097</v>
       </c>
       <c r="F24">
-        <v>0.9244680508784479</v>
+        <v>1.034769603908612</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033920272111789</v>
+        <v>1.053733876202644</v>
       </c>
       <c r="J24">
-        <v>1.015015515629806</v>
+        <v>1.030269146376763</v>
       </c>
       <c r="K24">
-        <v>1.0208927641328</v>
+        <v>1.041805194502604</v>
       </c>
       <c r="L24">
-        <v>1.010414235583876</v>
+        <v>1.034654396672384</v>
       </c>
       <c r="M24">
-        <v>0.9399654964108272</v>
+        <v>1.04821245181614</v>
       </c>
       <c r="N24">
-        <v>1.008962016012827</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013404867430944</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.046729285668299</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.040681163434296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9937870324522424</v>
+        <v>1.010946963620534</v>
       </c>
       <c r="D25">
-        <v>1.012056774935014</v>
+        <v>1.033656484601927</v>
       </c>
       <c r="E25">
-        <v>1.001565683569192</v>
+        <v>1.027158955766422</v>
       </c>
       <c r="F25">
-        <v>0.9472657890345914</v>
+        <v>1.04033291106345</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036493454657553</v>
+        <v>1.055802797383683</v>
       </c>
       <c r="J25">
-        <v>1.018525312207457</v>
+        <v>1.035111452746935</v>
       </c>
       <c r="K25">
-        <v>1.024470764372146</v>
+        <v>1.045753864546437</v>
       </c>
       <c r="L25">
-        <v>1.014139742841709</v>
+        <v>1.03934980142135</v>
       </c>
       <c r="M25">
-        <v>0.9607418930415539</v>
+        <v>1.052335788232687</v>
       </c>
       <c r="N25">
-        <v>1.010138319219393</v>
+        <v>1.015096868412779</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.049992594901446</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.043470191684193</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_2/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017111717944559</v>
+        <v>1.015646800944006</v>
       </c>
       <c r="D2">
-        <v>1.037781087158173</v>
+        <v>1.0357803339635</v>
       </c>
       <c r="E2">
-        <v>1.031895288982335</v>
+        <v>1.030625174984333</v>
       </c>
       <c r="F2">
-        <v>1.044605739501558</v>
+        <v>1.043235335887859</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.057328612170341</v>
+        <v>1.056292277889562</v>
       </c>
       <c r="J2">
-        <v>1.038792394547459</v>
+        <v>1.037369382387283</v>
       </c>
       <c r="K2">
-        <v>1.048738016421513</v>
+        <v>1.04676272023582</v>
       </c>
       <c r="L2">
-        <v>1.042927460035857</v>
+        <v>1.041673723716327</v>
       </c>
       <c r="M2">
-        <v>1.055476748334927</v>
+        <v>1.054123485246553</v>
       </c>
       <c r="N2">
-        <v>1.016373250612844</v>
+        <v>1.016812356367876</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.05247841791836</v>
+        <v>1.051407417571786</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.045532255418252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.044144270722711</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024365370604995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021486595377186</v>
+        <v>1.019771032676285</v>
       </c>
       <c r="D3">
-        <v>1.040721773315419</v>
+        <v>1.03845690874703</v>
       </c>
       <c r="E3">
-        <v>1.035273087148653</v>
+        <v>1.033785497495028</v>
       </c>
       <c r="F3">
-        <v>1.047653014138295</v>
+        <v>1.046086025154154</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.058390888940118</v>
+        <v>1.057215954882805</v>
       </c>
       <c r="J3">
-        <v>1.041408172400791</v>
+        <v>1.039736855398999</v>
       </c>
       <c r="K3">
-        <v>1.050858832664681</v>
+        <v>1.048620281289788</v>
       </c>
       <c r="L3">
-        <v>1.045473690234412</v>
+        <v>1.044003593269599</v>
       </c>
       <c r="M3">
-        <v>1.057710418456749</v>
+        <v>1.056161323621282</v>
       </c>
       <c r="N3">
-        <v>1.017284879189196</v>
+        <v>1.017462683555864</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.054246187236798</v>
+        <v>1.053020204352421</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.047029191166861</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.045454788074143</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024765994590153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02426411081858</v>
+        <v>1.022391319998584</v>
       </c>
       <c r="D4">
-        <v>1.042591251371926</v>
+        <v>1.040159871123636</v>
       </c>
       <c r="E4">
-        <v>1.037423398613218</v>
+        <v>1.035799205678656</v>
       </c>
       <c r="F4">
-        <v>1.049593333486105</v>
+        <v>1.047902650251281</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.059052788860418</v>
+        <v>1.057790303485005</v>
       </c>
       <c r="J4">
-        <v>1.043066864222301</v>
+        <v>1.041239092867669</v>
       </c>
       <c r="K4">
-        <v>1.052201439367171</v>
+        <v>1.049796608602083</v>
       </c>
       <c r="L4">
-        <v>1.047090199933189</v>
+        <v>1.045483943297935</v>
       </c>
       <c r="M4">
-        <v>1.059127904180079</v>
+        <v>1.057455365652253</v>
       </c>
       <c r="N4">
-        <v>1.017862751506251</v>
+        <v>1.017875359500734</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.055368010447684</v>
+        <v>1.054044333771127</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.047979397987989</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.04628750577547</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025017321881457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025423718057961</v>
+        <v>1.023485529603156</v>
       </c>
       <c r="D5">
-        <v>1.043374022685532</v>
+        <v>1.040873339830032</v>
       </c>
       <c r="E5">
-        <v>1.038323158657107</v>
+        <v>1.03664208461171</v>
       </c>
       <c r="F5">
-        <v>1.050405176794923</v>
+        <v>1.04866301228644</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.059327454203448</v>
+        <v>1.05802848926899</v>
       </c>
       <c r="J5">
-        <v>1.04376047293841</v>
+        <v>1.041867478824667</v>
       </c>
       <c r="K5">
-        <v>1.052763494706189</v>
+        <v>1.050289393339202</v>
       </c>
       <c r="L5">
-        <v>1.047766481342429</v>
+        <v>1.046103473004346</v>
       </c>
       <c r="M5">
-        <v>1.059720738343282</v>
+        <v>1.05799677435178</v>
       </c>
       <c r="N5">
-        <v>1.018105275898713</v>
+        <v>1.018048630964183</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.055837189373018</v>
+        <v>1.054472814478145</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.048383901206981</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.046643743173497</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025122666869801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025622916137101</v>
+        <v>1.023673291353795</v>
       </c>
       <c r="D6">
-        <v>1.043510604206126</v>
+        <v>1.040997971417772</v>
       </c>
       <c r="E6">
-        <v>1.038478593356479</v>
+        <v>1.036787539485976</v>
       </c>
       <c r="F6">
-        <v>1.050545260766776</v>
+        <v>1.048794153185507</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.059376135334608</v>
+        <v>1.058070876362081</v>
       </c>
       <c r="J6">
-        <v>1.043881563585599</v>
+        <v>1.041977165039701</v>
       </c>
       <c r="K6">
-        <v>1.052863005686688</v>
+        <v>1.050376959376127</v>
       </c>
       <c r="L6">
-        <v>1.047884397322293</v>
+        <v>1.046211432399953</v>
       </c>
       <c r="M6">
-        <v>1.059824053642099</v>
+        <v>1.058091156406411</v>
       </c>
       <c r="N6">
-        <v>1.01814874482431</v>
+        <v>1.018079661246809</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.055918954808182</v>
+        <v>1.05454751013063</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.048462908783506</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.046715176546152</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025142125233105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024293685679149</v>
+        <v>1.02242908549251</v>
       </c>
       <c r="D7">
-        <v>1.042616781111847</v>
+        <v>1.040190640984722</v>
       </c>
       <c r="E7">
-        <v>1.037448492840731</v>
+        <v>1.035831099708029</v>
       </c>
       <c r="F7">
-        <v>1.049615492664537</v>
+        <v>1.04792971103848</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.059064301200123</v>
+        <v>1.057804596475131</v>
       </c>
       <c r="J7">
-        <v>1.043089858753283</v>
+        <v>1.041270060879895</v>
       </c>
       <c r="K7">
-        <v>1.052223852967472</v>
+        <v>1.049824194539461</v>
       </c>
       <c r="L7">
-        <v>1.047112160580776</v>
+        <v>1.045512621504134</v>
       </c>
       <c r="M7">
-        <v>1.059147012936904</v>
+        <v>1.057479316370148</v>
       </c>
       <c r="N7">
-        <v>1.017873881103869</v>
+        <v>1.017912642551759</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.055383133443663</v>
+        <v>1.054063288810675</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.048015137272903</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.046328907391046</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025026297438183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018619193399622</v>
+        <v>1.017098966072087</v>
       </c>
       <c r="D8">
-        <v>1.038800653134183</v>
+        <v>1.036730603686111</v>
       </c>
       <c r="E8">
-        <v>1.033060759449021</v>
+        <v>1.031742020316526</v>
       </c>
       <c r="F8">
-        <v>1.045656333433113</v>
+        <v>1.044237734241732</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.057702664599276</v>
+        <v>1.056630094765648</v>
       </c>
       <c r="J8">
-        <v>1.039700741646099</v>
+        <v>1.038222529043215</v>
       </c>
       <c r="K8">
-        <v>1.04947949398663</v>
+        <v>1.047435000482348</v>
       </c>
       <c r="L8">
-        <v>1.043810776264318</v>
+        <v>1.042508529257918</v>
       </c>
       <c r="M8">
-        <v>1.056251434494169</v>
+        <v>1.05485005090093</v>
       </c>
       <c r="N8">
-        <v>1.016693933402891</v>
+        <v>1.017130647406845</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.053091519852133</v>
+        <v>1.051982436820578</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.046079216806997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.04464457694937</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024516585694315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.008168624985785</v>
+        <v>1.007264991116573</v>
       </c>
       <c r="D9">
-        <v>1.031786222057003</v>
+        <v>1.030358142069896</v>
       </c>
       <c r="E9">
-        <v>1.025024800256791</v>
+        <v>1.024239854472264</v>
       </c>
       <c r="F9">
-        <v>1.038410244723633</v>
+        <v>1.037471915253975</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.055090774825967</v>
+        <v>1.054354106935998</v>
       </c>
       <c r="J9">
-        <v>1.033436189353969</v>
+        <v>1.032563786633051</v>
       </c>
       <c r="K9">
-        <v>1.044383812994427</v>
+        <v>1.042977158966438</v>
       </c>
       <c r="L9">
-        <v>1.03772450793489</v>
+        <v>1.036951528444412</v>
       </c>
       <c r="M9">
-        <v>1.050909432114389</v>
+        <v>1.049984944998043</v>
       </c>
       <c r="N9">
-        <v>1.014506206876917</v>
+        <v>1.015584280702458</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.048863743426226</v>
+        <v>1.048132081860275</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.042473137866061</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.041489212854666</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023540063582659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.000960506340653</v>
+        <v>1.000534972875134</v>
       </c>
       <c r="D10">
-        <v>1.026984496633603</v>
+        <v>1.026034161497355</v>
       </c>
       <c r="E10">
-        <v>1.019545353479639</v>
+        <v>1.019171200641474</v>
       </c>
       <c r="F10">
-        <v>1.033505400670376</v>
+        <v>1.032930610422859</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.053246830384826</v>
+        <v>1.052759352999838</v>
       </c>
       <c r="J10">
-        <v>1.029136067429168</v>
+        <v>1.028727381536034</v>
       </c>
       <c r="K10">
-        <v>1.040883050676209</v>
+        <v>1.03994874988967</v>
       </c>
       <c r="L10">
-        <v>1.033570455610688</v>
+        <v>1.03320273060585</v>
       </c>
       <c r="M10">
-        <v>1.047294955978722</v>
+        <v>1.04672970229473</v>
       </c>
       <c r="N10">
-        <v>1.013019354214096</v>
+        <v>1.014661053850359</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.046054124920407</v>
+        <v>1.045606795202447</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.040014602399366</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.039366344236111</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022877351685573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9983538670015091</v>
+        <v>0.9981204191568475</v>
       </c>
       <c r="D11">
-        <v>1.025383756092336</v>
+        <v>1.02461627370023</v>
       </c>
       <c r="E11">
-        <v>1.017788210847332</v>
+        <v>1.017569291381728</v>
       </c>
       <c r="F11">
-        <v>1.032194462540974</v>
+        <v>1.031760121791895</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.05271488064955</v>
+        <v>1.052322970550501</v>
       </c>
       <c r="J11">
-        <v>1.027795287739577</v>
+        <v>1.027571600479591</v>
       </c>
       <c r="K11">
-        <v>1.039842339441681</v>
+        <v>1.039088429444052</v>
       </c>
       <c r="L11">
-        <v>1.032382287366803</v>
+        <v>1.032167312078288</v>
       </c>
       <c r="M11">
-        <v>1.046533747772529</v>
+        <v>1.046106954186777</v>
       </c>
       <c r="N11">
-        <v>1.012679611212179</v>
+        <v>1.01466003941727</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.045884231519434</v>
+        <v>1.0455466430969</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.039311429226791</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038793932545688</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02275462696943</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9975757718128463</v>
+        <v>0.9973865487774787</v>
       </c>
       <c r="D12">
-        <v>1.024956184733805</v>
+        <v>1.024232683287513</v>
       </c>
       <c r="E12">
-        <v>1.017356557933812</v>
+        <v>1.017167716024826</v>
       </c>
       <c r="F12">
-        <v>1.032001551851976</v>
+        <v>1.031599354163496</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.052612821504884</v>
+        <v>1.052243984835032</v>
       </c>
       <c r="J12">
-        <v>1.027483084872796</v>
+        <v>1.027301927873967</v>
       </c>
       <c r="K12">
-        <v>1.039620388794143</v>
+        <v>1.038909897296045</v>
       </c>
       <c r="L12">
-        <v>1.032158620695041</v>
+        <v>1.031973238574328</v>
       </c>
       <c r="M12">
-        <v>1.046540303317127</v>
+        <v>1.046145207511164</v>
       </c>
       <c r="N12">
-        <v>1.012667291966335</v>
+        <v>1.014749848382738</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.046213308195331</v>
+        <v>1.045900896510858</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.039154504628045</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03866770835489</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022759797869571</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9981768898688722</v>
+        <v>0.9979033433505059</v>
       </c>
       <c r="D13">
-        <v>1.025426639470707</v>
+        <v>1.024630962072669</v>
       </c>
       <c r="E13">
-        <v>1.017938021883728</v>
+        <v>1.017670583247941</v>
       </c>
       <c r="F13">
-        <v>1.032682943582757</v>
+        <v>1.032220894875789</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.052852906163692</v>
+        <v>1.052446539419581</v>
       </c>
       <c r="J13">
-        <v>1.027965703812702</v>
+        <v>1.027703756579854</v>
       </c>
       <c r="K13">
-        <v>1.040039941473535</v>
+        <v>1.039258508449693</v>
       </c>
       <c r="L13">
-        <v>1.032686533832525</v>
+        <v>1.03242397180791</v>
       </c>
       <c r="M13">
-        <v>1.047167654420811</v>
+        <v>1.046713723964677</v>
       </c>
       <c r="N13">
-        <v>1.012918437833525</v>
+        <v>1.014886236310723</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.046984113368595</v>
+        <v>1.046625268753145</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.039448660770819</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038911459841108</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022870435090249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9992219122167504</v>
+        <v>0.9988328362192185</v>
       </c>
       <c r="D14">
-        <v>1.026163022905473</v>
+        <v>1.025265700370678</v>
       </c>
       <c r="E14">
-        <v>1.018802897273855</v>
+        <v>1.018433249085258</v>
       </c>
       <c r="F14">
-        <v>1.033555453221368</v>
+        <v>1.033011313172663</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.053175694935436</v>
+        <v>1.052716379282446</v>
       </c>
       <c r="J14">
-        <v>1.028662796791255</v>
+        <v>1.028289974890795</v>
       </c>
       <c r="K14">
-        <v>1.040624197325027</v>
+        <v>1.039742735308515</v>
       </c>
       <c r="L14">
-        <v>1.033395237154543</v>
+        <v>1.033032241480922</v>
       </c>
       <c r="M14">
-        <v>1.04788731972101</v>
+        <v>1.047352616073163</v>
       </c>
       <c r="N14">
-        <v>1.013213180227212</v>
+        <v>1.015004813987367</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.047725262419238</v>
+        <v>1.047302620810319</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.039863160379238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.039255368488595</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022996382857962</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9997845422074352</v>
+        <v>0.9993393946165262</v>
       </c>
       <c r="D15">
-        <v>1.026547352946474</v>
+        <v>1.025599913273103</v>
       </c>
       <c r="E15">
-        <v>1.019244620456248</v>
+        <v>1.01882658056517</v>
       </c>
       <c r="F15">
-        <v>1.033972763500015</v>
+        <v>1.033388645573275</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.053334230035259</v>
+        <v>1.052848781868842</v>
       </c>
       <c r="J15">
-        <v>1.029015144061762</v>
+        <v>1.028588425982597</v>
       </c>
       <c r="K15">
-        <v>1.040916162014733</v>
+        <v>1.039985339508766</v>
       </c>
       <c r="L15">
-        <v>1.033742549217889</v>
+        <v>1.033331973426636</v>
       </c>
       <c r="M15">
-        <v>1.048212701534698</v>
+        <v>1.047638634433446</v>
       </c>
       <c r="N15">
-        <v>1.013347003615977</v>
+        <v>1.015050499126686</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.048019770762663</v>
+        <v>1.047566027233693</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.04007542081475</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.039433297991206</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02305376860999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.002732640595249</v>
+        <v>1.002029897905241</v>
       </c>
       <c r="D16">
-        <v>1.02850415237778</v>
+        <v>1.027319380910722</v>
       </c>
       <c r="E16">
-        <v>1.021464367297918</v>
+        <v>1.020828980113818</v>
       </c>
       <c r="F16">
-        <v>1.035951287352334</v>
+        <v>1.035181051173038</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.054094152555435</v>
+        <v>1.053484825024734</v>
       </c>
       <c r="J16">
-        <v>1.030761817893809</v>
+        <v>1.030086681183663</v>
       </c>
       <c r="K16">
-        <v>1.04234192116764</v>
+        <v>1.041177011165705</v>
       </c>
       <c r="L16">
-        <v>1.035421024376173</v>
+        <v>1.034796471855766</v>
       </c>
       <c r="M16">
-        <v>1.049665550534562</v>
+        <v>1.048907982205863</v>
       </c>
       <c r="N16">
-        <v>1.013934794478364</v>
+        <v>1.015236570677315</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.049129622079311</v>
+        <v>1.048530821794599</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.041086612782824</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.040279278938183</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023308115330976</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.004447702750219</v>
+        <v>1.003619452508125</v>
       </c>
       <c r="D17">
-        <v>1.029620148839603</v>
+        <v>1.028314202284667</v>
       </c>
       <c r="E17">
-        <v>1.022715345472776</v>
+        <v>1.021975767486555</v>
       </c>
       <c r="F17">
-        <v>1.037008374418556</v>
+        <v>1.036145125505504</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.05450442663387</v>
+        <v>1.053831778865534</v>
       </c>
       <c r="J17">
-        <v>1.031736028775357</v>
+        <v>1.030939247550714</v>
       </c>
       <c r="K17">
-        <v>1.043128024251418</v>
+        <v>1.041843349074296</v>
       </c>
       <c r="L17">
-        <v>1.036336479391411</v>
+        <v>1.035609149413201</v>
       </c>
       <c r="M17">
-        <v>1.050397203083835</v>
+        <v>1.049547751420976</v>
       </c>
       <c r="N17">
-        <v>1.014231317642008</v>
+        <v>1.015347258631494</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.049579753960041</v>
+        <v>1.04890826058254</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.041644976158984</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.040753210505212</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023438198811842</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005244229662658</v>
+        <v>1.004380760867619</v>
       </c>
       <c r="D18">
-        <v>1.030091670256499</v>
+        <v>1.028745890678095</v>
       </c>
       <c r="E18">
-        <v>1.023219161874214</v>
+        <v>1.022453758799164</v>
       </c>
       <c r="F18">
-        <v>1.037328400244133</v>
+        <v>1.036436752761102</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.054639867877357</v>
+        <v>1.053946318673805</v>
       </c>
       <c r="J18">
-        <v>1.032110569879295</v>
+        <v>1.031279283830091</v>
       </c>
       <c r="K18">
-        <v>1.043410439746744</v>
+        <v>1.042086218471706</v>
       </c>
       <c r="L18">
-        <v>1.036648787258081</v>
+        <v>1.035895848895391</v>
       </c>
       <c r="M18">
-        <v>1.050532470406524</v>
+        <v>1.049654844460295</v>
       </c>
       <c r="N18">
-        <v>1.014290584675268</v>
+        <v>1.015353728439306</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.049450788620521</v>
+        <v>1.048756880717454</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.041833097644409</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.040912233992471</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023461394943064</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005217432949883</v>
+        <v>1.004391904020799</v>
       </c>
       <c r="D19">
-        <v>1.029989854456311</v>
+        <v>1.028672721635505</v>
       </c>
       <c r="E19">
-        <v>1.023051398230042</v>
+        <v>1.022324003937801</v>
       </c>
       <c r="F19">
-        <v>1.036984243670964</v>
+        <v>1.036117902001006</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.0545340252772</v>
+        <v>1.053855288535555</v>
       </c>
       <c r="J19">
-        <v>1.031951287002244</v>
+        <v>1.031156347713635</v>
       </c>
       <c r="K19">
-        <v>1.043248373202827</v>
+        <v>1.041952232033536</v>
       </c>
       <c r="L19">
-        <v>1.036421277877581</v>
+        <v>1.035705670538351</v>
       </c>
       <c r="M19">
-        <v>1.050132432775988</v>
+        <v>1.049279653412078</v>
       </c>
       <c r="N19">
-        <v>1.014147027444535</v>
+        <v>1.015252980982921</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.048811767662424</v>
+        <v>1.048137288331615</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.041724861660984</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.040824477103069</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023391211476834</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.002869111670158</v>
+        <v>1.002283882082328</v>
       </c>
       <c r="D20">
-        <v>1.028268590927262</v>
+        <v>1.02716954425111</v>
       </c>
       <c r="E20">
-        <v>1.021001174753173</v>
+        <v>1.020489518443022</v>
       </c>
       <c r="F20">
-        <v>1.034808063351516</v>
+        <v>1.034116245416969</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.053750620423794</v>
+        <v>1.053185506281158</v>
       </c>
       <c r="J20">
-        <v>1.0302898801393</v>
+        <v>1.029727046909188</v>
       </c>
       <c r="K20">
-        <v>1.041831939511777</v>
+        <v>1.040750901101096</v>
       </c>
       <c r="L20">
-        <v>1.034684529191184</v>
+        <v>1.034181404766627</v>
       </c>
       <c r="M20">
-        <v>1.048265275270061</v>
+        <v>1.047584604166319</v>
       </c>
       <c r="N20">
-        <v>1.013428344488721</v>
+        <v>1.014837540407217</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.046811569845112</v>
+        <v>1.046272894975123</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.040727300961802</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039979394162668</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023056611503544</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.997329711765008</v>
+        <v>0.997272402271964</v>
       </c>
       <c r="D21">
-        <v>1.024558017003619</v>
+        <v>1.023937905254779</v>
       </c>
       <c r="E21">
-        <v>1.016761010176307</v>
+        <v>1.016704543680504</v>
       </c>
       <c r="F21">
-        <v>1.030962907686264</v>
+        <v>1.030652764715089</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.052282096551238</v>
+        <v>1.051966964531029</v>
       </c>
       <c r="J21">
-        <v>1.026939502440725</v>
+        <v>1.026884607542593</v>
       </c>
       <c r="K21">
-        <v>1.039088602868193</v>
+        <v>1.038479528458853</v>
       </c>
       <c r="L21">
-        <v>1.031431648828575</v>
+        <v>1.031376206796813</v>
       </c>
       <c r="M21">
-        <v>1.045380499496881</v>
+        <v>1.045075786100243</v>
       </c>
       <c r="N21">
-        <v>1.01224610458909</v>
+        <v>1.014485016444394</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.04448800102058</v>
+        <v>1.044246842082447</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.038790901742294</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038377023321863</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022557969026428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9937912679213841</v>
+        <v>0.9940706011156185</v>
       </c>
       <c r="D22">
-        <v>1.022195892558434</v>
+        <v>1.021881222602808</v>
       </c>
       <c r="E22">
-        <v>1.01407196672243</v>
+        <v>1.014306036710473</v>
       </c>
       <c r="F22">
-        <v>1.028543010669896</v>
+        <v>1.028476686435697</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.051337159411927</v>
+        <v>1.051181187620777</v>
       </c>
       <c r="J22">
-        <v>1.02480640808988</v>
+        <v>1.025073265617767</v>
       </c>
       <c r="K22">
-        <v>1.037340105798516</v>
+        <v>1.037031323549178</v>
       </c>
       <c r="L22">
-        <v>1.029369716296069</v>
+        <v>1.029599317507828</v>
       </c>
       <c r="M22">
-        <v>1.043569466843368</v>
+        <v>1.043504363321081</v>
       </c>
       <c r="N22">
-        <v>1.011496423077733</v>
+        <v>1.0142559382514</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.043054696567416</v>
+        <v>1.043003171674536</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.037541220079859</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.03733836558018</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022239883767833</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9956609459927308</v>
+        <v>0.995745496763465</v>
       </c>
       <c r="D23">
-        <v>1.023438770213256</v>
+        <v>1.022950584984147</v>
       </c>
       <c r="E23">
-        <v>1.015489594253736</v>
+        <v>1.015555574730719</v>
       </c>
       <c r="F23">
-        <v>1.029819514679432</v>
+        <v>1.029613445231935</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.051834054111274</v>
+        <v>1.051587633297697</v>
       </c>
       <c r="J23">
-        <v>1.02592873708034</v>
+        <v>1.02600962563785</v>
       </c>
       <c r="K23">
-        <v>1.038257371798506</v>
+        <v>1.037778084218339</v>
       </c>
       <c r="L23">
-        <v>1.030454465823935</v>
+        <v>1.030519219924318</v>
       </c>
       <c r="M23">
-        <v>1.044522828611864</v>
+        <v>1.044320453432636</v>
       </c>
       <c r="N23">
-        <v>1.011887365252845</v>
+        <v>1.014326832730819</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.043809215433421</v>
+        <v>1.043649049761254</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038180170690948</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037855818027431</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022400185309436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002881570710042</v>
+        <v>1.002301358912173</v>
       </c>
       <c r="D24">
-        <v>1.028256770749916</v>
+        <v>1.027160902057028</v>
       </c>
       <c r="E24">
-        <v>1.020986062346097</v>
+        <v>1.020479721467183</v>
       </c>
       <c r="F24">
-        <v>1.034769603908612</v>
+        <v>1.034081044736813</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.053733876202644</v>
+        <v>1.053170418000805</v>
       </c>
       <c r="J24">
-        <v>1.030269146376763</v>
+        <v>1.029711106810829</v>
       </c>
       <c r="K24">
-        <v>1.041805194502604</v>
+        <v>1.040727259494671</v>
       </c>
       <c r="L24">
-        <v>1.034654396672384</v>
+        <v>1.034156488487914</v>
       </c>
       <c r="M24">
-        <v>1.04821245181614</v>
+        <v>1.047534973818057</v>
       </c>
       <c r="N24">
-        <v>1.013404867430944</v>
+        <v>1.014818718527414</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.046729285668299</v>
+        <v>1.046193111642965</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.040681163434296</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03993277651328</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023042524686407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010946963620534</v>
+        <v>1.009863044808098</v>
       </c>
       <c r="D25">
-        <v>1.033656484601927</v>
+        <v>1.032047053362318</v>
       </c>
       <c r="E25">
-        <v>1.027158955766422</v>
+        <v>1.026218133607774</v>
       </c>
       <c r="F25">
-        <v>1.04033291106345</v>
+        <v>1.039256810423185</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.055802797383683</v>
+        <v>1.054971343471158</v>
       </c>
       <c r="J25">
-        <v>1.035111452746935</v>
+        <v>1.034062977014166</v>
       </c>
       <c r="K25">
-        <v>1.045753864546437</v>
+        <v>1.044167445844942</v>
       </c>
       <c r="L25">
-        <v>1.03934980142135</v>
+        <v>1.038422637194712</v>
       </c>
       <c r="M25">
-        <v>1.052335788232687</v>
+        <v>1.051274815758999</v>
       </c>
       <c r="N25">
-        <v>1.015096868412779</v>
+        <v>1.015966126997553</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.049992594901446</v>
+        <v>1.049152916721463</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043470191684193</v>
+        <v>1.042361969272333</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023805047902849</v>
       </c>
     </row>
   </sheetData>
